--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
+    <sheet name="Cotacoes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t>Close</t>
   </si>
@@ -300,11 +301,17 @@
   <si>
     <t>Neutra</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -357,9 +364,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4023,4 +4033,6078 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C551"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="B2">
+        <v>30590.29</v>
+      </c>
+      <c r="C2">
+        <v>1891.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45102.70833333334</v>
+      </c>
+      <c r="B3">
+        <v>30526.01</v>
+      </c>
+      <c r="C3">
+        <v>1893.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45102.75</v>
+      </c>
+      <c r="B4">
+        <v>30453.03</v>
+      </c>
+      <c r="C4">
+        <v>1894.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45102.79166666666</v>
+      </c>
+      <c r="B5">
+        <v>30429.78</v>
+      </c>
+      <c r="C5">
+        <v>1894.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45102.83333333334</v>
+      </c>
+      <c r="B6">
+        <v>30374</v>
+      </c>
+      <c r="C6">
+        <v>1894.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>45102.875</v>
+      </c>
+      <c r="B7">
+        <v>30451.52</v>
+      </c>
+      <c r="C7">
+        <v>1895.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45102.91666666666</v>
+      </c>
+      <c r="B8">
+        <v>30500.86</v>
+      </c>
+      <c r="C8">
+        <v>1900.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>45102.95833333334</v>
+      </c>
+      <c r="B9">
+        <v>30462.66</v>
+      </c>
+      <c r="C9">
+        <v>1898.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B10">
+        <v>30394.89</v>
+      </c>
+      <c r="C10">
+        <v>1888.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45103.04166666666</v>
+      </c>
+      <c r="B11">
+        <v>30172.74</v>
+      </c>
+      <c r="C11">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45103.08333333334</v>
+      </c>
+      <c r="B12">
+        <v>30222.48</v>
+      </c>
+      <c r="C12">
+        <v>1878.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45103.125</v>
+      </c>
+      <c r="B13">
+        <v>30296.36</v>
+      </c>
+      <c r="C13">
+        <v>1880.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45103.16666666666</v>
+      </c>
+      <c r="B14">
+        <v>30245.17</v>
+      </c>
+      <c r="C14">
+        <v>1877.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45103.20833333334</v>
+      </c>
+      <c r="B15">
+        <v>30215.05</v>
+      </c>
+      <c r="C15">
+        <v>1877.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45103.25</v>
+      </c>
+      <c r="B16">
+        <v>30483.97</v>
+      </c>
+      <c r="C16">
+        <v>1895.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45103.29166666666</v>
+      </c>
+      <c r="B17">
+        <v>30404.29</v>
+      </c>
+      <c r="C17">
+        <v>1892.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45103.33333333334</v>
+      </c>
+      <c r="B18">
+        <v>30405.75</v>
+      </c>
+      <c r="C18">
+        <v>1892.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45103.375</v>
+      </c>
+      <c r="B19">
+        <v>30268</v>
+      </c>
+      <c r="C19">
+        <v>1884.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45103.41666666666</v>
+      </c>
+      <c r="B20">
+        <v>30267.99</v>
+      </c>
+      <c r="C20">
+        <v>1877.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45103.45833333334</v>
+      </c>
+      <c r="B21">
+        <v>30322.89</v>
+      </c>
+      <c r="C21">
+        <v>1880.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45103.5</v>
+      </c>
+      <c r="B22">
+        <v>30359.3</v>
+      </c>
+      <c r="C22">
+        <v>1884.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45103.54166666666</v>
+      </c>
+      <c r="B23">
+        <v>30639.14</v>
+      </c>
+      <c r="C23">
+        <v>1905.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45103.58333333334</v>
+      </c>
+      <c r="B24">
+        <v>30394.56</v>
+      </c>
+      <c r="C24">
+        <v>1883.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45103.625</v>
+      </c>
+      <c r="B25">
+        <v>30419.62</v>
+      </c>
+      <c r="C25">
+        <v>1889.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45103.66666666666</v>
+      </c>
+      <c r="B26">
+        <v>30100.47</v>
+      </c>
+      <c r="C26">
+        <v>1852.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45103.70833333334</v>
+      </c>
+      <c r="B27">
+        <v>30084.63</v>
+      </c>
+      <c r="C27">
+        <v>1846.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45103.75</v>
+      </c>
+      <c r="B28">
+        <v>30213.36</v>
+      </c>
+      <c r="C28">
+        <v>1850.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45103.79166666666</v>
+      </c>
+      <c r="B29">
+        <v>30243.97</v>
+      </c>
+      <c r="C29">
+        <v>1854.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45103.83333333334</v>
+      </c>
+      <c r="B30">
+        <v>30161.78</v>
+      </c>
+      <c r="C30">
+        <v>1851.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45103.875</v>
+      </c>
+      <c r="B31">
+        <v>30158.07</v>
+      </c>
+      <c r="C31">
+        <v>1850.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45103.91666666666</v>
+      </c>
+      <c r="B32">
+        <v>30227.51</v>
+      </c>
+      <c r="C32">
+        <v>1858.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45103.95833333334</v>
+      </c>
+      <c r="B33">
+        <v>30267.99</v>
+      </c>
+      <c r="C33">
+        <v>1858.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B34">
+        <v>30354.02</v>
+      </c>
+      <c r="C34">
+        <v>1862.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45104.04166666666</v>
+      </c>
+      <c r="B35">
+        <v>30373.77</v>
+      </c>
+      <c r="C35">
+        <v>1864.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45104.08333333334</v>
+      </c>
+      <c r="B36">
+        <v>30480.06</v>
+      </c>
+      <c r="C36">
+        <v>1875.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45104.125</v>
+      </c>
+      <c r="B37">
+        <v>30371.57</v>
+      </c>
+      <c r="C37">
+        <v>1872.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45104.16666666666</v>
+      </c>
+      <c r="B38">
+        <v>30348.8</v>
+      </c>
+      <c r="C38">
+        <v>1870.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45104.20833333334</v>
+      </c>
+      <c r="B39">
+        <v>30317.9</v>
+      </c>
+      <c r="C39">
+        <v>1867.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45104.25</v>
+      </c>
+      <c r="B40">
+        <v>30320.14</v>
+      </c>
+      <c r="C40">
+        <v>1869.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45104.29166666666</v>
+      </c>
+      <c r="B41">
+        <v>30411.22</v>
+      </c>
+      <c r="C41">
+        <v>1875.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45104.33333333334</v>
+      </c>
+      <c r="B42">
+        <v>30395.14</v>
+      </c>
+      <c r="C42">
+        <v>1876.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45104.375</v>
+      </c>
+      <c r="B43">
+        <v>30377.98</v>
+      </c>
+      <c r="C43">
+        <v>1875.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45104.41666666666</v>
+      </c>
+      <c r="B44">
+        <v>30656.57</v>
+      </c>
+      <c r="C44">
+        <v>1882.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45104.45833333334</v>
+      </c>
+      <c r="B45">
+        <v>30729.1</v>
+      </c>
+      <c r="C45">
+        <v>1881.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="B46">
+        <v>30713.99</v>
+      </c>
+      <c r="C46">
+        <v>1884.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45104.54166666666</v>
+      </c>
+      <c r="B47">
+        <v>30610.41</v>
+      </c>
+      <c r="C47">
+        <v>1880.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45104.58333333334</v>
+      </c>
+      <c r="B48">
+        <v>30808.63</v>
+      </c>
+      <c r="C48">
+        <v>1884.39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45104.625</v>
+      </c>
+      <c r="B49">
+        <v>30498.74</v>
+      </c>
+      <c r="C49">
+        <v>1871.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45104.66666666666</v>
+      </c>
+      <c r="B50">
+        <v>30710.65</v>
+      </c>
+      <c r="C50">
+        <v>1909.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45104.70833333334</v>
+      </c>
+      <c r="B51">
+        <v>30733.2</v>
+      </c>
+      <c r="C51">
+        <v>1901.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45104.75</v>
+      </c>
+      <c r="B52">
+        <v>30686.32</v>
+      </c>
+      <c r="C52">
+        <v>1897.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45104.79166666666</v>
+      </c>
+      <c r="B53">
+        <v>30648.03</v>
+      </c>
+      <c r="C53">
+        <v>1894.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45104.83333333334</v>
+      </c>
+      <c r="B54">
+        <v>30649.96</v>
+      </c>
+      <c r="C54">
+        <v>1892.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45104.875</v>
+      </c>
+      <c r="B55">
+        <v>30717.42</v>
+      </c>
+      <c r="C55">
+        <v>1895.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45104.91666666666</v>
+      </c>
+      <c r="B56">
+        <v>30586.45</v>
+      </c>
+      <c r="C56">
+        <v>1886.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45104.95833333334</v>
+      </c>
+      <c r="B57">
+        <v>30692.44</v>
+      </c>
+      <c r="C57">
+        <v>1889.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B58">
+        <v>30614</v>
+      </c>
+      <c r="C58">
+        <v>1875.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45105.04166666666</v>
+      </c>
+      <c r="B59">
+        <v>30498.42</v>
+      </c>
+      <c r="C59">
+        <v>1870.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45105.08333333334</v>
+      </c>
+      <c r="B60">
+        <v>30420.01</v>
+      </c>
+      <c r="C60">
+        <v>1861.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45105.125</v>
+      </c>
+      <c r="B61">
+        <v>30452.75</v>
+      </c>
+      <c r="C61">
+        <v>1866.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45105.16666666666</v>
+      </c>
+      <c r="B62">
+        <v>30482.31</v>
+      </c>
+      <c r="C62">
+        <v>1867.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45105.20833333334</v>
+      </c>
+      <c r="B63">
+        <v>30452.53</v>
+      </c>
+      <c r="C63">
+        <v>1867.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45105.25</v>
+      </c>
+      <c r="B64">
+        <v>30375.09</v>
+      </c>
+      <c r="C64">
+        <v>1860.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45105.29166666666</v>
+      </c>
+      <c r="B65">
+        <v>30186.13</v>
+      </c>
+      <c r="C65">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45105.33333333334</v>
+      </c>
+      <c r="B66">
+        <v>30278</v>
+      </c>
+      <c r="C66">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45105.375</v>
+      </c>
+      <c r="B67">
+        <v>30304.42</v>
+      </c>
+      <c r="C67">
+        <v>1860.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45105.41666666666</v>
+      </c>
+      <c r="B68">
+        <v>30337.62</v>
+      </c>
+      <c r="C68">
+        <v>1863.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45105.45833333334</v>
+      </c>
+      <c r="B69">
+        <v>30310.73</v>
+      </c>
+      <c r="C69">
+        <v>1861.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45105.5</v>
+      </c>
+      <c r="B70">
+        <v>30101.99</v>
+      </c>
+      <c r="C70">
+        <v>1852.65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45105.54166666666</v>
+      </c>
+      <c r="B71">
+        <v>30202.34</v>
+      </c>
+      <c r="C71">
+        <v>1857.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45105.58333333334</v>
+      </c>
+      <c r="B72">
+        <v>30316</v>
+      </c>
+      <c r="C72">
+        <v>1857.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45105.625</v>
+      </c>
+      <c r="B73">
+        <v>30411.06</v>
+      </c>
+      <c r="C73">
+        <v>1859.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45105.66666666666</v>
+      </c>
+      <c r="B74">
+        <v>30258</v>
+      </c>
+      <c r="C74">
+        <v>1855.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45105.70833333334</v>
+      </c>
+      <c r="B75">
+        <v>30155.23</v>
+      </c>
+      <c r="C75">
+        <v>1848.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45105.75</v>
+      </c>
+      <c r="B76">
+        <v>30198.15</v>
+      </c>
+      <c r="C76">
+        <v>1847.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="B77">
+        <v>30100</v>
+      </c>
+      <c r="C77">
+        <v>1832.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="B78">
+        <v>30108.01</v>
+      </c>
+      <c r="C78">
+        <v>1831.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45105.875</v>
+      </c>
+      <c r="B79">
+        <v>30134.38</v>
+      </c>
+      <c r="C79">
+        <v>1829.84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45105.91666666666</v>
+      </c>
+      <c r="B80">
+        <v>30105.94</v>
+      </c>
+      <c r="C80">
+        <v>1827.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45105.95833333334</v>
+      </c>
+      <c r="B81">
+        <v>30077.41</v>
+      </c>
+      <c r="C81">
+        <v>1828.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B82">
+        <v>30079.99</v>
+      </c>
+      <c r="C82">
+        <v>1832.49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45106.04166666666</v>
+      </c>
+      <c r="B83">
+        <v>30168.77</v>
+      </c>
+      <c r="C83">
+        <v>1835.97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45106.08333333334</v>
+      </c>
+      <c r="B84">
+        <v>30121.15</v>
+      </c>
+      <c r="C84">
+        <v>1832.55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45106.125</v>
+      </c>
+      <c r="B85">
+        <v>30176</v>
+      </c>
+      <c r="C85">
+        <v>1838.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45106.16666666666</v>
+      </c>
+      <c r="B86">
+        <v>30221.3</v>
+      </c>
+      <c r="C86">
+        <v>1839.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45106.20833333334</v>
+      </c>
+      <c r="B87">
+        <v>30183</v>
+      </c>
+      <c r="C87">
+        <v>1838.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45106.25</v>
+      </c>
+      <c r="B88">
+        <v>30235.56</v>
+      </c>
+      <c r="C88">
+        <v>1838.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45106.29166666666</v>
+      </c>
+      <c r="B89">
+        <v>30340.29</v>
+      </c>
+      <c r="C89">
+        <v>1847.45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45106.33333333334</v>
+      </c>
+      <c r="B90">
+        <v>30383.98</v>
+      </c>
+      <c r="C90">
+        <v>1848.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45106.375</v>
+      </c>
+      <c r="B91">
+        <v>30433.33</v>
+      </c>
+      <c r="C91">
+        <v>1858.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45106.41666666666</v>
+      </c>
+      <c r="B92">
+        <v>30697.11</v>
+      </c>
+      <c r="C92">
+        <v>1868.72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45106.45833333334</v>
+      </c>
+      <c r="B93">
+        <v>30670.94</v>
+      </c>
+      <c r="C93">
+        <v>1869.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45106.5</v>
+      </c>
+      <c r="B94">
+        <v>30623.93</v>
+      </c>
+      <c r="C94">
+        <v>1866.07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45106.54166666666</v>
+      </c>
+      <c r="B95">
+        <v>30564</v>
+      </c>
+      <c r="C95">
+        <v>1857.89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45106.58333333334</v>
+      </c>
+      <c r="B96">
+        <v>30450.01</v>
+      </c>
+      <c r="C96">
+        <v>1849.61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45106.625</v>
+      </c>
+      <c r="B97">
+        <v>30478.8</v>
+      </c>
+      <c r="C97">
+        <v>1851.79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45106.66666666666</v>
+      </c>
+      <c r="B98">
+        <v>30502.01</v>
+      </c>
+      <c r="C98">
+        <v>1850.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45106.70833333334</v>
+      </c>
+      <c r="B99">
+        <v>30543.33</v>
+      </c>
+      <c r="C99">
+        <v>1850.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45106.75</v>
+      </c>
+      <c r="B100">
+        <v>30566.8</v>
+      </c>
+      <c r="C100">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45106.79166666666</v>
+      </c>
+      <c r="B101">
+        <v>30584.99</v>
+      </c>
+      <c r="C101">
+        <v>1857.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45106.83333333334</v>
+      </c>
+      <c r="B102">
+        <v>30398.98</v>
+      </c>
+      <c r="C102">
+        <v>1849.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45106.875</v>
+      </c>
+      <c r="B103">
+        <v>30417.34</v>
+      </c>
+      <c r="C103">
+        <v>1851.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45106.91666666666</v>
+      </c>
+      <c r="B104">
+        <v>30409.34</v>
+      </c>
+      <c r="C104">
+        <v>1851.59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45106.95833333334</v>
+      </c>
+      <c r="B105">
+        <v>30447.31</v>
+      </c>
+      <c r="C105">
+        <v>1851.99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B106">
+        <v>30441.34</v>
+      </c>
+      <c r="C106">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45107.04166666666</v>
+      </c>
+      <c r="B107">
+        <v>30384.53</v>
+      </c>
+      <c r="C107">
+        <v>1844.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45107.08333333334</v>
+      </c>
+      <c r="B108">
+        <v>30661.82</v>
+      </c>
+      <c r="C108">
+        <v>1861.58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45107.125</v>
+      </c>
+      <c r="B109">
+        <v>30745.05</v>
+      </c>
+      <c r="C109">
+        <v>1873.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45107.16666666666</v>
+      </c>
+      <c r="B110">
+        <v>30877.99</v>
+      </c>
+      <c r="C110">
+        <v>1887.39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45107.20833333334</v>
+      </c>
+      <c r="B111">
+        <v>30736.63</v>
+      </c>
+      <c r="C111">
+        <v>1882.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45107.25</v>
+      </c>
+      <c r="B112">
+        <v>30665.99</v>
+      </c>
+      <c r="C112">
+        <v>1874.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45107.29166666666</v>
+      </c>
+      <c r="B113">
+        <v>30765.09</v>
+      </c>
+      <c r="C113">
+        <v>1887.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45107.33333333334</v>
+      </c>
+      <c r="B114">
+        <v>30854</v>
+      </c>
+      <c r="C114">
+        <v>1889.49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45107.375</v>
+      </c>
+      <c r="B115">
+        <v>30768.83</v>
+      </c>
+      <c r="C115">
+        <v>1885.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45107.41666666666</v>
+      </c>
+      <c r="B116">
+        <v>30811.52</v>
+      </c>
+      <c r="C116">
+        <v>1892.22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45107.45833333334</v>
+      </c>
+      <c r="B117">
+        <v>30910.01</v>
+      </c>
+      <c r="C117">
+        <v>1891.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45107.5</v>
+      </c>
+      <c r="B118">
+        <v>31010.11</v>
+      </c>
+      <c r="C118">
+        <v>1906.66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45107.54166666666</v>
+      </c>
+      <c r="B119">
+        <v>30135.62</v>
+      </c>
+      <c r="C119">
+        <v>1855.36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45107.58333333334</v>
+      </c>
+      <c r="B120">
+        <v>30092.5</v>
+      </c>
+      <c r="C120">
+        <v>1845.45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45107.625</v>
+      </c>
+      <c r="B121">
+        <v>30067.72</v>
+      </c>
+      <c r="C121">
+        <v>1852.32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45107.66666666666</v>
+      </c>
+      <c r="B122">
+        <v>30400.53</v>
+      </c>
+      <c r="C122">
+        <v>1898.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45107.70833333334</v>
+      </c>
+      <c r="B123">
+        <v>30455.8</v>
+      </c>
+      <c r="C123">
+        <v>1931.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45107.75</v>
+      </c>
+      <c r="B124">
+        <v>30359.99</v>
+      </c>
+      <c r="C124">
+        <v>1924.61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45107.79166666666</v>
+      </c>
+      <c r="B125">
+        <v>30372.36</v>
+      </c>
+      <c r="C125">
+        <v>1926.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45107.83333333334</v>
+      </c>
+      <c r="B126">
+        <v>30397.54</v>
+      </c>
+      <c r="C126">
+        <v>1927.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45107.875</v>
+      </c>
+      <c r="B127">
+        <v>30479.56</v>
+      </c>
+      <c r="C127">
+        <v>1931.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45107.91666666666</v>
+      </c>
+      <c r="B128">
+        <v>30476.68</v>
+      </c>
+      <c r="C128">
+        <v>1934.59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45107.95833333334</v>
+      </c>
+      <c r="B129">
+        <v>30472</v>
+      </c>
+      <c r="C129">
+        <v>1933.79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B130">
+        <v>30469.83</v>
+      </c>
+      <c r="C130">
+        <v>1934.11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45108.04166666666</v>
+      </c>
+      <c r="B131">
+        <v>30447.78</v>
+      </c>
+      <c r="C131">
+        <v>1929.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45108.08333333334</v>
+      </c>
+      <c r="B132">
+        <v>30420.85</v>
+      </c>
+      <c r="C132">
+        <v>1920.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45108.125</v>
+      </c>
+      <c r="B133">
+        <v>30398.01</v>
+      </c>
+      <c r="C133">
+        <v>1920.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45108.16666666666</v>
+      </c>
+      <c r="B134">
+        <v>30389.15</v>
+      </c>
+      <c r="C134">
+        <v>1915.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45108.20833333334</v>
+      </c>
+      <c r="B135">
+        <v>30429.36</v>
+      </c>
+      <c r="C135">
+        <v>1919.07</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45108.25</v>
+      </c>
+      <c r="B136">
+        <v>30450.26</v>
+      </c>
+      <c r="C136">
+        <v>1920.83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45108.29166666666</v>
+      </c>
+      <c r="B137">
+        <v>30459.88</v>
+      </c>
+      <c r="C137">
+        <v>1920.05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45108.33333333334</v>
+      </c>
+      <c r="B138">
+        <v>30441.7</v>
+      </c>
+      <c r="C138">
+        <v>1915.32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45108.375</v>
+      </c>
+      <c r="B139">
+        <v>30441.23</v>
+      </c>
+      <c r="C139">
+        <v>1916.93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B140">
+        <v>30469.98</v>
+      </c>
+      <c r="C140">
+        <v>1922.42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45108.45833333334</v>
+      </c>
+      <c r="B141">
+        <v>30523.02</v>
+      </c>
+      <c r="C141">
+        <v>1922.55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45108.5</v>
+      </c>
+      <c r="B142">
+        <v>30564.01</v>
+      </c>
+      <c r="C142">
+        <v>1927.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45108.54166666666</v>
+      </c>
+      <c r="B143">
+        <v>30565.26</v>
+      </c>
+      <c r="C143">
+        <v>1923.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45108.58333333334</v>
+      </c>
+      <c r="B144">
+        <v>30608.52</v>
+      </c>
+      <c r="C144">
+        <v>1923.06</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="B145">
+        <v>30572.58</v>
+      </c>
+      <c r="C145">
+        <v>1922.63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="B146">
+        <v>30572</v>
+      </c>
+      <c r="C146">
+        <v>1919.62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="B147">
+        <v>30573.86</v>
+      </c>
+      <c r="C147">
+        <v>1918.31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45108.75</v>
+      </c>
+      <c r="B148">
+        <v>30608.87</v>
+      </c>
+      <c r="C148">
+        <v>1921.26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45108.79166666666</v>
+      </c>
+      <c r="B149">
+        <v>30609.51</v>
+      </c>
+      <c r="C149">
+        <v>1922.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45108.83333333334</v>
+      </c>
+      <c r="B150">
+        <v>30582.58</v>
+      </c>
+      <c r="C150">
+        <v>1922.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45108.875</v>
+      </c>
+      <c r="B151">
+        <v>30584.65</v>
+      </c>
+      <c r="C151">
+        <v>1922.86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45108.91666666666</v>
+      </c>
+      <c r="B152">
+        <v>30577.64</v>
+      </c>
+      <c r="C152">
+        <v>1922.74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45108.95833333334</v>
+      </c>
+      <c r="B153">
+        <v>30585.9</v>
+      </c>
+      <c r="C153">
+        <v>1924.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B154">
+        <v>30575.77</v>
+      </c>
+      <c r="C154">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45109.04166666666</v>
+      </c>
+      <c r="B155">
+        <v>30567.56</v>
+      </c>
+      <c r="C155">
+        <v>1920.33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45109.08333333334</v>
+      </c>
+      <c r="B156">
+        <v>30542</v>
+      </c>
+      <c r="C156">
+        <v>1919.57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45109.125</v>
+      </c>
+      <c r="B157">
+        <v>30509.31</v>
+      </c>
+      <c r="C157">
+        <v>1913.91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45109.16666666666</v>
+      </c>
+      <c r="B158">
+        <v>30527.67</v>
+      </c>
+      <c r="C158">
+        <v>1913.41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45109.20833333334</v>
+      </c>
+      <c r="B159">
+        <v>30481.27</v>
+      </c>
+      <c r="C159">
+        <v>1913.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45109.25</v>
+      </c>
+      <c r="B160">
+        <v>30480</v>
+      </c>
+      <c r="C160">
+        <v>1913.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45109.29166666666</v>
+      </c>
+      <c r="B161">
+        <v>30513.01</v>
+      </c>
+      <c r="C161">
+        <v>1914.97</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45109.33333333334</v>
+      </c>
+      <c r="B162">
+        <v>30484.01</v>
+      </c>
+      <c r="C162">
+        <v>1912.07</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45109.375</v>
+      </c>
+      <c r="B163">
+        <v>30516.81</v>
+      </c>
+      <c r="C163">
+        <v>1917.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45109.41666666666</v>
+      </c>
+      <c r="B164">
+        <v>30509.99</v>
+      </c>
+      <c r="C164">
+        <v>1917.12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45109.45833333334</v>
+      </c>
+      <c r="B165">
+        <v>30544.74</v>
+      </c>
+      <c r="C165">
+        <v>1919.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45109.5</v>
+      </c>
+      <c r="B166">
+        <v>30525.99</v>
+      </c>
+      <c r="C166">
+        <v>1917.79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45109.54166666666</v>
+      </c>
+      <c r="B167">
+        <v>30517.96</v>
+      </c>
+      <c r="C167">
+        <v>1915.87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45109.58333333334</v>
+      </c>
+      <c r="B168">
+        <v>30590.23</v>
+      </c>
+      <c r="C168">
+        <v>1925.81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45109.625</v>
+      </c>
+      <c r="B169">
+        <v>30498.01</v>
+      </c>
+      <c r="C169">
+        <v>1918.61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="B170">
+        <v>30561.58</v>
+      </c>
+      <c r="C170">
+        <v>1917.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="B171">
+        <v>30441.2</v>
+      </c>
+      <c r="C171">
+        <v>1907.27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45109.75</v>
+      </c>
+      <c r="B172">
+        <v>30523.07</v>
+      </c>
+      <c r="C172">
+        <v>1912.12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45109.79166666666</v>
+      </c>
+      <c r="B173">
+        <v>30557.74</v>
+      </c>
+      <c r="C173">
+        <v>1914.12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45109.83333333334</v>
+      </c>
+      <c r="B174">
+        <v>30588.47</v>
+      </c>
+      <c r="C174">
+        <v>1918.39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45109.875</v>
+      </c>
+      <c r="B175">
+        <v>30557.44</v>
+      </c>
+      <c r="C175">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45109.91666666666</v>
+      </c>
+      <c r="B176">
+        <v>30651.29</v>
+      </c>
+      <c r="C176">
+        <v>1942.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45109.95833333334</v>
+      </c>
+      <c r="B177">
+        <v>30617.03</v>
+      </c>
+      <c r="C177">
+        <v>1937.48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B178">
+        <v>30637.99</v>
+      </c>
+      <c r="C178">
+        <v>1934.88</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45110.04166666666</v>
+      </c>
+      <c r="B179">
+        <v>30660.86</v>
+      </c>
+      <c r="C179">
+        <v>1944.99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45110.08333333334</v>
+      </c>
+      <c r="B180">
+        <v>30755</v>
+      </c>
+      <c r="C180">
+        <v>1949.18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45110.125</v>
+      </c>
+      <c r="B181">
+        <v>30756.65</v>
+      </c>
+      <c r="C181">
+        <v>1949.01</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45110.16666666666</v>
+      </c>
+      <c r="B182">
+        <v>30679.99</v>
+      </c>
+      <c r="C182">
+        <v>1948.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45110.20833333334</v>
+      </c>
+      <c r="B183">
+        <v>30673.62</v>
+      </c>
+      <c r="C183">
+        <v>1945.57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45110.25</v>
+      </c>
+      <c r="B184">
+        <v>30651.25</v>
+      </c>
+      <c r="C184">
+        <v>1947.85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45110.29166666666</v>
+      </c>
+      <c r="B185">
+        <v>30667.19</v>
+      </c>
+      <c r="C185">
+        <v>1966.83</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B186">
+        <v>30640.12</v>
+      </c>
+      <c r="C186">
+        <v>1960.02</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45110.375</v>
+      </c>
+      <c r="B187">
+        <v>30610.61</v>
+      </c>
+      <c r="C187">
+        <v>1955.91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45110.41666666666</v>
+      </c>
+      <c r="B188">
+        <v>30640.09</v>
+      </c>
+      <c r="C188">
+        <v>1962.46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45110.45833333334</v>
+      </c>
+      <c r="B189">
+        <v>30625.22</v>
+      </c>
+      <c r="C189">
+        <v>1962.01</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45110.5</v>
+      </c>
+      <c r="B190">
+        <v>30653.06</v>
+      </c>
+      <c r="C190">
+        <v>1966.69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45110.54166666666</v>
+      </c>
+      <c r="B191">
+        <v>30653.84</v>
+      </c>
+      <c r="C191">
+        <v>1963.99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45110.58333333334</v>
+      </c>
+      <c r="B192">
+        <v>30736.27</v>
+      </c>
+      <c r="C192">
+        <v>1960.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45110.625</v>
+      </c>
+      <c r="B193">
+        <v>31068.64</v>
+      </c>
+      <c r="C193">
+        <v>1968.17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45110.66666666666</v>
+      </c>
+      <c r="B194">
+        <v>31042.22</v>
+      </c>
+      <c r="C194">
+        <v>1964.11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45110.70833333334</v>
+      </c>
+      <c r="B195">
+        <v>31000.98</v>
+      </c>
+      <c r="C195">
+        <v>1964.21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45110.75</v>
+      </c>
+      <c r="B196">
+        <v>31199.14</v>
+      </c>
+      <c r="C196">
+        <v>1970.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45110.79166666666</v>
+      </c>
+      <c r="B197">
+        <v>31255.84</v>
+      </c>
+      <c r="C197">
+        <v>1967.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="B198">
+        <v>31121.18</v>
+      </c>
+      <c r="C198">
+        <v>1958.52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45110.875</v>
+      </c>
+      <c r="B199">
+        <v>31050.23</v>
+      </c>
+      <c r="C199">
+        <v>1957.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45110.91666666666</v>
+      </c>
+      <c r="B200">
+        <v>31120.69</v>
+      </c>
+      <c r="C200">
+        <v>1955.34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45110.95833333334</v>
+      </c>
+      <c r="B201">
+        <v>31156.2</v>
+      </c>
+      <c r="C201">
+        <v>1955.54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B202">
+        <v>31112.86</v>
+      </c>
+      <c r="C202">
+        <v>1951.61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45111.04166666666</v>
+      </c>
+      <c r="B203">
+        <v>31288.8</v>
+      </c>
+      <c r="C203">
+        <v>1954.24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45111.08333333334</v>
+      </c>
+      <c r="B204">
+        <v>31259.77</v>
+      </c>
+      <c r="C204">
+        <v>1956.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45111.125</v>
+      </c>
+      <c r="B205">
+        <v>31195.69</v>
+      </c>
+      <c r="C205">
+        <v>1963.34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45111.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>31058</v>
+      </c>
+      <c r="C206">
+        <v>1954.01</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45111.20833333334</v>
+      </c>
+      <c r="B207">
+        <v>30972.7</v>
+      </c>
+      <c r="C207">
+        <v>1952.12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45111.25</v>
+      </c>
+      <c r="B208">
+        <v>30999.55</v>
+      </c>
+      <c r="C208">
+        <v>1953.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45111.29166666666</v>
+      </c>
+      <c r="B209">
+        <v>30911.41</v>
+      </c>
+      <c r="C209">
+        <v>1948.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45111.33333333334</v>
+      </c>
+      <c r="B210">
+        <v>30930.76</v>
+      </c>
+      <c r="C210">
+        <v>1950.52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45111.375</v>
+      </c>
+      <c r="B211">
+        <v>31016.91</v>
+      </c>
+      <c r="C211">
+        <v>1954.87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45111.41666666666</v>
+      </c>
+      <c r="B212">
+        <v>31025.64</v>
+      </c>
+      <c r="C212">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45111.45833333334</v>
+      </c>
+      <c r="B213">
+        <v>31067.99</v>
+      </c>
+      <c r="C213">
+        <v>1960.53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45111.5</v>
+      </c>
+      <c r="B214">
+        <v>31044.9</v>
+      </c>
+      <c r="C214">
+        <v>1956.97</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45111.54166666666</v>
+      </c>
+      <c r="B215">
+        <v>30999.55</v>
+      </c>
+      <c r="C215">
+        <v>1956.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45111.58333333334</v>
+      </c>
+      <c r="B216">
+        <v>30972.4</v>
+      </c>
+      <c r="C216">
+        <v>1956.78</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45111.625</v>
+      </c>
+      <c r="B217">
+        <v>30964.37</v>
+      </c>
+      <c r="C217">
+        <v>1954.19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45111.66666666666</v>
+      </c>
+      <c r="B218">
+        <v>30960.29</v>
+      </c>
+      <c r="C218">
+        <v>1955.63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45111.70833333334</v>
+      </c>
+      <c r="B219">
+        <v>30900.01</v>
+      </c>
+      <c r="C219">
+        <v>1949.84</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45111.75</v>
+      </c>
+      <c r="B220">
+        <v>30902</v>
+      </c>
+      <c r="C220">
+        <v>1949.39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45111.79166666666</v>
+      </c>
+      <c r="B221">
+        <v>30696.84</v>
+      </c>
+      <c r="C221">
+        <v>1934.29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45111.83333333334</v>
+      </c>
+      <c r="B222">
+        <v>30797.13</v>
+      </c>
+      <c r="C222">
+        <v>1942.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45111.875</v>
+      </c>
+      <c r="B223">
+        <v>30803.72</v>
+      </c>
+      <c r="C223">
+        <v>1941.79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45111.91666666666</v>
+      </c>
+      <c r="B224">
+        <v>30820.01</v>
+      </c>
+      <c r="C224">
+        <v>1941.57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45111.95833333334</v>
+      </c>
+      <c r="B225">
+        <v>30766.51</v>
+      </c>
+      <c r="C225">
+        <v>1936.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B226">
+        <v>30762.27</v>
+      </c>
+      <c r="C226">
+        <v>1935.07</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45112.04166666666</v>
+      </c>
+      <c r="B227">
+        <v>30795.93</v>
+      </c>
+      <c r="C227">
+        <v>1938.24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45112.08333333334</v>
+      </c>
+      <c r="B228">
+        <v>30837.99</v>
+      </c>
+      <c r="C228">
+        <v>1941.94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45112.125</v>
+      </c>
+      <c r="B229">
+        <v>30868.71</v>
+      </c>
+      <c r="C229">
+        <v>1941.28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45112.16666666666</v>
+      </c>
+      <c r="B230">
+        <v>30834.86</v>
+      </c>
+      <c r="C230">
+        <v>1936.89</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45112.20833333334</v>
+      </c>
+      <c r="B231">
+        <v>30814.08</v>
+      </c>
+      <c r="C231">
+        <v>1933.79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45112.25</v>
+      </c>
+      <c r="B232">
+        <v>30810.72</v>
+      </c>
+      <c r="C232">
+        <v>1937.31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45112.29166666666</v>
+      </c>
+      <c r="B233">
+        <v>30774.25</v>
+      </c>
+      <c r="C233">
+        <v>1936.35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45112.33333333334</v>
+      </c>
+      <c r="B234">
+        <v>30764.29</v>
+      </c>
+      <c r="C234">
+        <v>1929.49</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45112.375</v>
+      </c>
+      <c r="B235">
+        <v>30680</v>
+      </c>
+      <c r="C235">
+        <v>1921.63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45112.41666666666</v>
+      </c>
+      <c r="B236">
+        <v>30430.21</v>
+      </c>
+      <c r="C236">
+        <v>1910.19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45112.45833333334</v>
+      </c>
+      <c r="B237">
+        <v>30404.3</v>
+      </c>
+      <c r="C237">
+        <v>1910.08</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45112.5</v>
+      </c>
+      <c r="B238">
+        <v>30321.22</v>
+      </c>
+      <c r="C238">
+        <v>1901.39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45112.54166666666</v>
+      </c>
+      <c r="B239">
+        <v>30357.31</v>
+      </c>
+      <c r="C239">
+        <v>1903.15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45112.58333333334</v>
+      </c>
+      <c r="B240">
+        <v>30417.65</v>
+      </c>
+      <c r="C240">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45112.625</v>
+      </c>
+      <c r="B241">
+        <v>30356.11</v>
+      </c>
+      <c r="C241">
+        <v>1902.96</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45112.66666666666</v>
+      </c>
+      <c r="B242">
+        <v>30462.6</v>
+      </c>
+      <c r="C242">
+        <v>1908.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45112.70833333334</v>
+      </c>
+      <c r="B243">
+        <v>30523.21</v>
+      </c>
+      <c r="C243">
+        <v>1912.21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45112.75</v>
+      </c>
+      <c r="B244">
+        <v>30505.52</v>
+      </c>
+      <c r="C244">
+        <v>1910.09</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45112.79166666666</v>
+      </c>
+      <c r="B245">
+        <v>30431.95</v>
+      </c>
+      <c r="C245">
+        <v>1907.71</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45112.83333333334</v>
+      </c>
+      <c r="B246">
+        <v>30460.29</v>
+      </c>
+      <c r="C246">
+        <v>1910.22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45112.875</v>
+      </c>
+      <c r="B247">
+        <v>30469.99</v>
+      </c>
+      <c r="C247">
+        <v>1911.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45112.91666666666</v>
+      </c>
+      <c r="B248">
+        <v>30436.92</v>
+      </c>
+      <c r="C248">
+        <v>1908.79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45112.95833333334</v>
+      </c>
+      <c r="B249">
+        <v>30504.81</v>
+      </c>
+      <c r="C249">
+        <v>1910.36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B250">
+        <v>30413.1</v>
+      </c>
+      <c r="C250">
+        <v>1904.49</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45113.04166666666</v>
+      </c>
+      <c r="B251">
+        <v>30476.71</v>
+      </c>
+      <c r="C251">
+        <v>1908.26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45113.08333333334</v>
+      </c>
+      <c r="B252">
+        <v>30471.65</v>
+      </c>
+      <c r="C252">
+        <v>1911.24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45113.125</v>
+      </c>
+      <c r="B253">
+        <v>30490.85</v>
+      </c>
+      <c r="C253">
+        <v>1913.51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45113.16666666666</v>
+      </c>
+      <c r="B254">
+        <v>30465.4</v>
+      </c>
+      <c r="C254">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45113.20833333334</v>
+      </c>
+      <c r="B255">
+        <v>30582.51</v>
+      </c>
+      <c r="C255">
+        <v>1921.78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45113.25</v>
+      </c>
+      <c r="B256">
+        <v>30692.56</v>
+      </c>
+      <c r="C256">
+        <v>1923.44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45113.29166666666</v>
+      </c>
+      <c r="B257">
+        <v>30803.19</v>
+      </c>
+      <c r="C257">
+        <v>1925.08</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45113.33333333334</v>
+      </c>
+      <c r="B258">
+        <v>31329.97</v>
+      </c>
+      <c r="C258">
+        <v>1949.07</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45113.375</v>
+      </c>
+      <c r="B259">
+        <v>31069.6</v>
+      </c>
+      <c r="C259">
+        <v>1940.99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45113.41666666666</v>
+      </c>
+      <c r="B260">
+        <v>31231.64</v>
+      </c>
+      <c r="C260">
+        <v>1943.92</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45113.45833333334</v>
+      </c>
+      <c r="B261">
+        <v>30846.55</v>
+      </c>
+      <c r="C261">
+        <v>1917.65</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45113.5</v>
+      </c>
+      <c r="B262">
+        <v>30600.31</v>
+      </c>
+      <c r="C262">
+        <v>1901.1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45113.54166666666</v>
+      </c>
+      <c r="B263">
+        <v>30373.47</v>
+      </c>
+      <c r="C263">
+        <v>1892.61</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45113.58333333334</v>
+      </c>
+      <c r="B264">
+        <v>30214.35</v>
+      </c>
+      <c r="C264">
+        <v>1880.17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45113.625</v>
+      </c>
+      <c r="B265">
+        <v>30407.01</v>
+      </c>
+      <c r="C265">
+        <v>1888.67</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45113.66666666666</v>
+      </c>
+      <c r="B266">
+        <v>30313.99</v>
+      </c>
+      <c r="C266">
+        <v>1886.62</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45113.70833333334</v>
+      </c>
+      <c r="B267">
+        <v>30294.86</v>
+      </c>
+      <c r="C267">
+        <v>1887.25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45113.75</v>
+      </c>
+      <c r="B268">
+        <v>30378.01</v>
+      </c>
+      <c r="C268">
+        <v>1893.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45113.79166666666</v>
+      </c>
+      <c r="B269">
+        <v>30309.88</v>
+      </c>
+      <c r="C269">
+        <v>1885.21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45113.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>30315.16</v>
+      </c>
+      <c r="C270">
+        <v>1883.41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45113.875</v>
+      </c>
+      <c r="B271">
+        <v>30224.72</v>
+      </c>
+      <c r="C271">
+        <v>1876.04</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45113.91666666666</v>
+      </c>
+      <c r="B272">
+        <v>30167.3</v>
+      </c>
+      <c r="C272">
+        <v>1868.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45113.95833333334</v>
+      </c>
+      <c r="B273">
+        <v>29895.43</v>
+      </c>
+      <c r="C273">
+        <v>1846.17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B274">
+        <v>30052.6</v>
+      </c>
+      <c r="C274">
+        <v>1845.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45114.04166666666</v>
+      </c>
+      <c r="B275">
+        <v>30086</v>
+      </c>
+      <c r="C275">
+        <v>1851.87</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45114.08333333334</v>
+      </c>
+      <c r="B276">
+        <v>30102.98</v>
+      </c>
+      <c r="C276">
+        <v>1853.73</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45114.125</v>
+      </c>
+      <c r="B277">
+        <v>30135.4</v>
+      </c>
+      <c r="C277">
+        <v>1858.02</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45114.16666666666</v>
+      </c>
+      <c r="B278">
+        <v>30087.81</v>
+      </c>
+      <c r="C278">
+        <v>1854.4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45114.20833333334</v>
+      </c>
+      <c r="B279">
+        <v>30208.4</v>
+      </c>
+      <c r="C279">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45114.25</v>
+      </c>
+      <c r="B280">
+        <v>30117</v>
+      </c>
+      <c r="C280">
+        <v>1855.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45114.29166666666</v>
+      </c>
+      <c r="B281">
+        <v>30007.4</v>
+      </c>
+      <c r="C281">
+        <v>1856.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45114.33333333334</v>
+      </c>
+      <c r="B282">
+        <v>30055.41</v>
+      </c>
+      <c r="C282">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45114.375</v>
+      </c>
+      <c r="B283">
+        <v>30138.79</v>
+      </c>
+      <c r="C283">
+        <v>1860.99</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45114.41666666666</v>
+      </c>
+      <c r="B284">
+        <v>30165.88</v>
+      </c>
+      <c r="C284">
+        <v>1863.74</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45114.45833333334</v>
+      </c>
+      <c r="B285">
+        <v>30118.7</v>
+      </c>
+      <c r="C285">
+        <v>1860.17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45114.5</v>
+      </c>
+      <c r="B286">
+        <v>30203.98</v>
+      </c>
+      <c r="C286">
+        <v>1862.89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45114.54166666666</v>
+      </c>
+      <c r="B287">
+        <v>30385.39</v>
+      </c>
+      <c r="C287">
+        <v>1873.23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45114.58333333334</v>
+      </c>
+      <c r="B288">
+        <v>30411.49</v>
+      </c>
+      <c r="C288">
+        <v>1874.62</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45114.625</v>
+      </c>
+      <c r="B289">
+        <v>30390.83</v>
+      </c>
+      <c r="C289">
+        <v>1872.03</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45114.66666666666</v>
+      </c>
+      <c r="B290">
+        <v>30354.85</v>
+      </c>
+      <c r="C290">
+        <v>1872.64</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45114.70833333334</v>
+      </c>
+      <c r="B291">
+        <v>30238.46</v>
+      </c>
+      <c r="C291">
+        <v>1867.35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45114.75</v>
+      </c>
+      <c r="B292">
+        <v>30166.32</v>
+      </c>
+      <c r="C292">
+        <v>1860.09</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45114.79166666666</v>
+      </c>
+      <c r="B293">
+        <v>30246.2</v>
+      </c>
+      <c r="C293">
+        <v>1864.31</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45114.83333333334</v>
+      </c>
+      <c r="B294">
+        <v>30264.12</v>
+      </c>
+      <c r="C294">
+        <v>1865.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45114.875</v>
+      </c>
+      <c r="B295">
+        <v>30289.64</v>
+      </c>
+      <c r="C295">
+        <v>1868.62</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45114.91666666666</v>
+      </c>
+      <c r="B296">
+        <v>30304.08</v>
+      </c>
+      <c r="C296">
+        <v>1867.83</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45114.95833333334</v>
+      </c>
+      <c r="B297">
+        <v>30344.7</v>
+      </c>
+      <c r="C297">
+        <v>1870.91</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B298">
+        <v>30286.29</v>
+      </c>
+      <c r="C298">
+        <v>1871.36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45115.04166666666</v>
+      </c>
+      <c r="B299">
+        <v>30304.58</v>
+      </c>
+      <c r="C299">
+        <v>1868.74</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45115.08333333334</v>
+      </c>
+      <c r="B300">
+        <v>30355.42</v>
+      </c>
+      <c r="C300">
+        <v>1869.86</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45115.125</v>
+      </c>
+      <c r="B301">
+        <v>30274.83</v>
+      </c>
+      <c r="C301">
+        <v>1863.94</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>45115.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>30235.89</v>
+      </c>
+      <c r="C302">
+        <v>1860.48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>45115.20833333334</v>
+      </c>
+      <c r="B303">
+        <v>30239.49</v>
+      </c>
+      <c r="C303">
+        <v>1862.7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>45115.25</v>
+      </c>
+      <c r="B304">
+        <v>30176.71</v>
+      </c>
+      <c r="C304">
+        <v>1857.44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>45115.29166666666</v>
+      </c>
+      <c r="B305">
+        <v>30193.36</v>
+      </c>
+      <c r="C305">
+        <v>1861.69</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>45115.33333333334</v>
+      </c>
+      <c r="B306">
+        <v>30276.01</v>
+      </c>
+      <c r="C306">
+        <v>1865.75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>45115.375</v>
+      </c>
+      <c r="B307">
+        <v>30248.72</v>
+      </c>
+      <c r="C307">
+        <v>1863.65</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>45115.41666666666</v>
+      </c>
+      <c r="B308">
+        <v>30222.8</v>
+      </c>
+      <c r="C308">
+        <v>1862.75</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="B309">
+        <v>30201.71</v>
+      </c>
+      <c r="C309">
+        <v>1859.01</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>45115.5</v>
+      </c>
+      <c r="B310">
+        <v>30171.85</v>
+      </c>
+      <c r="C310">
+        <v>1856.43</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>45115.54166666666</v>
+      </c>
+      <c r="B311">
+        <v>30209.32</v>
+      </c>
+      <c r="C311">
+        <v>1859.69</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>45115.58333333334</v>
+      </c>
+      <c r="B312">
+        <v>30204.99</v>
+      </c>
+      <c r="C312">
+        <v>1861.17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>45115.625</v>
+      </c>
+      <c r="B313">
+        <v>30208</v>
+      </c>
+      <c r="C313">
+        <v>1859.44</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="B314">
+        <v>30254.57</v>
+      </c>
+      <c r="C314">
+        <v>1862.83</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>45115.70833333334</v>
+      </c>
+      <c r="B315">
+        <v>30254.69</v>
+      </c>
+      <c r="C315">
+        <v>1862.21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>45115.75</v>
+      </c>
+      <c r="B316">
+        <v>30201.74</v>
+      </c>
+      <c r="C316">
+        <v>1859.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>45115.79166666666</v>
+      </c>
+      <c r="B317">
+        <v>30112</v>
+      </c>
+      <c r="C317">
+        <v>1846.89</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>45115.83333333334</v>
+      </c>
+      <c r="B318">
+        <v>30158.21</v>
+      </c>
+      <c r="C318">
+        <v>1848.66</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>45115.875</v>
+      </c>
+      <c r="B319">
+        <v>30180.8</v>
+      </c>
+      <c r="C319">
+        <v>1856.17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>45115.91666666666</v>
+      </c>
+      <c r="B320">
+        <v>30224.5</v>
+      </c>
+      <c r="C320">
+        <v>1860.93</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>45115.95833333334</v>
+      </c>
+      <c r="B321">
+        <v>30284.63</v>
+      </c>
+      <c r="C321">
+        <v>1865.24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B322">
+        <v>30336.01</v>
+      </c>
+      <c r="C322">
+        <v>1866.56</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>45116.04166666666</v>
+      </c>
+      <c r="B323">
+        <v>30332.26</v>
+      </c>
+      <c r="C323">
+        <v>1868.19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>45116.08333333334</v>
+      </c>
+      <c r="B324">
+        <v>30301.04</v>
+      </c>
+      <c r="C324">
+        <v>1867.69</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>45116.125</v>
+      </c>
+      <c r="B325">
+        <v>30287.99</v>
+      </c>
+      <c r="C325">
+        <v>1867.84</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>45116.16666666666</v>
+      </c>
+      <c r="B326">
+        <v>30275.35</v>
+      </c>
+      <c r="C326">
+        <v>1869.62</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>45116.20833333334</v>
+      </c>
+      <c r="B327">
+        <v>30260.67</v>
+      </c>
+      <c r="C327">
+        <v>1867.29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>45116.25</v>
+      </c>
+      <c r="B328">
+        <v>30254.79</v>
+      </c>
+      <c r="C328">
+        <v>1866.81</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>45116.29166666666</v>
+      </c>
+      <c r="B329">
+        <v>30265</v>
+      </c>
+      <c r="C329">
+        <v>1867.42</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>45116.33333333334</v>
+      </c>
+      <c r="B330">
+        <v>30305.51</v>
+      </c>
+      <c r="C330">
+        <v>1868.24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>45116.375</v>
+      </c>
+      <c r="B331">
+        <v>30276</v>
+      </c>
+      <c r="C331">
+        <v>1867.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>45116.41666666666</v>
+      </c>
+      <c r="B332">
+        <v>30262.89</v>
+      </c>
+      <c r="C332">
+        <v>1866.7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>45116.45833333334</v>
+      </c>
+      <c r="B333">
+        <v>30266.69</v>
+      </c>
+      <c r="C333">
+        <v>1868.98</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>45116.5</v>
+      </c>
+      <c r="B334">
+        <v>30329.99</v>
+      </c>
+      <c r="C334">
+        <v>1875.86</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>45116.54166666666</v>
+      </c>
+      <c r="B335">
+        <v>30265.14</v>
+      </c>
+      <c r="C335">
+        <v>1866.3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>45116.58333333334</v>
+      </c>
+      <c r="B336">
+        <v>30341.02</v>
+      </c>
+      <c r="C336">
+        <v>1867.74</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>45116.625</v>
+      </c>
+      <c r="B337">
+        <v>30349.47</v>
+      </c>
+      <c r="C337">
+        <v>1866.12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>45116.66666666666</v>
+      </c>
+      <c r="B338">
+        <v>30287.99</v>
+      </c>
+      <c r="C338">
+        <v>1863.79</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>45116.70833333334</v>
+      </c>
+      <c r="B339">
+        <v>30288.29</v>
+      </c>
+      <c r="C339">
+        <v>1867.58</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>45116.75</v>
+      </c>
+      <c r="B340">
+        <v>30258.01</v>
+      </c>
+      <c r="C340">
+        <v>1866.4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>45116.79166666666</v>
+      </c>
+      <c r="B341">
+        <v>30242.42</v>
+      </c>
+      <c r="C341">
+        <v>1868.42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>45116.83333333334</v>
+      </c>
+      <c r="B342">
+        <v>30193.99</v>
+      </c>
+      <c r="C342">
+        <v>1869.35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>45116.875</v>
+      </c>
+      <c r="B343">
+        <v>30153.9</v>
+      </c>
+      <c r="C343">
+        <v>1865.25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>45116.91666666666</v>
+      </c>
+      <c r="B344">
+        <v>30174</v>
+      </c>
+      <c r="C344">
+        <v>1866.72</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>45116.95833333334</v>
+      </c>
+      <c r="B345">
+        <v>30160.71</v>
+      </c>
+      <c r="C345">
+        <v>1862.8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B346">
+        <v>30090.27</v>
+      </c>
+      <c r="C346">
+        <v>1854.52</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>45117.04166666666</v>
+      </c>
+      <c r="B347">
+        <v>30048.8</v>
+      </c>
+      <c r="C347">
+        <v>1852.87</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>45117.08333333334</v>
+      </c>
+      <c r="B348">
+        <v>30200</v>
+      </c>
+      <c r="C348">
+        <v>1865.01</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>45117.125</v>
+      </c>
+      <c r="B349">
+        <v>30156.17</v>
+      </c>
+      <c r="C349">
+        <v>1861.66</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>45117.16666666666</v>
+      </c>
+      <c r="B350">
+        <v>30118.07</v>
+      </c>
+      <c r="C350">
+        <v>1860.54</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>45117.20833333334</v>
+      </c>
+      <c r="B351">
+        <v>30082.25</v>
+      </c>
+      <c r="C351">
+        <v>1854.17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>45117.25</v>
+      </c>
+      <c r="B352">
+        <v>30089.64</v>
+      </c>
+      <c r="C352">
+        <v>1855.21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>45117.29166666666</v>
+      </c>
+      <c r="B353">
+        <v>30112.1</v>
+      </c>
+      <c r="C353">
+        <v>1856.19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>45117.33333333334</v>
+      </c>
+      <c r="B354">
+        <v>30099.21</v>
+      </c>
+      <c r="C354">
+        <v>1855.75</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>45117.375</v>
+      </c>
+      <c r="B355">
+        <v>30140</v>
+      </c>
+      <c r="C355">
+        <v>1860.43</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>45117.41666666666</v>
+      </c>
+      <c r="B356">
+        <v>30183.45</v>
+      </c>
+      <c r="C356">
+        <v>1862.73</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>45117.45833333334</v>
+      </c>
+      <c r="B357">
+        <v>30240</v>
+      </c>
+      <c r="C357">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>45117.5</v>
+      </c>
+      <c r="B358">
+        <v>30161.47</v>
+      </c>
+      <c r="C358">
+        <v>1861.94</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>45117.54166666666</v>
+      </c>
+      <c r="B359">
+        <v>30209.7</v>
+      </c>
+      <c r="C359">
+        <v>1863.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>45117.58333333334</v>
+      </c>
+      <c r="B360">
+        <v>30310.03</v>
+      </c>
+      <c r="C360">
+        <v>1870.15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>45117.625</v>
+      </c>
+      <c r="B361">
+        <v>30312.81</v>
+      </c>
+      <c r="C361">
+        <v>1871.09</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>45117.66666666666</v>
+      </c>
+      <c r="B362">
+        <v>30351.18</v>
+      </c>
+      <c r="C362">
+        <v>1872.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>45117.70833333334</v>
+      </c>
+      <c r="B363">
+        <v>30278.2</v>
+      </c>
+      <c r="C363">
+        <v>1868.32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>45117.75</v>
+      </c>
+      <c r="B364">
+        <v>30529</v>
+      </c>
+      <c r="C364">
+        <v>1888.19</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>45117.79166666666</v>
+      </c>
+      <c r="B365">
+        <v>30837.4</v>
+      </c>
+      <c r="C365">
+        <v>1899.98</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>45117.83333333334</v>
+      </c>
+      <c r="B366">
+        <v>30779.01</v>
+      </c>
+      <c r="C366">
+        <v>1892.41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>45117.875</v>
+      </c>
+      <c r="B367">
+        <v>30302.21</v>
+      </c>
+      <c r="C367">
+        <v>1876.16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>45117.91666666666</v>
+      </c>
+      <c r="B368">
+        <v>30347.37</v>
+      </c>
+      <c r="C368">
+        <v>1876.29</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>45117.95833333334</v>
+      </c>
+      <c r="B369">
+        <v>30411.57</v>
+      </c>
+      <c r="C369">
+        <v>1880.4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B370">
+        <v>30419.99</v>
+      </c>
+      <c r="C370">
+        <v>1878.81</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>45118.04166666666</v>
+      </c>
+      <c r="B371">
+        <v>30586.26</v>
+      </c>
+      <c r="C371">
+        <v>1883.24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>45118.08333333334</v>
+      </c>
+      <c r="B372">
+        <v>30483.69</v>
+      </c>
+      <c r="C372">
+        <v>1878.16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>45118.125</v>
+      </c>
+      <c r="B373">
+        <v>30476</v>
+      </c>
+      <c r="C373">
+        <v>1879.81</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>45118.16666666666</v>
+      </c>
+      <c r="B374">
+        <v>30441.19</v>
+      </c>
+      <c r="C374">
+        <v>1877.47</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>45118.20833333334</v>
+      </c>
+      <c r="B375">
+        <v>30456</v>
+      </c>
+      <c r="C375">
+        <v>1877.99</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>45118.25</v>
+      </c>
+      <c r="B376">
+        <v>30634.59</v>
+      </c>
+      <c r="C376">
+        <v>1886.28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>45118.29166666666</v>
+      </c>
+      <c r="B377">
+        <v>30535.38</v>
+      </c>
+      <c r="C377">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>45118.33333333334</v>
+      </c>
+      <c r="B378">
+        <v>30495.91</v>
+      </c>
+      <c r="C378">
+        <v>1878.73</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>45118.375</v>
+      </c>
+      <c r="B379">
+        <v>30449.83</v>
+      </c>
+      <c r="C379">
+        <v>1871.01</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>45118.41666666666</v>
+      </c>
+      <c r="B380">
+        <v>30394.94</v>
+      </c>
+      <c r="C380">
+        <v>1867.46</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>45118.45833333334</v>
+      </c>
+      <c r="B381">
+        <v>30404.31</v>
+      </c>
+      <c r="C381">
+        <v>1867.55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>45118.5</v>
+      </c>
+      <c r="B382">
+        <v>30433.05</v>
+      </c>
+      <c r="C382">
+        <v>1870.92</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>45118.54166666666</v>
+      </c>
+      <c r="B383">
+        <v>30450</v>
+      </c>
+      <c r="C383">
+        <v>1868.83</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>45118.58333333334</v>
+      </c>
+      <c r="B384">
+        <v>30527.43</v>
+      </c>
+      <c r="C384">
+        <v>1873.66</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>45118.625</v>
+      </c>
+      <c r="B385">
+        <v>30596.45</v>
+      </c>
+      <c r="C385">
+        <v>1871.69</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>45118.66666666666</v>
+      </c>
+      <c r="B386">
+        <v>30649.3</v>
+      </c>
+      <c r="C386">
+        <v>1872.81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>45118.70833333334</v>
+      </c>
+      <c r="B387">
+        <v>30575.6</v>
+      </c>
+      <c r="C387">
+        <v>1872.99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
+        <v>45118.75</v>
+      </c>
+      <c r="B388">
+        <v>30480</v>
+      </c>
+      <c r="C388">
+        <v>1871.46</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>45118.79166666666</v>
+      </c>
+      <c r="B389">
+        <v>30581.99</v>
+      </c>
+      <c r="C389">
+        <v>1874.93</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>45118.83333333334</v>
+      </c>
+      <c r="B390">
+        <v>30571.52</v>
+      </c>
+      <c r="C390">
+        <v>1873.86</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>45118.875</v>
+      </c>
+      <c r="B391">
+        <v>30570.18</v>
+      </c>
+      <c r="C391">
+        <v>1875.57</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>45118.91666666666</v>
+      </c>
+      <c r="B392">
+        <v>30584.57</v>
+      </c>
+      <c r="C392">
+        <v>1879.01</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>45118.95833333334</v>
+      </c>
+      <c r="B393">
+        <v>30622.1</v>
+      </c>
+      <c r="C393">
+        <v>1878.3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B394">
+        <v>30509.98</v>
+      </c>
+      <c r="C394">
+        <v>1877.32</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>45119.04166666666</v>
+      </c>
+      <c r="B395">
+        <v>30535.92</v>
+      </c>
+      <c r="C395">
+        <v>1881.91</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>45119.08333333334</v>
+      </c>
+      <c r="B396">
+        <v>30607.23</v>
+      </c>
+      <c r="C396">
+        <v>1883.06</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>45119.125</v>
+      </c>
+      <c r="B397">
+        <v>30588.32</v>
+      </c>
+      <c r="C397">
+        <v>1880.24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>45119.16666666666</v>
+      </c>
+      <c r="B398">
+        <v>30635.36</v>
+      </c>
+      <c r="C398">
+        <v>1882.71</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>45119.20833333334</v>
+      </c>
+      <c r="B399">
+        <v>30654</v>
+      </c>
+      <c r="C399">
+        <v>1883.59</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>45119.25</v>
+      </c>
+      <c r="B400">
+        <v>30720.01</v>
+      </c>
+      <c r="C400">
+        <v>1889.99</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>45119.29166666666</v>
+      </c>
+      <c r="B401">
+        <v>30740</v>
+      </c>
+      <c r="C401">
+        <v>1890.6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>45119.33333333334</v>
+      </c>
+      <c r="B402">
+        <v>30735.48</v>
+      </c>
+      <c r="C402">
+        <v>1889.01</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>45119.375</v>
+      </c>
+      <c r="B403">
+        <v>30724.01</v>
+      </c>
+      <c r="C403">
+        <v>1889.99</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>45119.41666666666</v>
+      </c>
+      <c r="B404">
+        <v>30679.99</v>
+      </c>
+      <c r="C404">
+        <v>1887.07</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>45119.45833333334</v>
+      </c>
+      <c r="B405">
+        <v>30776.25</v>
+      </c>
+      <c r="C405">
+        <v>1890.65</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>45119.5</v>
+      </c>
+      <c r="B406">
+        <v>30721.17</v>
+      </c>
+      <c r="C406">
+        <v>1887.19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>45119.54166666666</v>
+      </c>
+      <c r="B407">
+        <v>30666.33</v>
+      </c>
+      <c r="C407">
+        <v>1887.41</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>45119.58333333334</v>
+      </c>
+      <c r="B408">
+        <v>30736.57</v>
+      </c>
+      <c r="C408">
+        <v>1893.36</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>45119.625</v>
+      </c>
+      <c r="B409">
+        <v>30524.63</v>
+      </c>
+      <c r="C409">
+        <v>1883.78</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>45119.66666666666</v>
+      </c>
+      <c r="B410">
+        <v>30487.03</v>
+      </c>
+      <c r="C410">
+        <v>1885.42</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>45119.70833333334</v>
+      </c>
+      <c r="B411">
+        <v>30447.95</v>
+      </c>
+      <c r="C411">
+        <v>1887.22</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>45119.75</v>
+      </c>
+      <c r="B412">
+        <v>30521.67</v>
+      </c>
+      <c r="C412">
+        <v>1887.53</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2">
+        <v>45119.79166666666</v>
+      </c>
+      <c r="B413">
+        <v>30287.47</v>
+      </c>
+      <c r="C413">
+        <v>1870.04</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2">
+        <v>45119.83333333334</v>
+      </c>
+      <c r="B414">
+        <v>30348</v>
+      </c>
+      <c r="C414">
+        <v>1872.98</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2">
+        <v>45119.875</v>
+      </c>
+      <c r="B415">
+        <v>30356.01</v>
+      </c>
+      <c r="C415">
+        <v>1871.97</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2">
+        <v>45119.91666666666</v>
+      </c>
+      <c r="B416">
+        <v>30368.68</v>
+      </c>
+      <c r="C416">
+        <v>1871.43</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2">
+        <v>45119.95833333334</v>
+      </c>
+      <c r="B417">
+        <v>30380</v>
+      </c>
+      <c r="C417">
+        <v>1871.82</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B418">
+        <v>30353.51</v>
+      </c>
+      <c r="C418">
+        <v>1871.39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2">
+        <v>45120.04166666666</v>
+      </c>
+      <c r="B419">
+        <v>30383.78</v>
+      </c>
+      <c r="C419">
+        <v>1872.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>45120.08333333334</v>
+      </c>
+      <c r="B420">
+        <v>30337.55</v>
+      </c>
+      <c r="C420">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>45120.125</v>
+      </c>
+      <c r="B421">
+        <v>30298.01</v>
+      </c>
+      <c r="C421">
+        <v>1867.4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>45120.16666666666</v>
+      </c>
+      <c r="B422">
+        <v>30297.33</v>
+      </c>
+      <c r="C422">
+        <v>1865.98</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>45120.20833333334</v>
+      </c>
+      <c r="B423">
+        <v>30323</v>
+      </c>
+      <c r="C423">
+        <v>1868.42</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>45120.25</v>
+      </c>
+      <c r="B424">
+        <v>30383.98</v>
+      </c>
+      <c r="C424">
+        <v>1872.77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>45120.29166666666</v>
+      </c>
+      <c r="B425">
+        <v>30366.02</v>
+      </c>
+      <c r="C425">
+        <v>1870.36</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>45120.33333333334</v>
+      </c>
+      <c r="B426">
+        <v>30411.99</v>
+      </c>
+      <c r="C426">
+        <v>1873.4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>45120.375</v>
+      </c>
+      <c r="B427">
+        <v>30576.68</v>
+      </c>
+      <c r="C427">
+        <v>1882.87</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>45120.41666666666</v>
+      </c>
+      <c r="B428">
+        <v>30578.84</v>
+      </c>
+      <c r="C428">
+        <v>1882.25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>45120.45833333334</v>
+      </c>
+      <c r="B429">
+        <v>30543.99</v>
+      </c>
+      <c r="C429">
+        <v>1883.72</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>45120.5</v>
+      </c>
+      <c r="B430">
+        <v>30520.02</v>
+      </c>
+      <c r="C430">
+        <v>1880.51</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>45120.54166666666</v>
+      </c>
+      <c r="B431">
+        <v>30663.43</v>
+      </c>
+      <c r="C431">
+        <v>1886.93</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>45120.58333333334</v>
+      </c>
+      <c r="B432">
+        <v>30571.99</v>
+      </c>
+      <c r="C432">
+        <v>1882.32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2">
+        <v>45120.625</v>
+      </c>
+      <c r="B433">
+        <v>30917.48</v>
+      </c>
+      <c r="C433">
+        <v>1932.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2">
+        <v>45120.66666666666</v>
+      </c>
+      <c r="B434">
+        <v>30826.46</v>
+      </c>
+      <c r="C434">
+        <v>1962.7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2">
+        <v>45120.70833333334</v>
+      </c>
+      <c r="B435">
+        <v>31070.08</v>
+      </c>
+      <c r="C435">
+        <v>1989.02</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>45120.75</v>
+      </c>
+      <c r="B436">
+        <v>31255</v>
+      </c>
+      <c r="C436">
+        <v>1979.99</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>45120.79166666666</v>
+      </c>
+      <c r="B437">
+        <v>31606.01</v>
+      </c>
+      <c r="C437">
+        <v>1995.25</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>45120.83333333334</v>
+      </c>
+      <c r="B438">
+        <v>31372.91</v>
+      </c>
+      <c r="C438">
+        <v>1984.08</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>45120.875</v>
+      </c>
+      <c r="B439">
+        <v>31254.01</v>
+      </c>
+      <c r="C439">
+        <v>1982.88</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>45120.91666666666</v>
+      </c>
+      <c r="B440">
+        <v>31309.17</v>
+      </c>
+      <c r="C440">
+        <v>1991.22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>45120.95833333334</v>
+      </c>
+      <c r="B441">
+        <v>31454.23</v>
+      </c>
+      <c r="C441">
+        <v>2004.49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B442">
+        <v>31444.01</v>
+      </c>
+      <c r="C442">
+        <v>2022.22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>45121.04166666666</v>
+      </c>
+      <c r="B443">
+        <v>31418.88</v>
+      </c>
+      <c r="C443">
+        <v>2013.56</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>45121.08333333334</v>
+      </c>
+      <c r="B444">
+        <v>31459.24</v>
+      </c>
+      <c r="C444">
+        <v>2011.11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>45121.125</v>
+      </c>
+      <c r="B445">
+        <v>31460</v>
+      </c>
+      <c r="C445">
+        <v>2009.26</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>45121.16666666666</v>
+      </c>
+      <c r="B446">
+        <v>31390.53</v>
+      </c>
+      <c r="C446">
+        <v>2009.16</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>45121.20833333334</v>
+      </c>
+      <c r="B447">
+        <v>31360.48</v>
+      </c>
+      <c r="C447">
+        <v>2008.67</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>45121.25</v>
+      </c>
+      <c r="B448">
+        <v>31291.22</v>
+      </c>
+      <c r="C448">
+        <v>2004.39</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>45121.29166666666</v>
+      </c>
+      <c r="B449">
+        <v>31098.74</v>
+      </c>
+      <c r="C449">
+        <v>1991.21</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>45121.33333333334</v>
+      </c>
+      <c r="B450">
+        <v>31243.71</v>
+      </c>
+      <c r="C450">
+        <v>2000.21</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>45121.375</v>
+      </c>
+      <c r="B451">
+        <v>31187.04</v>
+      </c>
+      <c r="C451">
+        <v>1996.9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>45121.41666666666</v>
+      </c>
+      <c r="B452">
+        <v>31175</v>
+      </c>
+      <c r="C452">
+        <v>1990.01</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>45121.45833333334</v>
+      </c>
+      <c r="B453">
+        <v>31209.59</v>
+      </c>
+      <c r="C453">
+        <v>1992.22</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>45121.5</v>
+      </c>
+      <c r="B454">
+        <v>31126.75</v>
+      </c>
+      <c r="C454">
+        <v>1988.61</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>45121.54166666666</v>
+      </c>
+      <c r="B455">
+        <v>31253.43</v>
+      </c>
+      <c r="C455">
+        <v>1999.45</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>45121.58333333334</v>
+      </c>
+      <c r="B456">
+        <v>31300.56</v>
+      </c>
+      <c r="C456">
+        <v>1998.77</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>45121.625</v>
+      </c>
+      <c r="B457">
+        <v>31240.48</v>
+      </c>
+      <c r="C457">
+        <v>1998.51</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>45121.66666666666</v>
+      </c>
+      <c r="B458">
+        <v>31214</v>
+      </c>
+      <c r="C458">
+        <v>1991.19</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>45121.70833333334</v>
+      </c>
+      <c r="B459">
+        <v>30688.64</v>
+      </c>
+      <c r="C459">
+        <v>1960.94</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>45121.75</v>
+      </c>
+      <c r="B460">
+        <v>30091.83</v>
+      </c>
+      <c r="C460">
+        <v>1915.93</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>45121.79166666666</v>
+      </c>
+      <c r="B461">
+        <v>30115.17</v>
+      </c>
+      <c r="C461">
+        <v>1912.91</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>45121.83333333334</v>
+      </c>
+      <c r="B462">
+        <v>30189.18</v>
+      </c>
+      <c r="C462">
+        <v>1914.52</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>45121.875</v>
+      </c>
+      <c r="B463">
+        <v>30241.99</v>
+      </c>
+      <c r="C463">
+        <v>1929.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>45121.91666666666</v>
+      </c>
+      <c r="B464">
+        <v>30227.6</v>
+      </c>
+      <c r="C464">
+        <v>1926.41</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>45121.95833333334</v>
+      </c>
+      <c r="B465">
+        <v>30312.01</v>
+      </c>
+      <c r="C465">
+        <v>1937.83</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B466">
+        <v>30328.76</v>
+      </c>
+      <c r="C466">
+        <v>1932.78</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2">
+        <v>45122.04166666666</v>
+      </c>
+      <c r="B467">
+        <v>30336.45</v>
+      </c>
+      <c r="C467">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2">
+        <v>45122.08333333334</v>
+      </c>
+      <c r="B468">
+        <v>30288.7</v>
+      </c>
+      <c r="C468">
+        <v>1930.93</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2">
+        <v>45122.125</v>
+      </c>
+      <c r="B469">
+        <v>30292.91</v>
+      </c>
+      <c r="C469">
+        <v>1930.35</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2">
+        <v>45122.16666666666</v>
+      </c>
+      <c r="B470">
+        <v>30295.99</v>
+      </c>
+      <c r="C470">
+        <v>1932.02</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2">
+        <v>45122.20833333334</v>
+      </c>
+      <c r="B471">
+        <v>30295.43</v>
+      </c>
+      <c r="C471">
+        <v>1929.36</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2">
+        <v>45122.25</v>
+      </c>
+      <c r="B472">
+        <v>30311.49</v>
+      </c>
+      <c r="C472">
+        <v>1933.13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2">
+        <v>45122.29166666666</v>
+      </c>
+      <c r="B473">
+        <v>30338</v>
+      </c>
+      <c r="C473">
+        <v>1941.86</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2">
+        <v>45122.33333333334</v>
+      </c>
+      <c r="B474">
+        <v>30316.19</v>
+      </c>
+      <c r="C474">
+        <v>1938.63</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>45122.375</v>
+      </c>
+      <c r="B475">
+        <v>30350.06</v>
+      </c>
+      <c r="C475">
+        <v>1940.61</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>45122.41666666666</v>
+      </c>
+      <c r="B476">
+        <v>30325.43</v>
+      </c>
+      <c r="C476">
+        <v>1942.32</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>45122.45833333334</v>
+      </c>
+      <c r="B477">
+        <v>30311.99</v>
+      </c>
+      <c r="C477">
+        <v>1939.82</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
+        <v>45122.5</v>
+      </c>
+      <c r="B478">
+        <v>30351.1</v>
+      </c>
+      <c r="C478">
+        <v>1939.41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>45122.54166666666</v>
+      </c>
+      <c r="B479">
+        <v>30324.99</v>
+      </c>
+      <c r="C479">
+        <v>1936.44</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>45122.58333333334</v>
+      </c>
+      <c r="B480">
+        <v>30284.48</v>
+      </c>
+      <c r="C480">
+        <v>1932.15</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="B481">
+        <v>30303.41</v>
+      </c>
+      <c r="C481">
+        <v>1934.81</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="B482">
+        <v>30280.01</v>
+      </c>
+      <c r="C482">
+        <v>1932.34</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2">
+        <v>45122.70833333334</v>
+      </c>
+      <c r="B483">
+        <v>30283.13</v>
+      </c>
+      <c r="C483">
+        <v>1931.19</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="2">
+        <v>45122.75</v>
+      </c>
+      <c r="B484">
+        <v>30321.99</v>
+      </c>
+      <c r="C484">
+        <v>1935.11</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="B485">
+        <v>30326.47</v>
+      </c>
+      <c r="C485">
+        <v>1933.68</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2">
+        <v>45122.83333333334</v>
+      </c>
+      <c r="B486">
+        <v>30302.01</v>
+      </c>
+      <c r="C486">
+        <v>1931.51</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2">
+        <v>45122.875</v>
+      </c>
+      <c r="B487">
+        <v>30302.98</v>
+      </c>
+      <c r="C487">
+        <v>1930.77</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="2">
+        <v>45122.91666666666</v>
+      </c>
+      <c r="B488">
+        <v>30285.42</v>
+      </c>
+      <c r="C488">
+        <v>1928.6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2">
+        <v>45122.95833333334</v>
+      </c>
+      <c r="B489">
+        <v>30289.52</v>
+      </c>
+      <c r="C489">
+        <v>1931.41</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B490">
+        <v>30299.99</v>
+      </c>
+      <c r="C490">
+        <v>1933.48</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2">
+        <v>45123.04166666666</v>
+      </c>
+      <c r="B491">
+        <v>30265</v>
+      </c>
+      <c r="C491">
+        <v>1933.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="2">
+        <v>45123.08333333334</v>
+      </c>
+      <c r="B492">
+        <v>30252</v>
+      </c>
+      <c r="C492">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="2">
+        <v>45123.125</v>
+      </c>
+      <c r="B493">
+        <v>30188</v>
+      </c>
+      <c r="C493">
+        <v>1923.01</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="2">
+        <v>45123.16666666666</v>
+      </c>
+      <c r="B494">
+        <v>30152.25</v>
+      </c>
+      <c r="C494">
+        <v>1925.02</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="2">
+        <v>45123.20833333334</v>
+      </c>
+      <c r="B495">
+        <v>30238.01</v>
+      </c>
+      <c r="C495">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="B496">
+        <v>30258.77</v>
+      </c>
+      <c r="C496">
+        <v>1927.74</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="B497">
+        <v>30265.22</v>
+      </c>
+      <c r="C497">
+        <v>1925.43</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="2">
+        <v>45123.33333333334</v>
+      </c>
+      <c r="B498">
+        <v>30298.49</v>
+      </c>
+      <c r="C498">
+        <v>1928.08</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2">
+        <v>45123.375</v>
+      </c>
+      <c r="B499">
+        <v>30303.13</v>
+      </c>
+      <c r="C499">
+        <v>1929.94</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="2">
+        <v>45123.41666666666</v>
+      </c>
+      <c r="B500">
+        <v>30290</v>
+      </c>
+      <c r="C500">
+        <v>1929.44</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="2">
+        <v>45123.45833333334</v>
+      </c>
+      <c r="B501">
+        <v>30306.01</v>
+      </c>
+      <c r="C501">
+        <v>1933.01</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="2">
+        <v>45123.5</v>
+      </c>
+      <c r="B502">
+        <v>30293.97</v>
+      </c>
+      <c r="C502">
+        <v>1930.95</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="2">
+        <v>45123.54166666666</v>
+      </c>
+      <c r="B503">
+        <v>30303.93</v>
+      </c>
+      <c r="C503">
+        <v>1930.03</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="2">
+        <v>45123.58333333334</v>
+      </c>
+      <c r="B504">
+        <v>30401.99</v>
+      </c>
+      <c r="C504">
+        <v>1940.35</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="B505">
+        <v>30379.95</v>
+      </c>
+      <c r="C505">
+        <v>1936.81</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="B506">
+        <v>30364.17</v>
+      </c>
+      <c r="C506">
+        <v>1936.11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="B507">
+        <v>30381.92</v>
+      </c>
+      <c r="C507">
+        <v>1937.34</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="2">
+        <v>45123.75</v>
+      </c>
+      <c r="B508">
+        <v>30276.87</v>
+      </c>
+      <c r="C508">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="2">
+        <v>45123.79166666666</v>
+      </c>
+      <c r="B509">
+        <v>30252.93</v>
+      </c>
+      <c r="C509">
+        <v>1927.78</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="2">
+        <v>45123.83333333334</v>
+      </c>
+      <c r="B510">
+        <v>30271.64</v>
+      </c>
+      <c r="C510">
+        <v>1928.59</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="2">
+        <v>45123.875</v>
+      </c>
+      <c r="B511">
+        <v>30292.65</v>
+      </c>
+      <c r="C511">
+        <v>1930.44</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="2">
+        <v>45123.91666666666</v>
+      </c>
+      <c r="B512">
+        <v>30321.03</v>
+      </c>
+      <c r="C512">
+        <v>1933.39</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="2">
+        <v>45123.95833333334</v>
+      </c>
+      <c r="B513">
+        <v>30231.99</v>
+      </c>
+      <c r="C513">
+        <v>1922.11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B514">
+        <v>30213.99</v>
+      </c>
+      <c r="C514">
+        <v>1921.3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2">
+        <v>45124.04166666666</v>
+      </c>
+      <c r="B515">
+        <v>30291.05</v>
+      </c>
+      <c r="C515">
+        <v>1924.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2">
+        <v>45124.08333333334</v>
+      </c>
+      <c r="B516">
+        <v>30262</v>
+      </c>
+      <c r="C516">
+        <v>1925.62</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2">
+        <v>45124.125</v>
+      </c>
+      <c r="B517">
+        <v>30312.66</v>
+      </c>
+      <c r="C517">
+        <v>1931.23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2">
+        <v>45124.16666666666</v>
+      </c>
+      <c r="B518">
+        <v>30296.44</v>
+      </c>
+      <c r="C518">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="2">
+        <v>45124.20833333334</v>
+      </c>
+      <c r="B519">
+        <v>30264.27</v>
+      </c>
+      <c r="C519">
+        <v>1930.36</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2">
+        <v>45124.25</v>
+      </c>
+      <c r="B520">
+        <v>30275.11</v>
+      </c>
+      <c r="C520">
+        <v>1930.67</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2">
+        <v>45124.29166666666</v>
+      </c>
+      <c r="B521">
+        <v>30281</v>
+      </c>
+      <c r="C521">
+        <v>1928.69</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2">
+        <v>45124.33333333334</v>
+      </c>
+      <c r="B522">
+        <v>30261.9</v>
+      </c>
+      <c r="C522">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>45124.375</v>
+      </c>
+      <c r="B523">
+        <v>30182</v>
+      </c>
+      <c r="C523">
+        <v>1914.83</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2">
+        <v>45124.41666666666</v>
+      </c>
+      <c r="B524">
+        <v>30163.93</v>
+      </c>
+      <c r="C524">
+        <v>1909.85</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2">
+        <v>45124.45833333334</v>
+      </c>
+      <c r="B525">
+        <v>30161.7</v>
+      </c>
+      <c r="C525">
+        <v>1910.09</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2">
+        <v>45124.5</v>
+      </c>
+      <c r="B526">
+        <v>30206</v>
+      </c>
+      <c r="C526">
+        <v>1911.94</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2">
+        <v>45124.54166666666</v>
+      </c>
+      <c r="B527">
+        <v>30286.64</v>
+      </c>
+      <c r="C527">
+        <v>1916.23</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2">
+        <v>45124.58333333334</v>
+      </c>
+      <c r="B528">
+        <v>30274.8</v>
+      </c>
+      <c r="C528">
+        <v>1913.66</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2">
+        <v>45124.625</v>
+      </c>
+      <c r="B529">
+        <v>30174.83</v>
+      </c>
+      <c r="C529">
+        <v>1908.81</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="2">
+        <v>45124.66666666666</v>
+      </c>
+      <c r="B530">
+        <v>30144.01</v>
+      </c>
+      <c r="C530">
+        <v>1904.82</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>45124.70833333334</v>
+      </c>
+      <c r="B531">
+        <v>30030.67</v>
+      </c>
+      <c r="C531">
+        <v>1896.02</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="2">
+        <v>45124.75</v>
+      </c>
+      <c r="B532">
+        <v>29802.39</v>
+      </c>
+      <c r="C532">
+        <v>1883.54</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2">
+        <v>45124.79166666666</v>
+      </c>
+      <c r="B533">
+        <v>29884.39</v>
+      </c>
+      <c r="C533">
+        <v>1886.39</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="2">
+        <v>45124.83333333334</v>
+      </c>
+      <c r="B534">
+        <v>29926.19</v>
+      </c>
+      <c r="C534">
+        <v>1890.06</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="2">
+        <v>45124.875</v>
+      </c>
+      <c r="B535">
+        <v>30242.59</v>
+      </c>
+      <c r="C535">
+        <v>1916.81</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="2">
+        <v>45124.91666666666</v>
+      </c>
+      <c r="B536">
+        <v>30106.74</v>
+      </c>
+      <c r="C536">
+        <v>1909.79</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="2">
+        <v>45124.95833333334</v>
+      </c>
+      <c r="B537">
+        <v>30138</v>
+      </c>
+      <c r="C537">
+        <v>1911.2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B538">
+        <v>30168.01</v>
+      </c>
+      <c r="C538">
+        <v>1911.8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>45125.04166666666</v>
+      </c>
+      <c r="B539">
+        <v>30215.84</v>
+      </c>
+      <c r="C539">
+        <v>1915.29</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="2">
+        <v>45125.08333333334</v>
+      </c>
+      <c r="B540">
+        <v>30120</v>
+      </c>
+      <c r="C540">
+        <v>1907.4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="2">
+        <v>45125.125</v>
+      </c>
+      <c r="B541">
+        <v>30073.96</v>
+      </c>
+      <c r="C541">
+        <v>1908.88</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="2">
+        <v>45125.16666666666</v>
+      </c>
+      <c r="B542">
+        <v>30118.19</v>
+      </c>
+      <c r="C542">
+        <v>1910.15</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="2">
+        <v>45125.20833333334</v>
+      </c>
+      <c r="B543">
+        <v>30052.22</v>
+      </c>
+      <c r="C543">
+        <v>1904.42</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="2">
+        <v>45125.25</v>
+      </c>
+      <c r="B544">
+        <v>29988.62</v>
+      </c>
+      <c r="C544">
+        <v>1898.84</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="2">
+        <v>45125.29166666666</v>
+      </c>
+      <c r="B545">
+        <v>29968.13</v>
+      </c>
+      <c r="C545">
+        <v>1898.99</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="2">
+        <v>45125.33333333334</v>
+      </c>
+      <c r="B546">
+        <v>30021.99</v>
+      </c>
+      <c r="C546">
+        <v>1901.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="2">
+        <v>45125.375</v>
+      </c>
+      <c r="B547">
+        <v>29956.94</v>
+      </c>
+      <c r="C547">
+        <v>1897.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="2">
+        <v>45125.41666666666</v>
+      </c>
+      <c r="B548">
+        <v>29990.65</v>
+      </c>
+      <c r="C548">
+        <v>1903.41</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="2">
+        <v>45125.45833333334</v>
+      </c>
+      <c r="B549">
+        <v>29884.01</v>
+      </c>
+      <c r="C549">
+        <v>1894.15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="2">
+        <v>45125.5</v>
+      </c>
+      <c r="B550">
+        <v>29784</v>
+      </c>
+      <c r="C550">
+        <v>1892.32</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="2">
+        <v>45125.54166666666</v>
+      </c>
+      <c r="B551">
+        <v>29755.01</v>
+      </c>
+      <c r="C551">
+        <v>1888.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -158,10 +158,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
+    <t>BTCUSDT</t>
   </si>
   <si>
     <t>171.38</t>
@@ -2635,7 +2635,7 @@
         <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V14">
         <v>-11.56909090909107</v>
@@ -2781,7 +2781,7 @@
         <v>88</v>
       </c>
       <c r="U15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V15">
         <v>-12.19666666666694</v>
@@ -2927,7 +2927,7 @@
         <v>89</v>
       </c>
       <c r="U16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V16">
         <v>-13.33461538461552</v>
@@ -3073,7 +3073,7 @@
         <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V17">
         <v>-14.06071428571454</v>
@@ -3219,7 +3219,7 @@
         <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V18">
         <v>-14.65000000000009</v>
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="U19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V19">
         <v>-15.0775000000001</v>
@@ -3511,7 +3511,7 @@
         <v>90</v>
       </c>
       <c r="U20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V20">
         <v>-15.86764705882365</v>
@@ -3657,7 +3657,7 @@
         <v>91</v>
       </c>
       <c r="U21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V21">
         <v>-15.08388888888862</v>
@@ -3803,7 +3803,7 @@
         <v>91</v>
       </c>
       <c r="U22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V22">
         <v>-14.18947368421027</v>
@@ -3949,7 +3949,7 @@
         <v>91</v>
       </c>
       <c r="U23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V23">
         <v>-13.24199999999996</v>
@@ -4051,10 +4051,10 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -2635,7 +2635,7 @@
         <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V14">
         <v>-11.56909090909107</v>
@@ -2781,7 +2781,7 @@
         <v>88</v>
       </c>
       <c r="U15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V15">
         <v>-12.19666666666694</v>
@@ -2927,7 +2927,7 @@
         <v>89</v>
       </c>
       <c r="U16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V16">
         <v>-13.33461538461552</v>
@@ -3073,7 +3073,7 @@
         <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V17">
         <v>-14.06071428571454</v>
@@ -3219,7 +3219,7 @@
         <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V18">
         <v>-14.65000000000009</v>
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="U19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V19">
         <v>-15.0775000000001</v>
@@ -3511,7 +3511,7 @@
         <v>90</v>
       </c>
       <c r="U20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V20">
         <v>-15.86764705882365</v>
@@ -3657,7 +3657,7 @@
         <v>91</v>
       </c>
       <c r="U21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V21">
         <v>-15.08388888888862</v>
@@ -3803,7 +3803,7 @@
         <v>91</v>
       </c>
       <c r="U22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V22">
         <v>-14.18947368421027</v>
@@ -3949,7 +3949,7 @@
         <v>91</v>
       </c>
       <c r="U23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V23">
         <v>-13.24199999999996</v>

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -15,18 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Close</t>
-  </si>
-  <si>
-    <t>MédiaMóvel</t>
-  </si>
-  <si>
-    <t>DistMM</t>
-  </si>
-  <si>
-    <t>DistMM%</t>
   </si>
   <si>
     <t>MM</t>
@@ -59,19 +50,7 @@
     <t>3std-</t>
   </si>
   <si>
-    <t>pvalue</t>
-  </si>
-  <si>
-    <t>ADF</t>
-  </si>
-  <si>
-    <t>ZScore</t>
-  </si>
-  <si>
-    <t>R_Quad</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>zero</t>
   </si>
   <si>
     <t>Sinal</t>
@@ -158,139 +137,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
-  </si>
-  <si>
     <t>BTCUSDT</t>
   </si>
   <si>
-    <t>171.38</t>
-  </si>
-  <si>
-    <t>163.56</t>
-  </si>
-  <si>
-    <t>157.54</t>
-  </si>
-  <si>
-    <t>150.49</t>
-  </si>
-  <si>
-    <t>140.84</t>
-  </si>
-  <si>
-    <t>139.26</t>
-  </si>
-  <si>
-    <t>134.84</t>
-  </si>
-  <si>
-    <t>129.08</t>
-  </si>
-  <si>
-    <t>125.28</t>
-  </si>
-  <si>
-    <t>121.33</t>
-  </si>
-  <si>
-    <t>118.02</t>
-  </si>
-  <si>
-    <t>146.99</t>
-  </si>
-  <si>
-    <t>140.37</t>
-  </si>
-  <si>
-    <t>133.48</t>
-  </si>
-  <si>
-    <t>126.79</t>
-  </si>
-  <si>
-    <t>119.10</t>
-  </si>
-  <si>
-    <t>117.45</t>
-  </si>
-  <si>
-    <t>113.20</t>
-  </si>
-  <si>
-    <t>108.62</t>
-  </si>
-  <si>
-    <t>105.07</t>
-  </si>
-  <si>
-    <t>101.36</t>
-  </si>
-  <si>
-    <t>98.42</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.97</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
     <t>Yes</t>
@@ -669,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -746,28 +596,28 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>29</v>
@@ -799,31 +649,10 @@
       <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B2">
         <v>29755.01</v>
@@ -832,144 +661,123 @@
         <v>29951.976</v>
       </c>
       <c r="D2">
-        <v>196.966000000004</v>
+        <v>-0.006597777838080354</v>
       </c>
       <c r="E2">
-        <v>0.00661959112095758</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>-0.005746616989955773</v>
       </c>
       <c r="G2">
-        <v>-0.006597777838080354</v>
+        <v>0.004446058271031001</v>
       </c>
       <c r="H2">
+        <v>-0.004446058271031001</v>
+      </c>
+      <c r="I2">
+        <v>0.008892116542062001</v>
+      </c>
+      <c r="J2">
+        <v>-0.008892116542062001</v>
+      </c>
+      <c r="K2">
+        <v>0.013338174813093</v>
+      </c>
+      <c r="L2">
+        <v>-0.013338174813093</v>
+      </c>
+      <c r="M2">
+        <v>-8.831319514063746E-20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2">
+        <v>-196.966000000004</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2">
+        <v>158.9332178818028</v>
+      </c>
+      <c r="R2">
+        <v>317.8664357636056</v>
+      </c>
+      <c r="S2">
+        <v>-158.9332178818028</v>
+      </c>
+      <c r="T2">
+        <v>-317.8664357636056</v>
+      </c>
+      <c r="U2">
+        <v>0.4890909090909091</v>
+      </c>
+      <c r="V2">
+        <v>0.51</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>29755.01</v>
+      </c>
+      <c r="Y2">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z2">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA2">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB2">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC2">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD2">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE2">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF2">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I2">
-        <v>-0.005704606918119171</v>
-      </c>
-      <c r="J2">
-        <v>0.00448408517427998</v>
-      </c>
-      <c r="K2">
-        <v>-0.00448408517427998</v>
-      </c>
-      <c r="L2">
-        <v>0.00896817034855996</v>
-      </c>
-      <c r="M2">
-        <v>-0.00896817034855996</v>
-      </c>
-      <c r="N2">
-        <v>0.01345225552283994</v>
-      </c>
-      <c r="O2">
-        <v>-0.01345225552283994</v>
-      </c>
-      <c r="P2">
-        <v>3.615894698101755E-08</v>
-      </c>
-      <c r="Q2">
-        <v>0.9999999638410531</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2">
-        <v>-196.966000000004</v>
-      </c>
-      <c r="W2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2">
-        <v>159.9884536583201</v>
-      </c>
-      <c r="Y2">
-        <v>319.9769073166403</v>
-      </c>
-      <c r="Z2">
-        <v>-159.9884536583201</v>
-      </c>
-      <c r="AA2">
-        <v>-319.9769073166403</v>
-      </c>
-      <c r="AB2">
-        <v>0.4861367837338262</v>
-      </c>
-      <c r="AC2">
-        <v>0.51</v>
-      </c>
-      <c r="AD2">
-        <v>-1</v>
-      </c>
-      <c r="AE2">
-        <v>29755.01</v>
-      </c>
-      <c r="AF2">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG2">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH2">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI2">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ2">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK2">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>45</v>
       </c>
       <c r="AL2">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM2">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN2">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO2">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP2">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ2">
-        <v>0.02452</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS2">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT2">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU2">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV2">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>29755.01</v>
@@ -978,144 +786,123 @@
         <v>29963.06545454546</v>
       </c>
       <c r="D3">
-        <v>208.0554545454579</v>
+        <v>-0.006967950482640687</v>
       </c>
       <c r="E3">
-        <v>0.006992283133007111</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>-0.006111666467101459</v>
       </c>
       <c r="G3">
-        <v>-0.006967950482640687</v>
+        <v>0.00470514435045799</v>
       </c>
       <c r="H3">
+        <v>-0.00470514435045799</v>
+      </c>
+      <c r="I3">
+        <v>0.009410288700915981</v>
+      </c>
+      <c r="J3">
+        <v>-0.009410288700915981</v>
+      </c>
+      <c r="K3">
+        <v>0.01411543305137397</v>
+      </c>
+      <c r="L3">
+        <v>-0.01411543305137397</v>
+      </c>
+      <c r="M3">
+        <v>6.308085367188389E-21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>-208.0554545454579</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>165.9055522653187</v>
+      </c>
+      <c r="R3">
+        <v>331.8111045306374</v>
+      </c>
+      <c r="S3">
+        <v>-165.9055522653187</v>
+      </c>
+      <c r="T3">
+        <v>-331.8111045306374</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>29755.01</v>
+      </c>
+      <c r="Y3">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z3">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA3">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB3">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC3">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD3">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE3">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF3">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I3">
-        <v>-0.006072008327138586</v>
-      </c>
-      <c r="J3">
-        <v>0.004728522185961375</v>
-      </c>
-      <c r="K3">
-        <v>-0.004728522185961375</v>
-      </c>
-      <c r="L3">
-        <v>0.009457044371922751</v>
-      </c>
-      <c r="M3">
-        <v>-0.009457044371922751</v>
-      </c>
-      <c r="N3">
-        <v>0.01418556655788413</v>
-      </c>
-      <c r="O3">
-        <v>-0.01418556655788413</v>
-      </c>
-      <c r="P3">
-        <v>1.200238445000452E-13</v>
-      </c>
-      <c r="Q3">
-        <v>0.99999999999988</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3">
-        <v>-208.0554545454579</v>
-      </c>
-      <c r="W3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X3">
-        <v>166.783185829078</v>
-      </c>
-      <c r="Y3">
-        <v>333.5663716581559</v>
-      </c>
-      <c r="Z3">
-        <v>-166.783185829078</v>
-      </c>
-      <c r="AA3">
-        <v>-333.5663716581559</v>
-      </c>
-      <c r="AB3">
-        <v>0.4962962962962963</v>
-      </c>
-      <c r="AC3">
-        <v>0.5</v>
-      </c>
-      <c r="AD3">
-        <v>-1</v>
-      </c>
-      <c r="AE3">
-        <v>29755.01</v>
-      </c>
-      <c r="AF3">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG3">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH3">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI3">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ3">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK3">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>45</v>
       </c>
       <c r="AL3">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM3">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN3">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO3">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP3">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ3">
-        <v>0.02452</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS3">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT3">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU3">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV3">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>29755.01</v>
@@ -1124,144 +911,123 @@
         <v>29976.14333333334</v>
       </c>
       <c r="D4">
-        <v>221.1333333333387</v>
+        <v>-0.007404321908285862</v>
       </c>
       <c r="E4">
-        <v>0.007431801680904785</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>-0.006538309772551583</v>
       </c>
       <c r="G4">
-        <v>-0.007404321908285862</v>
+        <v>0.004951466000435897</v>
       </c>
       <c r="H4">
+        <v>-0.004951466000435897</v>
+      </c>
+      <c r="I4">
+        <v>0.009902932000871794</v>
+      </c>
+      <c r="J4">
+        <v>-0.009902932000871794</v>
+      </c>
+      <c r="K4">
+        <v>0.01485439800130769</v>
+      </c>
+      <c r="L4">
+        <v>-0.01485439800130769</v>
+      </c>
+      <c r="M4">
+        <v>-2.523234146875356E-20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>-221.1333333333387</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>172.6365391377055</v>
+      </c>
+      <c r="R4">
+        <v>345.273078275411</v>
+      </c>
+      <c r="S4">
+        <v>-172.6365391377055</v>
+      </c>
+      <c r="T4">
+        <v>-345.273078275411</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>29755.01</v>
+      </c>
+      <c r="Y4">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z4">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA4">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB4">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC4">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD4">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE4">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF4">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I4">
-        <v>-0.006506818071426357</v>
-      </c>
-      <c r="J4">
-        <v>0.004963970336484845</v>
-      </c>
-      <c r="K4">
-        <v>-0.004963970336484845</v>
-      </c>
-      <c r="L4">
-        <v>0.00992794067296969</v>
-      </c>
-      <c r="M4">
-        <v>-0.00992794067296969</v>
-      </c>
-      <c r="N4">
-        <v>0.01489191100945454</v>
-      </c>
-      <c r="O4">
-        <v>-0.01489191100945454</v>
-      </c>
-      <c r="P4">
-        <v>2.261241131117867E-12</v>
-      </c>
-      <c r="Q4">
-        <v>0.9999999999977388</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" t="s">
-        <v>92</v>
-      </c>
-      <c r="V4">
-        <v>-221.1333333333387</v>
-      </c>
-      <c r="W4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X4">
-        <v>173.560067488825</v>
-      </c>
-      <c r="Y4">
-        <v>347.1201349776499</v>
-      </c>
-      <c r="Z4">
-        <v>-173.560067488825</v>
-      </c>
-      <c r="AA4">
-        <v>-347.1201349776499</v>
-      </c>
-      <c r="AB4">
-        <v>0.4972170686456401</v>
-      </c>
-      <c r="AC4">
-        <v>0.5</v>
-      </c>
-      <c r="AD4">
-        <v>-1</v>
-      </c>
-      <c r="AE4">
-        <v>29755.01</v>
-      </c>
-      <c r="AF4">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG4">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH4">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI4">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ4">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK4">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
       </c>
       <c r="AL4">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM4">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN4">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO4">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP4">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ4">
-        <v>0.02452</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS4">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT4">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU4">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV4">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>29755.01</v>
@@ -1270,144 +1036,123 @@
         <v>29994.58153846154</v>
       </c>
       <c r="D5">
-        <v>239.5715384615396</v>
+        <v>-0.008019228789888208</v>
       </c>
       <c r="E5">
-        <v>0.008051468927805422</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>-0.00714710004413042</v>
       </c>
       <c r="G5">
-        <v>-0.008019228789888208</v>
+        <v>0.005188052921708081</v>
       </c>
       <c r="H5">
+        <v>-0.005188052921708081</v>
+      </c>
+      <c r="I5">
+        <v>0.01037610584341616</v>
+      </c>
+      <c r="J5">
+        <v>-0.01037610584341616</v>
+      </c>
+      <c r="K5">
+        <v>0.01556415876512424</v>
+      </c>
+      <c r="L5">
+        <v>-0.01556415876512424</v>
+      </c>
+      <c r="M5">
+        <v>-7.569702440626068E-20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>-239.5715384615396</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5">
+        <v>179.1425168942749</v>
+      </c>
+      <c r="R5">
+        <v>358.2850337885499</v>
+      </c>
+      <c r="S5">
+        <v>-179.1425168942749</v>
+      </c>
+      <c r="T5">
+        <v>-358.2850337885499</v>
+      </c>
+      <c r="U5">
+        <v>0.4963636363636363</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>29755.01</v>
+      </c>
+      <c r="Y5">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z5">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA5">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB5">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC5">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD5">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE5">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF5">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I5">
-        <v>-0.007109472583164264</v>
-      </c>
-      <c r="J5">
-        <v>0.005207447028771243</v>
-      </c>
-      <c r="K5">
-        <v>-0.005207447028771243</v>
-      </c>
-      <c r="L5">
-        <v>0.01041489405754249</v>
-      </c>
-      <c r="M5">
-        <v>-0.01041489405754249</v>
-      </c>
-      <c r="N5">
-        <v>0.01562234108631373</v>
-      </c>
-      <c r="O5">
-        <v>-0.01562234108631373</v>
-      </c>
-      <c r="P5">
-        <v>1.748675862175523E-11</v>
-      </c>
-      <c r="Q5">
-        <v>0.9999999999825132</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5">
-        <v>-239.5715384615396</v>
-      </c>
-      <c r="W5" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5">
-        <v>180.2561771303603</v>
-      </c>
-      <c r="Y5">
-        <v>360.5123542607206</v>
-      </c>
-      <c r="Z5">
-        <v>-180.2561771303603</v>
-      </c>
-      <c r="AA5">
-        <v>-360.5123542607206</v>
-      </c>
-      <c r="AB5">
-        <v>0.4925650557620818</v>
-      </c>
-      <c r="AC5">
-        <v>0.51</v>
-      </c>
-      <c r="AD5">
-        <v>-1</v>
-      </c>
-      <c r="AE5">
-        <v>29755.01</v>
-      </c>
-      <c r="AF5">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG5">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH5">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI5">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ5">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK5">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>45</v>
       </c>
       <c r="AL5">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM5">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN5">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO5">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP5">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ5">
-        <v>0.02452</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS5">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT5">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU5">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV5">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>29755.01</v>
@@ -1416,144 +1161,123 @@
         <v>30006.96928571429</v>
       </c>
       <c r="D6">
-        <v>251.9592857142889</v>
+        <v>-0.008432143031556944</v>
       </c>
       <c r="E6">
-        <v>0.008467793682955874</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>-0.007555537548012661</v>
       </c>
       <c r="G6">
-        <v>-0.008432143031556944</v>
+        <v>0.005415405150214982</v>
       </c>
       <c r="H6">
+        <v>-0.005415405150214982</v>
+      </c>
+      <c r="I6">
+        <v>0.01083081030042996</v>
+      </c>
+      <c r="J6">
+        <v>-0.01083081030042996</v>
+      </c>
+      <c r="K6">
+        <v>0.01624621545064495</v>
+      </c>
+      <c r="L6">
+        <v>-0.01624621545064495</v>
+      </c>
+      <c r="M6">
+        <v>-1.13545536609391E-19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>-251.9592857142889</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6">
+        <v>185.4721029008786</v>
+      </c>
+      <c r="R6">
+        <v>370.9442058017572</v>
+      </c>
+      <c r="S6">
+        <v>-185.4721029008786</v>
+      </c>
+      <c r="T6">
+        <v>-370.9442058017572</v>
+      </c>
+      <c r="U6">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="V6">
+        <v>0.51</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>29755.01</v>
+      </c>
+      <c r="Y6">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z6">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA6">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB6">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC6">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD6">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE6">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF6">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I6">
-        <v>-0.00751672941264943</v>
-      </c>
-      <c r="J6">
-        <v>0.005461054854115623</v>
-      </c>
-      <c r="K6">
-        <v>-0.005461054854115623</v>
-      </c>
-      <c r="L6">
-        <v>0.01092210970823125</v>
-      </c>
-      <c r="M6">
-        <v>-0.01092210970823125</v>
-      </c>
-      <c r="N6">
-        <v>0.01638316456234687</v>
-      </c>
-      <c r="O6">
-        <v>-0.01638316456234687</v>
-      </c>
-      <c r="P6">
-        <v>5.335611106519758E-11</v>
-      </c>
-      <c r="Q6">
-        <v>0.9999999999466439</v>
-      </c>
-      <c r="R6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6">
-        <v>-251.9592857142889</v>
-      </c>
-      <c r="W6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6">
-        <v>186.7381914616799</v>
-      </c>
-      <c r="Y6">
-        <v>373.4763829233598</v>
-      </c>
-      <c r="Z6">
-        <v>-186.7381914616799</v>
-      </c>
-      <c r="AA6">
-        <v>-373.4763829233598</v>
-      </c>
-      <c r="AB6">
-        <v>0.4878957169459963</v>
-      </c>
-      <c r="AC6">
-        <v>0.51</v>
-      </c>
-      <c r="AD6">
-        <v>-1</v>
-      </c>
-      <c r="AE6">
-        <v>29755.01</v>
-      </c>
-      <c r="AF6">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG6">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH6">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI6">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ6">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK6">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>45</v>
       </c>
       <c r="AL6">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM6">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN6">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO6">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP6">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ6">
-        <v>0.02452</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS6">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT6">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU6">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV6">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>29755.01</v>
@@ -1562,144 +1286,123 @@
         <v>30015.70466666667</v>
       </c>
       <c r="D7">
-        <v>260.6946666666699</v>
+        <v>-0.008723212403807289</v>
       </c>
       <c r="E7">
-        <v>0.008761370494134264</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>-0.007828369232892459</v>
       </c>
       <c r="G7">
-        <v>-0.008723212403807289</v>
+        <v>0.005632215732713992</v>
       </c>
       <c r="H7">
+        <v>-0.005632215732713992</v>
+      </c>
+      <c r="I7">
+        <v>0.01126443146542798</v>
+      </c>
+      <c r="J7">
+        <v>-0.01126443146542798</v>
+      </c>
+      <c r="K7">
+        <v>0.01689664719814198</v>
+      </c>
+      <c r="L7">
+        <v>-0.01689664719814198</v>
+      </c>
+      <c r="M7">
+        <v>3.784851220313034E-20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>-260.6946666666699</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7">
+        <v>191.4950953938527</v>
+      </c>
+      <c r="R7">
+        <v>382.9901907877054</v>
+      </c>
+      <c r="S7">
+        <v>-191.4950953938527</v>
+      </c>
+      <c r="T7">
+        <v>-382.9901907877054</v>
+      </c>
+      <c r="U7">
+        <v>0.4890909090909091</v>
+      </c>
+      <c r="V7">
+        <v>0.51</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>29755.01</v>
+      </c>
+      <c r="Y7">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z7">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA7">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB7">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC7">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD7">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE7">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF7">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I7">
-        <v>-0.007816691082055877</v>
-      </c>
-      <c r="J7">
-        <v>0.00566529076249213</v>
-      </c>
-      <c r="K7">
-        <v>-0.00566529076249213</v>
-      </c>
-      <c r="L7">
-        <v>0.01133058152498426</v>
-      </c>
-      <c r="M7">
-        <v>-0.01133058152498426</v>
-      </c>
-      <c r="N7">
-        <v>0.01699587228747639</v>
-      </c>
-      <c r="O7">
-        <v>-0.01699587228747639</v>
-      </c>
-      <c r="P7">
-        <v>5.139098726172924E-10</v>
-      </c>
-      <c r="Q7">
-        <v>0.9999999994860901</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7">
-        <v>-260.6946666666699</v>
-      </c>
-      <c r="W7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7">
-        <v>192.9199370417424</v>
-      </c>
-      <c r="Y7">
-        <v>385.8398740834848</v>
-      </c>
-      <c r="Z7">
-        <v>-192.9199370417424</v>
-      </c>
-      <c r="AA7">
-        <v>-385.8398740834848</v>
-      </c>
-      <c r="AB7">
-        <v>0.4869402985074627</v>
-      </c>
-      <c r="AC7">
-        <v>0.51</v>
-      </c>
-      <c r="AD7">
-        <v>-1</v>
-      </c>
-      <c r="AE7">
-        <v>29755.01</v>
-      </c>
-      <c r="AF7">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG7">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH7">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI7">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ7">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK7">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>45</v>
       </c>
       <c r="AL7">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM7">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN7">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO7">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP7">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ7">
-        <v>0.02452</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS7">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT7">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU7">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV7">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>29755.01</v>
@@ -1708,144 +1411,123 @@
         <v>30021.394375</v>
       </c>
       <c r="D8">
-        <v>266.3843750000015</v>
+        <v>-0.008912752153101887</v>
       </c>
       <c r="E8">
-        <v>0.008952588992576425</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>-0.008005540362513597</v>
       </c>
       <c r="G8">
-        <v>-0.008912752153101887</v>
+        <v>0.005839784275679504</v>
       </c>
       <c r="H8">
+        <v>-0.005839784275679504</v>
+      </c>
+      <c r="I8">
+        <v>0.01167956855135901</v>
+      </c>
+      <c r="J8">
+        <v>-0.01167956855135901</v>
+      </c>
+      <c r="K8">
+        <v>0.01751935282703851</v>
+      </c>
+      <c r="L8">
+        <v>-0.01751935282703851</v>
+      </c>
+      <c r="M8">
+        <v>-5.046468293750712E-20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8">
+        <v>-266.3843750000015</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <v>197.270993578412</v>
+      </c>
+      <c r="R8">
+        <v>394.5419871568241</v>
+      </c>
+      <c r="S8">
+        <v>-197.270993578412</v>
+      </c>
+      <c r="T8">
+        <v>-394.5419871568241</v>
+      </c>
+      <c r="U8">
+        <v>0.4763636363636364</v>
+      </c>
+      <c r="V8">
+        <v>0.52</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>29755.01</v>
+      </c>
+      <c r="Y8">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z8">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA8">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB8">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC8">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD8">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE8">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF8">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I8">
-        <v>-0.007977522434144492</v>
-      </c>
-      <c r="J8">
-        <v>0.005876811812521558</v>
-      </c>
-      <c r="K8">
-        <v>-0.005876811812521558</v>
-      </c>
-      <c r="L8">
-        <v>0.01175362362504312</v>
-      </c>
-      <c r="M8">
-        <v>-0.01175362362504312</v>
-      </c>
-      <c r="N8">
-        <v>0.01763043543756467</v>
-      </c>
-      <c r="O8">
-        <v>-0.01763043543756467</v>
-      </c>
-      <c r="P8">
-        <v>1.653071857494163E-09</v>
-      </c>
-      <c r="Q8">
-        <v>0.9999999983469281</v>
-      </c>
-      <c r="R8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" t="s">
-        <v>92</v>
-      </c>
-      <c r="V8">
-        <v>-266.3843750000015</v>
-      </c>
-      <c r="W8" t="s">
-        <v>94</v>
-      </c>
-      <c r="X8">
-        <v>198.940636156562</v>
-      </c>
-      <c r="Y8">
-        <v>397.881272313124</v>
-      </c>
-      <c r="Z8">
-        <v>-198.940636156562</v>
-      </c>
-      <c r="AA8">
-        <v>-397.881272313124</v>
-      </c>
-      <c r="AB8">
-        <v>0.4728971962616823</v>
-      </c>
-      <c r="AC8">
-        <v>0.53</v>
-      </c>
-      <c r="AD8">
-        <v>-1</v>
-      </c>
-      <c r="AE8">
-        <v>29755.01</v>
-      </c>
-      <c r="AF8">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG8">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH8">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI8">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ8">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK8">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>45</v>
       </c>
       <c r="AL8">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM8">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN8">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO8">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP8">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ8">
-        <v>0.02452</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS8">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT8">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU8">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV8">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>29755.01</v>
@@ -1854,144 +1536,123 @@
         <v>30034.40588235294</v>
       </c>
       <c r="D9">
-        <v>279.3958823529429</v>
+        <v>-0.009346066087834949</v>
       </c>
       <c r="E9">
-        <v>0.009389876943511122</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>-0.008430275750568667</v>
       </c>
       <c r="G9">
-        <v>-0.009346066087834949</v>
+        <v>0.006037401984903471</v>
       </c>
       <c r="H9">
+        <v>-0.006037401984903471</v>
+      </c>
+      <c r="I9">
+        <v>0.01207480396980694</v>
+      </c>
+      <c r="J9">
+        <v>-0.01207480396980694</v>
+      </c>
+      <c r="K9">
+        <v>0.01811220595471041</v>
+      </c>
+      <c r="L9">
+        <v>-0.01811220595471041</v>
+      </c>
+      <c r="M9">
+        <v>2.523234146875356E-20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>-279.3958823529429</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <v>202.6388438129781</v>
+      </c>
+      <c r="R9">
+        <v>405.2776876259561</v>
+      </c>
+      <c r="S9">
+        <v>-202.6388438129781</v>
+      </c>
+      <c r="T9">
+        <v>-405.2776876259561</v>
+      </c>
+      <c r="U9">
+        <v>0.48</v>
+      </c>
+      <c r="V9">
+        <v>0.52</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>29755.01</v>
+      </c>
+      <c r="Y9">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z9">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA9">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB9">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC9">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD9">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE9">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF9">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I9">
-        <v>-0.008411386036270913</v>
-      </c>
-      <c r="J9">
-        <v>0.00608718852730459</v>
-      </c>
-      <c r="K9">
-        <v>-0.00608718852730459</v>
-      </c>
-      <c r="L9">
-        <v>0.01217437705460918</v>
-      </c>
-      <c r="M9">
-        <v>-0.01217437705460918</v>
-      </c>
-      <c r="N9">
-        <v>0.01826156558191377</v>
-      </c>
-      <c r="O9">
-        <v>-0.01826156558191377</v>
-      </c>
-      <c r="P9">
-        <v>4.563497087598671E-09</v>
-      </c>
-      <c r="Q9">
-        <v>0.9999999954365029</v>
-      </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9">
-        <v>-279.3958823529429</v>
-      </c>
-      <c r="W9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X9">
-        <v>204.6023265209945</v>
-      </c>
-      <c r="Y9">
-        <v>409.2046530419889</v>
-      </c>
-      <c r="Z9">
-        <v>-204.6023265209945</v>
-      </c>
-      <c r="AA9">
-        <v>-409.2046530419889</v>
-      </c>
-      <c r="AB9">
-        <v>0.4756554307116105</v>
-      </c>
-      <c r="AC9">
-        <v>0.52</v>
-      </c>
-      <c r="AD9">
-        <v>-1</v>
-      </c>
-      <c r="AE9">
-        <v>29755.01</v>
-      </c>
-      <c r="AF9">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG9">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH9">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI9">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ9">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK9">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>45</v>
       </c>
       <c r="AL9">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM9">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN9">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO9">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP9">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ9">
-        <v>0.02452</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS9">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT9">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU9">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV9">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>29755.01</v>
@@ -2000,144 +1661,123 @@
         <v>30028.39388888889</v>
       </c>
       <c r="D10">
-        <v>273.3838888888895</v>
+        <v>-0.009145875836730075</v>
       </c>
       <c r="E10">
-        <v>0.009187827155456829</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>-0.008228628525141612</v>
       </c>
       <c r="G10">
-        <v>-0.009145875836730075</v>
+        <v>0.0062219484962793</v>
       </c>
       <c r="H10">
+        <v>-0.0062219484962793</v>
+      </c>
+      <c r="I10">
+        <v>0.0124438969925586</v>
+      </c>
+      <c r="J10">
+        <v>-0.0124438969925586</v>
+      </c>
+      <c r="K10">
+        <v>0.0186658454888379</v>
+      </c>
+      <c r="L10">
+        <v>-0.0186658454888379</v>
+      </c>
+      <c r="M10">
+        <v>-1.261617073437678E-20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>-273.3838888888895</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>207.7425153685234</v>
+      </c>
+      <c r="R10">
+        <v>415.4850307370468</v>
+      </c>
+      <c r="S10">
+        <v>-207.7425153685234</v>
+      </c>
+      <c r="T10">
+        <v>-415.4850307370468</v>
+      </c>
+      <c r="U10">
+        <v>0.4781818181818182</v>
+      </c>
+      <c r="V10">
+        <v>0.52</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>29755.01</v>
+      </c>
+      <c r="Y10">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z10">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA10">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB10">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC10">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD10">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE10">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF10">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I10">
-        <v>-0.008184958543503122</v>
-      </c>
-      <c r="J10">
-        <v>0.006280090564860892</v>
-      </c>
-      <c r="K10">
-        <v>-0.006280090564860892</v>
-      </c>
-      <c r="L10">
-        <v>0.01256018112972178</v>
-      </c>
-      <c r="M10">
-        <v>-0.01256018112972178</v>
-      </c>
-      <c r="N10">
-        <v>0.01884027169458267</v>
-      </c>
-      <c r="O10">
-        <v>-0.01884027169458267</v>
-      </c>
-      <c r="P10">
-        <v>1.339429410089376E-08</v>
-      </c>
-      <c r="Q10">
-        <v>0.9999999866057059</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10">
-        <v>-273.3838888888895</v>
-      </c>
-      <c r="W10" t="s">
-        <v>94</v>
-      </c>
-      <c r="X10">
-        <v>209.9932234368686</v>
-      </c>
-      <c r="Y10">
-        <v>419.9864468737371</v>
-      </c>
-      <c r="Z10">
-        <v>-209.9932234368686</v>
-      </c>
-      <c r="AA10">
-        <v>-419.9864468737371</v>
-      </c>
-      <c r="AB10">
-        <v>0.4727954971857411</v>
-      </c>
-      <c r="AC10">
-        <v>0.53</v>
-      </c>
-      <c r="AD10">
-        <v>-1</v>
-      </c>
-      <c r="AE10">
-        <v>29755.01</v>
-      </c>
-      <c r="AF10">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG10">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH10">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI10">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ10">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK10">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>45</v>
       </c>
       <c r="AL10">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM10">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN10">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO10">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP10">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ10">
-        <v>0.02452</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS10">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT10">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU10">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV10">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>29755.01</v>
@@ -2146,144 +1786,123 @@
         <v>30020.81473684211</v>
       </c>
       <c r="D11">
-        <v>265.8047368421066</v>
+        <v>-0.008893444463845027</v>
       </c>
       <c r="E11">
-        <v>0.008933108637574199</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>-0.007973193841207126</v>
       </c>
       <c r="G11">
-        <v>-0.008893444463845027</v>
+        <v>0.006398819451197868</v>
       </c>
       <c r="H11">
+        <v>-0.006398819451197868</v>
+      </c>
+      <c r="I11">
+        <v>0.01279763890239574</v>
+      </c>
+      <c r="J11">
+        <v>-0.01279763890239574</v>
+      </c>
+      <c r="K11">
+        <v>0.01919645835359361</v>
+      </c>
+      <c r="L11">
+        <v>-0.01919645835359361</v>
+      </c>
+      <c r="M11">
+        <v>2.523234146875356E-20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11">
+        <v>-265.8047368421066</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <v>212.6928608983931</v>
+      </c>
+      <c r="R11">
+        <v>425.3857217967861</v>
+      </c>
+      <c r="S11">
+        <v>-212.6928608983931</v>
+      </c>
+      <c r="T11">
+        <v>-425.3857217967861</v>
+      </c>
+      <c r="U11">
+        <v>0.4745454545454545</v>
+      </c>
+      <c r="V11">
+        <v>0.53</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>29755.01</v>
+      </c>
+      <c r="Y11">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z11">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA11">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB11">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC11">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD11">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE11">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF11">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I11">
-        <v>-0.007927697866093431</v>
-      </c>
-      <c r="J11">
-        <v>0.006465919179354057</v>
-      </c>
-      <c r="K11">
-        <v>-0.006465919179354057</v>
-      </c>
-      <c r="L11">
-        <v>0.01293183835870811</v>
-      </c>
-      <c r="M11">
-        <v>-0.01293183835870811</v>
-      </c>
-      <c r="N11">
-        <v>0.01939775753806217</v>
-      </c>
-      <c r="O11">
-        <v>-0.01939775753806217</v>
-      </c>
-      <c r="P11">
-        <v>2.201047243797338E-08</v>
-      </c>
-      <c r="Q11">
-        <v>0.9999999779895276</v>
-      </c>
-      <c r="R11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11">
-        <v>-265.8047368421066</v>
-      </c>
-      <c r="W11" t="s">
-        <v>94</v>
-      </c>
-      <c r="X11">
-        <v>215.1878526607443</v>
-      </c>
-      <c r="Y11">
-        <v>430.3757053214887</v>
-      </c>
-      <c r="Z11">
-        <v>-215.1878526607443</v>
-      </c>
-      <c r="AA11">
-        <v>-430.3757053214887</v>
-      </c>
-      <c r="AB11">
-        <v>0.4699248120300752</v>
-      </c>
-      <c r="AC11">
-        <v>0.53</v>
-      </c>
-      <c r="AD11">
-        <v>-1</v>
-      </c>
-      <c r="AE11">
-        <v>29755.01</v>
-      </c>
-      <c r="AF11">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG11">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH11">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI11">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ11">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK11">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>45</v>
       </c>
       <c r="AL11">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM11">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN11">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO11">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP11">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ11">
-        <v>0.02452</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS11">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT11">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU11">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV11">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>29755.01</v>
@@ -2292,144 +1911,123 @@
         <v>30009.8935</v>
       </c>
       <c r="D12">
-        <v>254.8834999999999</v>
+        <v>-0.008529589454188663</v>
       </c>
       <c r="E12">
-        <v>0.008566070050052072</v>
+        <v>-0.0009738153956867921</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>-0.007603454756692185</v>
       </c>
       <c r="G12">
-        <v>-0.008529589454188663</v>
+        <v>0.006569131439713888</v>
       </c>
       <c r="H12">
+        <v>-0.006569131439713888</v>
+      </c>
+      <c r="I12">
+        <v>0.01313826287942778</v>
+      </c>
+      <c r="J12">
+        <v>-0.01313826287942778</v>
+      </c>
+      <c r="K12">
+        <v>0.01970739431914166</v>
+      </c>
+      <c r="L12">
+        <v>-0.01970739431914166</v>
+      </c>
+      <c r="M12">
+        <v>-1.009293658750142E-19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12">
+        <v>-254.8834999999999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12">
+        <v>217.4340850226504</v>
+      </c>
+      <c r="R12">
+        <v>434.8681700453007</v>
+      </c>
+      <c r="S12">
+        <v>-217.4340850226504</v>
+      </c>
+      <c r="T12">
+        <v>-434.8681700453007</v>
+      </c>
+      <c r="U12">
+        <v>0.4690909090909091</v>
+      </c>
+      <c r="V12">
+        <v>0.53</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>29755.01</v>
+      </c>
+      <c r="Y12">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="Z12">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AA12">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AB12">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AC12">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AD12">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AE12">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AF12">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="I12">
-        <v>-0.007562768670562383</v>
-      </c>
-      <c r="J12">
-        <v>0.006642408197302963</v>
-      </c>
-      <c r="K12">
-        <v>-0.006642408197302963</v>
-      </c>
-      <c r="L12">
-        <v>0.01328481639460593</v>
-      </c>
-      <c r="M12">
-        <v>-0.01328481639460593</v>
-      </c>
-      <c r="N12">
-        <v>0.01992722459190889</v>
-      </c>
-      <c r="O12">
-        <v>-0.01992722459190889</v>
-      </c>
-      <c r="P12">
-        <v>2.528119735600132E-08</v>
-      </c>
-      <c r="Q12">
-        <v>0.9999999747188026</v>
-      </c>
-      <c r="R12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12">
-        <v>-254.8834999999999</v>
-      </c>
-      <c r="W12" t="s">
-        <v>94</v>
-      </c>
-      <c r="X12">
-        <v>220.1909089730937</v>
-      </c>
-      <c r="Y12">
-        <v>440.3818179461875</v>
-      </c>
-      <c r="Z12">
-        <v>-220.1909089730937</v>
-      </c>
-      <c r="AA12">
-        <v>-440.3818179461875</v>
-      </c>
-      <c r="AB12">
-        <v>0.4651600753295669</v>
-      </c>
-      <c r="AC12">
-        <v>0.53</v>
-      </c>
-      <c r="AD12">
-        <v>-1</v>
-      </c>
-      <c r="AE12">
-        <v>29755.01</v>
-      </c>
-      <c r="AF12">
-        <v>-0.0009733413913510791</v>
-      </c>
       <c r="AG12">
-        <v>-0.02235660745125714</v>
+        <v>0.0581</v>
       </c>
       <c r="AH12">
-        <v>-0.01117830372562857</v>
+        <v>0.07266000000000002</v>
       </c>
       <c r="AI12">
-        <v>-0.005589151862814284</v>
+        <v>0.04944574669187146</v>
       </c>
       <c r="AJ12">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AK12">
-        <v>0.003481860243590097</v>
+        <v>0.02452</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>45</v>
       </c>
       <c r="AL12">
-        <v>0.05527281782653305</v>
+        <v>-44.96570266728572</v>
       </c>
       <c r="AM12">
-        <v>-0.0009738153956867921</v>
+        <v>-44.96068525035394</v>
       </c>
       <c r="AN12">
-        <v>0.0581</v>
+        <v>-44.94235728868716</v>
       </c>
       <c r="AO12">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AP12">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AQ12">
-        <v>0.02452</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS12">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AT12">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AU12">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AV12">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1888.3</v>
@@ -2438,144 +2036,123 @@
         <v>1898.968</v>
       </c>
       <c r="D13">
-        <v>10.66800000000012</v>
+        <v>-0.0056336273085775</v>
       </c>
       <c r="E13">
-        <v>0.00564952602870313</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>-0.003716390218468008</v>
       </c>
       <c r="G13">
-        <v>-0.0056336273085775</v>
+        <v>0.006077808752897178</v>
       </c>
       <c r="H13">
+        <v>-0.006077808752897178</v>
+      </c>
+      <c r="I13">
+        <v>0.01215561750579436</v>
+      </c>
+      <c r="J13">
+        <v>-0.01215561750579436</v>
+      </c>
+      <c r="K13">
+        <v>0.01823342625869153</v>
+      </c>
+      <c r="L13">
+        <v>-0.01823342625869153</v>
+      </c>
+      <c r="M13">
+        <v>-4.415659757031873E-20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13">
+        <v>-10.66800000000012</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>13.72161334439655</v>
+      </c>
+      <c r="R13">
+        <v>27.4432266887931</v>
+      </c>
+      <c r="S13">
+        <v>-13.72161334439655</v>
+      </c>
+      <c r="T13">
+        <v>-27.4432266887931</v>
+      </c>
+      <c r="U13">
+        <v>0.4945454545454546</v>
+      </c>
+      <c r="V13">
+        <v>0.51</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1888.3</v>
+      </c>
+      <c r="Y13">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z13">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA13">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB13">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC13">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD13">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE13">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF13">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I13">
-        <v>-0.003689263267935396</v>
-      </c>
-      <c r="J13">
-        <v>0.006138065965052892</v>
-      </c>
-      <c r="K13">
-        <v>-0.006138065965052892</v>
-      </c>
-      <c r="L13">
-        <v>0.01227613193010578</v>
-      </c>
-      <c r="M13">
-        <v>-0.01227613193010578</v>
-      </c>
-      <c r="N13">
-        <v>0.01841419789515868</v>
-      </c>
-      <c r="O13">
-        <v>-0.01841419789515868</v>
-      </c>
-      <c r="P13">
-        <v>3.423741520675838E-08</v>
-      </c>
-      <c r="Q13">
-        <v>0.9999999657625848</v>
-      </c>
-      <c r="R13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" t="s">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13">
-        <v>-10.66800000000012</v>
-      </c>
-      <c r="W13" t="s">
-        <v>94</v>
-      </c>
-      <c r="X13">
-        <v>13.8268841096429</v>
-      </c>
-      <c r="Y13">
-        <v>27.6537682192858</v>
-      </c>
-      <c r="Z13">
-        <v>-13.8268841096429</v>
-      </c>
-      <c r="AA13">
-        <v>-27.6537682192858</v>
-      </c>
-      <c r="AB13">
-        <v>0.4898336414048059</v>
-      </c>
-      <c r="AC13">
-        <v>0.51</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>1888.3</v>
-      </c>
-      <c r="AF13">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG13">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH13">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI13">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ13">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK13">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>45</v>
       </c>
       <c r="AL13">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM13">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN13">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO13">
-        <v>0.0867</v>
-      </c>
-      <c r="AP13">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ13">
-        <v>0.03322</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS13">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT13">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU13">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV13">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1888.3</v>
@@ -2584,144 +2161,123 @@
         <v>1899.869090909091</v>
       </c>
       <c r="D14">
-        <v>11.56909090909107</v>
+        <v>-0.006108030871787502</v>
       </c>
       <c r="E14">
-        <v>0.006126722930197042</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>-0.00417250998816429</v>
       </c>
       <c r="G14">
-        <v>-0.006108030871787502</v>
+        <v>0.006503912555652121</v>
       </c>
       <c r="H14">
+        <v>-0.006503912555652121</v>
+      </c>
+      <c r="I14">
+        <v>0.01300782511130424</v>
+      </c>
+      <c r="J14">
+        <v>-0.01300782511130424</v>
+      </c>
+      <c r="K14">
+        <v>0.01951173766695636</v>
+      </c>
+      <c r="L14">
+        <v>-0.01951173766695636</v>
+      </c>
+      <c r="M14">
+        <v>9.462128050782584E-20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14">
+        <v>-11.56909090909107</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>14.49125185287301</v>
+      </c>
+      <c r="R14">
+        <v>28.98250370574603</v>
+      </c>
+      <c r="S14">
+        <v>-14.49125185287301</v>
+      </c>
+      <c r="T14">
+        <v>-28.98250370574603</v>
+      </c>
+      <c r="U14">
+        <v>0.4890909090909091</v>
+      </c>
+      <c r="V14">
+        <v>0.51</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1888.3</v>
+      </c>
+      <c r="Y14">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z14">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA14">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB14">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC14">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD14">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE14">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF14">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I14">
-        <v>-0.004146851554771238</v>
-      </c>
-      <c r="J14">
-        <v>0.006555869024394193</v>
-      </c>
-      <c r="K14">
-        <v>-0.006555869024394193</v>
-      </c>
-      <c r="L14">
-        <v>0.01311173804878839</v>
-      </c>
-      <c r="M14">
-        <v>-0.01311173804878839</v>
-      </c>
-      <c r="N14">
-        <v>0.01966760707318258</v>
-      </c>
-      <c r="O14">
-        <v>-0.01966760707318258</v>
-      </c>
-      <c r="P14">
-        <v>8.476627737363706E-10</v>
-      </c>
-      <c r="Q14">
-        <v>0.9999999991523372</v>
-      </c>
-      <c r="R14" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" t="s">
-        <v>71</v>
-      </c>
-      <c r="T14" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" t="s">
-        <v>93</v>
-      </c>
-      <c r="V14">
-        <v>-11.56909090909107</v>
-      </c>
-      <c r="W14" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14">
-        <v>14.59804677625146</v>
-      </c>
-      <c r="Y14">
-        <v>29.19609355250291</v>
-      </c>
-      <c r="Z14">
-        <v>-14.59804677625146</v>
-      </c>
-      <c r="AA14">
-        <v>-29.19609355250291</v>
-      </c>
-      <c r="AB14">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="AC14">
-        <v>0.52</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1888.3</v>
-      </c>
-      <c r="AF14">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG14">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH14">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI14">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ14">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK14">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>45</v>
       </c>
       <c r="AL14">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM14">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN14">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO14">
-        <v>0.0867</v>
-      </c>
-      <c r="AP14">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ14">
-        <v>0.03322</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS14">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT14">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU14">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV14">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>1888.3</v>
@@ -2730,144 +2286,123 @@
         <v>1900.496666666667</v>
       </c>
       <c r="D15">
-        <v>12.19666666666694</v>
+        <v>-0.006438302115827329</v>
       </c>
       <c r="E15">
-        <v>0.006459072534378512</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>-0.004498325939459914</v>
       </c>
       <c r="G15">
-        <v>-0.006438302115827329</v>
+        <v>0.006922365844029058</v>
       </c>
       <c r="H15">
+        <v>-0.006922365844029058</v>
+      </c>
+      <c r="I15">
+        <v>0.01384473168805812</v>
+      </c>
+      <c r="J15">
+        <v>-0.01384473168805812</v>
+      </c>
+      <c r="K15">
+        <v>0.02076709753208717</v>
+      </c>
+      <c r="L15">
+        <v>-0.02076709753208717</v>
+      </c>
+      <c r="M15">
+        <v>-1.261617073437678E-19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15">
+        <v>-12.19666666666694</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15">
+        <v>15.22594343095806</v>
+      </c>
+      <c r="R15">
+        <v>30.45188686191612</v>
+      </c>
+      <c r="S15">
+        <v>-15.22594343095806</v>
+      </c>
+      <c r="T15">
+        <v>-30.45188686191612</v>
+      </c>
+      <c r="U15">
+        <v>0.4836363636363636</v>
+      </c>
+      <c r="V15">
+        <v>0.52</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1888.3</v>
+      </c>
+      <c r="Y15">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z15">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA15">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB15">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC15">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD15">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE15">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF15">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I15">
-        <v>-0.004476155069896905</v>
-      </c>
-      <c r="J15">
-        <v>0.006973046260511383</v>
-      </c>
-      <c r="K15">
-        <v>-0.006973046260511383</v>
-      </c>
-      <c r="L15">
-        <v>0.01394609252102277</v>
-      </c>
-      <c r="M15">
-        <v>-0.01394609252102277</v>
-      </c>
-      <c r="N15">
-        <v>0.02091913878153415</v>
-      </c>
-      <c r="O15">
-        <v>-0.02091913878153415</v>
-      </c>
-      <c r="P15">
-        <v>2.349793136005724E-08</v>
-      </c>
-      <c r="Q15">
-        <v>0.9999999765020686</v>
-      </c>
-      <c r="R15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" t="s">
-        <v>82</v>
-      </c>
-      <c r="T15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>93</v>
-      </c>
-      <c r="V15">
-        <v>-12.19666666666694</v>
-      </c>
-      <c r="W15" t="s">
-        <v>94</v>
-      </c>
-      <c r="X15">
-        <v>15.34449045219108</v>
-      </c>
-      <c r="Y15">
-        <v>30.68898090438216</v>
-      </c>
-      <c r="Z15">
-        <v>-15.34449045219108</v>
-      </c>
-      <c r="AA15">
-        <v>-30.68898090438216</v>
-      </c>
-      <c r="AB15">
-        <v>0.4786641929499073</v>
-      </c>
-      <c r="AC15">
-        <v>0.52</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1888.3</v>
-      </c>
-      <c r="AF15">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG15">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH15">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI15">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ15">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK15">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>45</v>
       </c>
       <c r="AL15">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM15">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN15">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO15">
-        <v>0.0867</v>
-      </c>
-      <c r="AP15">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ15">
-        <v>0.03322</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS15">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT15">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU15">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV15">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>1888.3</v>
@@ -2876,144 +2411,123 @@
         <v>1901.634615384615</v>
       </c>
       <c r="D16">
-        <v>13.33461538461552</v>
+        <v>-0.007036886787165828</v>
       </c>
       <c r="E16">
-        <v>0.007061703852468102</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>-0.005098584182956019</v>
       </c>
       <c r="G16">
-        <v>-0.007036886787165828</v>
+        <v>0.007320991420922612</v>
       </c>
       <c r="H16">
+        <v>-0.007320991420922612</v>
+      </c>
+      <c r="I16">
+        <v>0.01464198284184522</v>
+      </c>
+      <c r="J16">
+        <v>-0.01464198284184522</v>
+      </c>
+      <c r="K16">
+        <v>0.02196297426276783</v>
+      </c>
+      <c r="L16">
+        <v>-0.02196297426276783</v>
+      </c>
+      <c r="M16">
+        <v>5.046468293750712E-20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16">
+        <v>-13.33461538461552</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16">
+        <v>15.92795465105183</v>
+      </c>
+      <c r="R16">
+        <v>31.85590930210365</v>
+      </c>
+      <c r="S16">
+        <v>-15.92795465105183</v>
+      </c>
+      <c r="T16">
+        <v>-31.85590930210365</v>
+      </c>
+      <c r="U16">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="V16">
+        <v>0.53</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1888.3</v>
+      </c>
+      <c r="Y16">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z16">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA16">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB16">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC16">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD16">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE16">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF16">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I16">
-        <v>-0.005072483393662468</v>
-      </c>
-      <c r="J16">
-        <v>0.007382234576358032</v>
-      </c>
-      <c r="K16">
-        <v>-0.007382234576358032</v>
-      </c>
-      <c r="L16">
-        <v>0.01476446915271606</v>
-      </c>
-      <c r="M16">
-        <v>-0.01476446915271606</v>
-      </c>
-      <c r="N16">
-        <v>0.0221467037290741</v>
-      </c>
-      <c r="O16">
-        <v>-0.0221467037290741</v>
-      </c>
-      <c r="P16">
-        <v>4.255566833150518E-08</v>
-      </c>
-      <c r="Q16">
-        <v>0.9999999574443317</v>
-      </c>
-      <c r="R16" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V16">
-        <v>-13.33461538461552</v>
-      </c>
-      <c r="W16" t="s">
-        <v>94</v>
-      </c>
-      <c r="X16">
-        <v>16.06366684640476</v>
-      </c>
-      <c r="Y16">
-        <v>32.12733369280953</v>
-      </c>
-      <c r="Z16">
-        <v>-16.06366684640476</v>
-      </c>
-      <c r="AA16">
-        <v>-32.12733369280953</v>
-      </c>
-      <c r="AB16">
-        <v>0.4684014869888476</v>
-      </c>
-      <c r="AC16">
-        <v>0.53</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1888.3</v>
-      </c>
-      <c r="AF16">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG16">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH16">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI16">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ16">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK16">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>45</v>
       </c>
       <c r="AL16">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM16">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN16">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO16">
-        <v>0.0867</v>
-      </c>
-      <c r="AP16">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ16">
-        <v>0.03322</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS16">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT16">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU16">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV16">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>1888.3</v>
@@ -3022,144 +2536,123 @@
         <v>1902.360714285714</v>
       </c>
       <c r="D17">
-        <v>14.06071428571454</v>
+        <v>-0.007418642729006251</v>
       </c>
       <c r="E17">
-        <v>0.007446229034430196</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>-0.005481365333635742</v>
       </c>
       <c r="G17">
-        <v>-0.007418642729006251</v>
+        <v>0.007700269278303635</v>
       </c>
       <c r="H17">
+        <v>-0.007700269278303635</v>
+      </c>
+      <c r="I17">
+        <v>0.01540053855660727</v>
+      </c>
+      <c r="J17">
+        <v>-0.01540053855660727</v>
+      </c>
+      <c r="K17">
+        <v>0.02310080783491091</v>
+      </c>
+      <c r="L17">
+        <v>-0.02310080783491091</v>
+      </c>
+      <c r="M17">
+        <v>1.009293658750142E-19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17">
+        <v>-14.06071428571454</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <v>16.60467977501336</v>
+      </c>
+      <c r="R17">
+        <v>33.20935955002671</v>
+      </c>
+      <c r="S17">
+        <v>-16.60467977501336</v>
+      </c>
+      <c r="T17">
+        <v>-33.20935955002671</v>
+      </c>
+      <c r="U17">
+        <v>0.48</v>
+      </c>
+      <c r="V17">
+        <v>0.52</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1888.3</v>
+      </c>
+      <c r="Y17">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z17">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA17">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB17">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC17">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD17">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE17">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF17">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I17">
-        <v>-0.005470935843819634</v>
-      </c>
-      <c r="J17">
-        <v>0.007791066276908442</v>
-      </c>
-      <c r="K17">
-        <v>-0.007791066276908442</v>
-      </c>
-      <c r="L17">
-        <v>0.01558213255381688</v>
-      </c>
-      <c r="M17">
-        <v>-0.01558213255381688</v>
-      </c>
-      <c r="N17">
-        <v>0.02337319883072533</v>
-      </c>
-      <c r="O17">
-        <v>-0.02337319883072533</v>
-      </c>
-      <c r="P17">
-        <v>5.920799852326633E-08</v>
-      </c>
-      <c r="Q17">
-        <v>0.9999999407920015</v>
-      </c>
-      <c r="R17" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" t="s">
-        <v>93</v>
-      </c>
-      <c r="V17">
-        <v>-14.06071428571454</v>
-      </c>
-      <c r="W17" t="s">
-        <v>94</v>
-      </c>
-      <c r="X17">
-        <v>16.75709551634665</v>
-      </c>
-      <c r="Y17">
-        <v>33.5141910326933</v>
-      </c>
-      <c r="Z17">
-        <v>-16.75709551634665</v>
-      </c>
-      <c r="AA17">
-        <v>-33.5141910326933</v>
-      </c>
-      <c r="AB17">
-        <v>0.4767225325884544</v>
-      </c>
-      <c r="AC17">
-        <v>0.52</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1888.3</v>
-      </c>
-      <c r="AF17">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG17">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH17">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI17">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ17">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK17">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>45</v>
       </c>
       <c r="AL17">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM17">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN17">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO17">
-        <v>0.0867</v>
-      </c>
-      <c r="AP17">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ17">
-        <v>0.03322</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS17">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT17">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU17">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV17">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>1888.3</v>
@@ -3168,144 +2661,123 @@
         <v>1902.95</v>
       </c>
       <c r="D18">
-        <v>14.65000000000009</v>
+        <v>-0.007728360259710818</v>
       </c>
       <c r="E18">
-        <v>0.00775830111740724</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>-0.005771638140917659</v>
       </c>
       <c r="G18">
-        <v>-0.007728360259710818</v>
+        <v>0.008064261542342851</v>
       </c>
       <c r="H18">
+        <v>-0.008064261542342851</v>
+      </c>
+      <c r="I18">
+        <v>0.0161285230846857</v>
+      </c>
+      <c r="J18">
+        <v>-0.0161285230846857</v>
+      </c>
+      <c r="K18">
+        <v>0.02419278462702855</v>
+      </c>
+      <c r="L18">
+        <v>-0.02419278462702855</v>
+      </c>
+      <c r="M18">
+        <v>1.009293658750142E-19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18">
+        <v>-14.65000000000009</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18">
+        <v>17.26653402452382</v>
+      </c>
+      <c r="R18">
+        <v>34.53306804904764</v>
+      </c>
+      <c r="S18">
+        <v>-17.26653402452382</v>
+      </c>
+      <c r="T18">
+        <v>-34.53306804904764</v>
+      </c>
+      <c r="U18">
+        <v>0.4690909090909091</v>
+      </c>
+      <c r="V18">
+        <v>0.53</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1888.3</v>
+      </c>
+      <c r="Y18">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z18">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA18">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB18">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC18">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD18">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE18">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF18">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I18">
-        <v>-0.005773904929953035</v>
-      </c>
-      <c r="J18">
-        <v>0.008141325621556282</v>
-      </c>
-      <c r="K18">
-        <v>-0.008141325621556282</v>
-      </c>
-      <c r="L18">
-        <v>0.01628265124311256</v>
-      </c>
-      <c r="M18">
-        <v>-0.01628265124311256</v>
-      </c>
-      <c r="N18">
-        <v>0.02442397686466884</v>
-      </c>
-      <c r="O18">
-        <v>-0.02442397686466884</v>
-      </c>
-      <c r="P18">
-        <v>1.104074702106627E-07</v>
-      </c>
-      <c r="Q18">
-        <v>0.9999998895925298</v>
-      </c>
-      <c r="R18" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s">
-        <v>90</v>
-      </c>
-      <c r="U18" t="s">
-        <v>93</v>
-      </c>
-      <c r="V18">
-        <v>-14.65000000000009</v>
-      </c>
-      <c r="W18" t="s">
-        <v>94</v>
-      </c>
-      <c r="X18">
-        <v>17.43808003331931</v>
-      </c>
-      <c r="Y18">
-        <v>34.87616006663861</v>
-      </c>
-      <c r="Z18">
-        <v>-17.43808003331931</v>
-      </c>
-      <c r="AA18">
-        <v>-34.87616006663861</v>
-      </c>
-      <c r="AB18">
-        <v>0.4664179104477612</v>
-      </c>
-      <c r="AC18">
-        <v>0.53</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1888.3</v>
-      </c>
-      <c r="AF18">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG18">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH18">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI18">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ18">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK18">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>45</v>
       </c>
       <c r="AL18">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM18">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN18">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO18">
-        <v>0.0867</v>
-      </c>
-      <c r="AP18">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ18">
-        <v>0.03322</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS18">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT18">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU18">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV18">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>1888.3</v>
@@ -3314,144 +2786,123 @@
         <v>1903.3775</v>
       </c>
       <c r="D19">
-        <v>15.0775000000001</v>
+        <v>-0.007952986228862197</v>
       </c>
       <c r="E19">
-        <v>0.007984695228512471</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>-0.005988724333691413</v>
       </c>
       <c r="G19">
-        <v>-0.007952986228862197</v>
+        <v>0.008419721299890034</v>
       </c>
       <c r="H19">
+        <v>-0.008419721299890034</v>
+      </c>
+      <c r="I19">
+        <v>0.01683944259978007</v>
+      </c>
+      <c r="J19">
+        <v>-0.01683944259978007</v>
+      </c>
+      <c r="K19">
+        <v>0.0252591638996701</v>
+      </c>
+      <c r="L19">
+        <v>-0.0252591638996701</v>
+      </c>
+      <c r="M19">
+        <v>1.513940488125214E-19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19">
+        <v>-15.0775000000001</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19">
+        <v>17.9043676794456</v>
+      </c>
+      <c r="R19">
+        <v>35.8087353588912</v>
+      </c>
+      <c r="S19">
+        <v>-17.9043676794456</v>
+      </c>
+      <c r="T19">
+        <v>-35.8087353588912</v>
+      </c>
+      <c r="U19">
+        <v>0.4672727272727273</v>
+      </c>
+      <c r="V19">
+        <v>0.53</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1888.3</v>
+      </c>
+      <c r="Y19">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z19">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA19">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB19">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC19">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD19">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE19">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF19">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I19">
-        <v>-0.005977023983116884</v>
-      </c>
-      <c r="J19">
-        <v>0.008506337178801513</v>
-      </c>
-      <c r="K19">
-        <v>-0.008506337178801513</v>
-      </c>
-      <c r="L19">
-        <v>0.01701267435760303</v>
-      </c>
-      <c r="M19">
-        <v>-0.01701267435760303</v>
-      </c>
-      <c r="N19">
-        <v>0.02551901153640454</v>
-      </c>
-      <c r="O19">
-        <v>-0.02551901153640454</v>
-      </c>
-      <c r="P19">
-        <v>3.17043214914068E-07</v>
-      </c>
-      <c r="Q19">
-        <v>0.9999996829567851</v>
-      </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V19">
-        <v>-15.0775000000001</v>
-      </c>
-      <c r="W19" t="s">
-        <v>94</v>
-      </c>
-      <c r="X19">
-        <v>18.10071662251146</v>
-      </c>
-      <c r="Y19">
-        <v>36.20143324502292</v>
-      </c>
-      <c r="Z19">
-        <v>-18.10071662251146</v>
-      </c>
-      <c r="AA19">
-        <v>-36.20143324502292</v>
-      </c>
-      <c r="AB19">
-        <v>0.4635514018691589</v>
-      </c>
-      <c r="AC19">
-        <v>0.54</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>1888.3</v>
-      </c>
-      <c r="AF19">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG19">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH19">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI19">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ19">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK19">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>45</v>
       </c>
       <c r="AL19">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM19">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN19">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO19">
-        <v>0.0867</v>
-      </c>
-      <c r="AP19">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ19">
-        <v>0.03322</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS19">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT19">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU19">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV19">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>1888.3</v>
@@ -3460,144 +2911,123 @@
         <v>1904.167647058824</v>
       </c>
       <c r="D20">
-        <v>15.86764705882365</v>
+        <v>-0.008368029013464</v>
       </c>
       <c r="E20">
-        <v>0.00840313883324877</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>-0.006402554586487212</v>
       </c>
       <c r="G20">
-        <v>-0.008368029013464</v>
+        <v>0.008762054714725669</v>
       </c>
       <c r="H20">
+        <v>-0.008762054714725669</v>
+      </c>
+      <c r="I20">
+        <v>0.01752410942945134</v>
+      </c>
+      <c r="J20">
+        <v>-0.01752410942945134</v>
+      </c>
+      <c r="K20">
+        <v>0.02628616414417701</v>
+      </c>
+      <c r="L20">
+        <v>-0.02628616414417701</v>
+      </c>
+      <c r="M20">
+        <v>1.513940488125214E-19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20">
+        <v>-15.86764705882365</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20">
+        <v>18.51458461167768</v>
+      </c>
+      <c r="R20">
+        <v>37.02916922335536</v>
+      </c>
+      <c r="S20">
+        <v>-18.51458461167768</v>
+      </c>
+      <c r="T20">
+        <v>-37.02916922335536</v>
+      </c>
+      <c r="U20">
+        <v>0.4581818181818182</v>
+      </c>
+      <c r="V20">
+        <v>0.54</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1888.3</v>
+      </c>
+      <c r="Y20">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z20">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA20">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB20">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC20">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD20">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE20">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF20">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I20">
-        <v>-0.006402527537490964</v>
-      </c>
-      <c r="J20">
-        <v>0.008865358612080541</v>
-      </c>
-      <c r="K20">
-        <v>-0.008865358612080541</v>
-      </c>
-      <c r="L20">
-        <v>0.01773071722416108</v>
-      </c>
-      <c r="M20">
-        <v>-0.01773071722416108</v>
-      </c>
-      <c r="N20">
-        <v>0.02659607583624162</v>
-      </c>
-      <c r="O20">
-        <v>-0.02659607583624162</v>
-      </c>
-      <c r="P20">
-        <v>5.747287829725449E-07</v>
-      </c>
-      <c r="Q20">
-        <v>0.999999425271217</v>
-      </c>
-      <c r="R20" t="s">
-        <v>67</v>
-      </c>
-      <c r="S20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" t="s">
-        <v>90</v>
-      </c>
-      <c r="U20" t="s">
-        <v>93</v>
-      </c>
-      <c r="V20">
-        <v>-15.86764705882365</v>
-      </c>
-      <c r="W20" t="s">
-        <v>94</v>
-      </c>
-      <c r="X20">
-        <v>18.73832193628302</v>
-      </c>
-      <c r="Y20">
-        <v>37.47664387256604</v>
-      </c>
-      <c r="Z20">
-        <v>-18.73832193628302</v>
-      </c>
-      <c r="AA20">
-        <v>-37.47664387256604</v>
-      </c>
-      <c r="AB20">
-        <v>0.4531835205992509</v>
-      </c>
-      <c r="AC20">
-        <v>0.55</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1888.3</v>
-      </c>
-      <c r="AF20">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG20">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH20">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI20">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ20">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK20">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>45</v>
       </c>
       <c r="AL20">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM20">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN20">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO20">
-        <v>0.0867</v>
-      </c>
-      <c r="AP20">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ20">
-        <v>0.03322</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS20">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT20">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU20">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV20">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>1888.3</v>
@@ -3606,144 +3036,123 @@
         <v>1903.383888888889</v>
       </c>
       <c r="D21">
-        <v>15.08388888888862</v>
+        <v>-0.007956342829518669</v>
       </c>
       <c r="E21">
-        <v>0.007988078636280583</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>-0.005999581493776125</v>
       </c>
       <c r="G21">
-        <v>-0.007956342829518669</v>
+        <v>0.009088788407404194</v>
       </c>
       <c r="H21">
+        <v>-0.009088788407404194</v>
+      </c>
+      <c r="I21">
+        <v>0.01817757681480839</v>
+      </c>
+      <c r="J21">
+        <v>-0.01817757681480839</v>
+      </c>
+      <c r="K21">
+        <v>0.02726636522221258</v>
+      </c>
+      <c r="L21">
+        <v>-0.02726636522221258</v>
+      </c>
+      <c r="M21">
+        <v>2.523234146875356E-20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21">
+        <v>-15.08388888888862</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <v>19.09787896108817</v>
+      </c>
+      <c r="R21">
+        <v>38.19575792217634</v>
+      </c>
+      <c r="S21">
+        <v>-19.09787896108817</v>
+      </c>
+      <c r="T21">
+        <v>-38.19575792217634</v>
+      </c>
+      <c r="U21">
+        <v>0.46</v>
+      </c>
+      <c r="V21">
+        <v>0.54</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1888.3</v>
+      </c>
+      <c r="Y21">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z21">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA21">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB21">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC21">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD21">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE21">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF21">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I21">
-        <v>-0.005978167104539652</v>
-      </c>
-      <c r="J21">
-        <v>0.009203609784201686</v>
-      </c>
-      <c r="K21">
-        <v>-0.009203609784201686</v>
-      </c>
-      <c r="L21">
-        <v>0.01840721956840337</v>
-      </c>
-      <c r="M21">
-        <v>-0.01840721956840337</v>
-      </c>
-      <c r="N21">
-        <v>0.02761082935260506</v>
-      </c>
-      <c r="O21">
-        <v>-0.02761082935260506</v>
-      </c>
-      <c r="P21">
-        <v>8.223132518027316E-07</v>
-      </c>
-      <c r="Q21">
-        <v>0.9999991776867482</v>
-      </c>
-      <c r="R21" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" t="s">
-        <v>93</v>
-      </c>
-      <c r="V21">
-        <v>-15.08388888888862</v>
-      </c>
-      <c r="W21" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21">
-        <v>19.34982951535808</v>
-      </c>
-      <c r="Y21">
-        <v>38.69965903071616</v>
-      </c>
-      <c r="Z21">
-        <v>-19.34982951535808</v>
-      </c>
-      <c r="AA21">
-        <v>-38.69965903071616</v>
-      </c>
-      <c r="AB21">
-        <v>0.4540337711069418</v>
-      </c>
-      <c r="AC21">
-        <v>0.55</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1888.3</v>
-      </c>
-      <c r="AF21">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG21">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH21">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI21">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ21">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK21">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>45</v>
       </c>
       <c r="AL21">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM21">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN21">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO21">
-        <v>0.0867</v>
-      </c>
-      <c r="AP21">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ21">
-        <v>0.03322</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS21">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT21">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU21">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV21">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>1888.3</v>
@@ -3752,144 +3161,123 @@
         <v>1902.48947368421</v>
       </c>
       <c r="D22">
-        <v>14.18947368421027</v>
+        <v>-0.007486324446910357</v>
       </c>
       <c r="E22">
-        <v>0.007514417033421739</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>-0.00554191736380714</v>
       </c>
       <c r="G22">
-        <v>-0.007486324446910357</v>
+        <v>0.009402512631513401</v>
       </c>
       <c r="H22">
+        <v>-0.009402512631513401</v>
+      </c>
+      <c r="I22">
+        <v>0.0188050252630268</v>
+      </c>
+      <c r="J22">
+        <v>-0.0188050252630268</v>
+      </c>
+      <c r="K22">
+        <v>0.0282075378945402</v>
+      </c>
+      <c r="L22">
+        <v>-0.0282075378945402</v>
+      </c>
+      <c r="M22">
+        <v>2.018587317500285E-19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22">
+        <v>-14.18947368421027</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <v>19.66336233122966</v>
+      </c>
+      <c r="R22">
+        <v>39.32672466245933</v>
+      </c>
+      <c r="S22">
+        <v>-19.66336233122966</v>
+      </c>
+      <c r="T22">
+        <v>-39.32672466245933</v>
+      </c>
+      <c r="U22">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="V22">
+        <v>0.55</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1888.3</v>
+      </c>
+      <c r="Y22">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z22">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA22">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB22">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC22">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD22">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE22">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF22">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I22">
-        <v>-0.005502769491467783</v>
-      </c>
-      <c r="J22">
-        <v>0.009537797704597865</v>
-      </c>
-      <c r="K22">
-        <v>-0.009537797704597865</v>
-      </c>
-      <c r="L22">
-        <v>0.01907559540919573</v>
-      </c>
-      <c r="M22">
-        <v>-0.01907559540919573</v>
-      </c>
-      <c r="N22">
-        <v>0.02861339311379359</v>
-      </c>
-      <c r="O22">
-        <v>-0.02861339311379359</v>
-      </c>
-      <c r="P22">
-        <v>1.009201466510926E-06</v>
-      </c>
-      <c r="Q22">
-        <v>0.9999989907985335</v>
-      </c>
-      <c r="R22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" t="s">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s">
-        <v>91</v>
-      </c>
-      <c r="U22" t="s">
-        <v>93</v>
-      </c>
-      <c r="V22">
-        <v>-14.18947368421027</v>
-      </c>
-      <c r="W22" t="s">
-        <v>94</v>
-      </c>
-      <c r="X22">
-        <v>19.94298193978085</v>
-      </c>
-      <c r="Y22">
-        <v>39.88596387956169</v>
-      </c>
-      <c r="Z22">
-        <v>-19.94298193978085</v>
-      </c>
-      <c r="AA22">
-        <v>-39.88596387956169</v>
-      </c>
-      <c r="AB22">
-        <v>0.4492481203007519</v>
-      </c>
-      <c r="AC22">
-        <v>0.55</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1888.3</v>
-      </c>
-      <c r="AF22">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG22">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH22">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI22">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ22">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK22">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>45</v>
       </c>
       <c r="AL22">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM22">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN22">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO22">
-        <v>0.0867</v>
-      </c>
-      <c r="AP22">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ22">
-        <v>0.03322</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS22">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT22">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU22">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV22">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1888.3</v>
@@ -3898,138 +3286,117 @@
         <v>1901.542</v>
       </c>
       <c r="D23">
-        <v>13.24199999999996</v>
+        <v>-0.006988182562250626</v>
       </c>
       <c r="E23">
-        <v>0.007012656887147149</v>
+        <v>-0.002126636115274483</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>-0.005054429385604844</v>
       </c>
       <c r="G23">
-        <v>-0.006988182562250626</v>
+        <v>0.009706276940824996</v>
       </c>
       <c r="H23">
+        <v>-0.009706276940824996</v>
+      </c>
+      <c r="I23">
+        <v>0.01941255388164999</v>
+      </c>
+      <c r="J23">
+        <v>-0.01941255388164999</v>
+      </c>
+      <c r="K23">
+        <v>0.02911883082247499</v>
+      </c>
+      <c r="L23">
+        <v>-0.02911883082247499</v>
+      </c>
+      <c r="M23">
+        <v>5.046468293750712E-20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23">
+        <v>-13.24199999999996</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <v>20.20836907362681</v>
+      </c>
+      <c r="R23">
+        <v>40.41673814725362</v>
+      </c>
+      <c r="S23">
+        <v>-20.20836907362681</v>
+      </c>
+      <c r="T23">
+        <v>-40.41673814725362</v>
+      </c>
+      <c r="U23">
+        <v>0.46</v>
+      </c>
+      <c r="V23">
+        <v>0.54</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1888.3</v>
+      </c>
+      <c r="Y23">
+        <v>-0.002124376426819952</v>
+      </c>
+      <c r="Z23">
+        <v>0.002656330001926455</v>
+      </c>
+      <c r="AA23">
+        <v>0.001328165000963227</v>
+      </c>
+      <c r="AB23">
+        <v>0.0006640825004816137</v>
+      </c>
+      <c r="AC23">
+        <v>0.0001106804167469356</v>
+      </c>
+      <c r="AD23">
+        <v>0.004186551572782452</v>
+      </c>
+      <c r="AE23">
+        <v>0.06645944587517218</v>
+      </c>
+      <c r="AF23">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="I23">
-        <v>-0.005019648138259759</v>
-      </c>
-      <c r="J23">
-        <v>0.009849930999729171</v>
-      </c>
-      <c r="K23">
-        <v>-0.009849930999729171</v>
-      </c>
-      <c r="L23">
-        <v>0.01969986199945834</v>
-      </c>
-      <c r="M23">
-        <v>-0.01969986199945834</v>
-      </c>
-      <c r="N23">
-        <v>0.02954979299918751</v>
-      </c>
-      <c r="O23">
-        <v>-0.02954979299918751</v>
-      </c>
-      <c r="P23">
-        <v>1.45097086337452E-07</v>
-      </c>
-      <c r="Q23">
-        <v>0.9999998549029137</v>
-      </c>
-      <c r="R23" t="s">
-        <v>70</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" t="s">
-        <v>93</v>
-      </c>
-      <c r="V23">
-        <v>-13.24199999999996</v>
-      </c>
-      <c r="W23" t="s">
-        <v>94</v>
-      </c>
-      <c r="X23">
-        <v>20.51148052439078</v>
-      </c>
-      <c r="Y23">
-        <v>41.02296104878157</v>
-      </c>
-      <c r="Z23">
-        <v>-20.51148052439078</v>
-      </c>
-      <c r="AA23">
-        <v>-41.02296104878157</v>
-      </c>
-      <c r="AB23">
-        <v>0.4538606403013183</v>
-      </c>
-      <c r="AC23">
-        <v>0.55</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>1888.3</v>
-      </c>
-      <c r="AF23">
-        <v>-0.002124376426819952</v>
-      </c>
       <c r="AG23">
-        <v>0.002656330001926455</v>
+        <v>0.0674</v>
       </c>
       <c r="AH23">
-        <v>0.001328165000963227</v>
+        <v>0.0867</v>
       </c>
       <c r="AI23">
-        <v>0.0006640825004816137</v>
+        <v>0.058531190926276</v>
       </c>
       <c r="AJ23">
-        <v>0.0001106804167469356</v>
-      </c>
-      <c r="AK23">
-        <v>0.004186551572782452</v>
+        <v>0.03322</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>45</v>
       </c>
       <c r="AL23">
-        <v>0.06645944587517218</v>
+        <v>-37.23794450162315</v>
       </c>
       <c r="AM23">
-        <v>-0.002126636115274483</v>
+        <v>42.18387044362299</v>
       </c>
       <c r="AN23">
-        <v>0.0674</v>
+        <v>-44.29626223424996</v>
       </c>
       <c r="AO23">
-        <v>0.0867</v>
-      </c>
-      <c r="AP23">
-        <v>0.058531190926276</v>
-      </c>
-      <c r="AQ23">
-        <v>0.03322</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS23">
-        <v>-37.23794450162315</v>
-      </c>
-      <c r="AT23">
-        <v>42.18387044362299</v>
-      </c>
-      <c r="AU23">
-        <v>-44.29626223424996</v>
-      </c>
-      <c r="AV23">
         <v>-41.3096818205796</v>
       </c>
     </row>
@@ -4048,13 +3415,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>Close</t>
   </si>
   <si>
-    <t>MM</t>
+    <t>MédiaMóvel</t>
   </si>
   <si>
     <t>mm%</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
   <si>
     <t>pct</t>
@@ -137,10 +140,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
+    <t>BTCUSDT</t>
   </si>
   <si>
     <t>Yes</t>
@@ -149,7 +152,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>down</t>
+    <t>up</t>
   </si>
   <si>
     <t>Neutra</t>
@@ -519,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>23</v>
@@ -649,10 +652,13 @@
       <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>29755.01</v>
@@ -664,120 +670,123 @@
         <v>-0.006597777838080354</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.005746616989955773</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.004446058271031001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.004446058271031001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.008892116542062001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.008892116542062001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.013338174813093</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.013338174813093</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-8.831319514063746E-20</v>
       </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2">
-        <v>-196.966000000004</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2">
-        <v>158.9332178818028</v>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2">
+        <v>29745.01</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
       </c>
       <c r="R2">
-        <v>317.8664357636056</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S2">
-        <v>-158.9332178818028</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T2">
-        <v>-317.8664357636056</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U2">
-        <v>0.4890909090909091</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V2">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>-1</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>29755.01</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.0581</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0.02452</v>
       </c>
-      <c r="AK2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2">
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>29755.01</v>
@@ -789,120 +798,123 @@
         <v>-0.006967950482640687</v>
       </c>
       <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.006111666467101459</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.00470514435045799</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.00470514435045799</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.009410288700915981</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.009410288700915981</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.01411543305137397</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.01411543305137397</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6.308085367188389E-21</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3">
-        <v>-208.0554545454579</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3">
-        <v>165.9055522653187</v>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3">
+        <v>29744.01</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
       </c>
       <c r="R3">
-        <v>331.8111045306374</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S3">
-        <v>-165.9055522653187</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T3">
-        <v>-331.8111045306374</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U3">
-        <v>0.5</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>-1</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>29755.01</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0581</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.02452</v>
       </c>
-      <c r="AK3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3">
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>29755.01</v>
@@ -914,120 +926,123 @@
         <v>-0.007404321908285862</v>
       </c>
       <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.006538309772551583</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.004951466000435897</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.004951466000435897</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.009902932000871794</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.009902932000871794</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.01485439800130769</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-0.01485439800130769</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4">
-        <v>-221.1333333333387</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>172.6365391377055</v>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>29743.01</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
       </c>
       <c r="R4">
-        <v>345.273078275411</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S4">
-        <v>-172.6365391377055</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T4">
-        <v>-345.273078275411</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U4">
-        <v>0.5</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>-1</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>29755.01</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.0581</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.02452</v>
       </c>
-      <c r="AK4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL4">
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>29755.01</v>
@@ -1039,120 +1054,123 @@
         <v>-0.008019228789888208</v>
       </c>
       <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.00714710004413042</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.005188052921708081</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.005188052921708081</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.01037610584341616</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.01037610584341616</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.01556415876512424</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-0.01556415876512424</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-7.569702440626068E-20</v>
       </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5">
-        <v>-239.5715384615396</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5">
-        <v>179.1425168942749</v>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>29742.01</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
       </c>
       <c r="R5">
-        <v>358.2850337885499</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S5">
-        <v>-179.1425168942749</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T5">
-        <v>-358.2850337885499</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U5">
-        <v>0.4963636363636363</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>-1</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>29755.01</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.0581</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.02452</v>
       </c>
-      <c r="AK5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL5">
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>29755.01</v>
@@ -1164,120 +1182,123 @@
         <v>-0.008432143031556944</v>
       </c>
       <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.007555537548012661</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.005415405150214982</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.005415405150214982</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.01083081030042996</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.01083081030042996</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.01624621545064495</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-0.01624621545064495</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-1.13545536609391E-19</v>
       </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6">
-        <v>-251.9592857142889</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6">
-        <v>185.4721029008786</v>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6">
+        <v>29741.01</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
       </c>
       <c r="R6">
-        <v>370.9442058017572</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S6">
-        <v>-185.4721029008786</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T6">
-        <v>-370.9442058017572</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U6">
-        <v>0.4909090909090909</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V6">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>-1</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>29755.01</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.0581</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.02452</v>
       </c>
-      <c r="AK6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL6">
+      <c r="AL6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM6">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>29755.01</v>
@@ -1289,120 +1310,123 @@
         <v>-0.008723212403807289</v>
       </c>
       <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.007828369232892459</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.005632215732713992</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.005632215732713992</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.01126443146542798</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.01126443146542798</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.01689664719814198</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-0.01689664719814198</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3.784851220313034E-20</v>
       </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7">
-        <v>-260.6946666666699</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7">
-        <v>191.4950953938527</v>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>29740.01</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
       </c>
       <c r="R7">
-        <v>382.9901907877054</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S7">
-        <v>-191.4950953938527</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T7">
-        <v>-382.9901907877054</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U7">
-        <v>0.4890909090909091</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V7">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>-1</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>29755.01</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0.0581</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>0.02452</v>
       </c>
-      <c r="AK7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL7">
+      <c r="AL7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM7">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>29755.01</v>
@@ -1414,120 +1438,123 @@
         <v>-0.008912752153101887</v>
       </c>
       <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.008005540362513597</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.005839784275679504</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.005839784275679504</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01167956855135901</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.01167956855135901</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.01751935282703851</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-0.01751935282703851</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-5.046468293750712E-20</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8">
-        <v>-266.3843750000015</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8">
-        <v>197.270993578412</v>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8">
+        <v>29739.01</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
       </c>
       <c r="R8">
-        <v>394.5419871568241</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S8">
-        <v>-197.270993578412</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T8">
-        <v>-394.5419871568241</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U8">
-        <v>0.4763636363636364</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V8">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>-1</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>29755.01</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.0581</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>0.02452</v>
       </c>
-      <c r="AK8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL8">
+      <c r="AL8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM8">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>29755.01</v>
@@ -1539,120 +1566,123 @@
         <v>-0.009346066087834949</v>
       </c>
       <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.008430275750568667</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.006037401984903471</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.006037401984903471</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.01207480396980694</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.01207480396980694</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.01811220595471041</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-0.01811220595471041</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.523234146875356E-20</v>
       </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9">
-        <v>-279.3958823529429</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9">
-        <v>202.6388438129781</v>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9">
+        <v>29738.01</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
       </c>
       <c r="R9">
-        <v>405.2776876259561</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S9">
-        <v>-202.6388438129781</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T9">
-        <v>-405.2776876259561</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U9">
-        <v>0.48</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V9">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>-1</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>29755.01</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.0581</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>0.02452</v>
       </c>
-      <c r="AK9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL9">
+      <c r="AL9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM9">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>29755.01</v>
@@ -1664,120 +1694,123 @@
         <v>-0.009145875836730075</v>
       </c>
       <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.008228628525141612</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.0062219484962793</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.0062219484962793</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.0124438969925586</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.0124438969925586</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.0186658454888379</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.0186658454888379</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-1.261617073437678E-20</v>
       </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10">
-        <v>-273.3838888888895</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10">
-        <v>207.7425153685234</v>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10">
+        <v>29737.01</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
       </c>
       <c r="R10">
-        <v>415.4850307370468</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S10">
-        <v>-207.7425153685234</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T10">
-        <v>-415.4850307370468</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U10">
-        <v>0.4781818181818182</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V10">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>-1</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>29755.01</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.0581</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.02452</v>
       </c>
-      <c r="AK10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL10">
+      <c r="AL10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM10">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>29755.01</v>
@@ -1789,120 +1822,123 @@
         <v>-0.008893444463845027</v>
       </c>
       <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.007973193841207126</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.006398819451197868</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.006398819451197868</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.01279763890239574</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.01279763890239574</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.01919645835359361</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.01919645835359361</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.523234146875356E-20</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11">
-        <v>-265.8047368421066</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11">
-        <v>212.6928608983931</v>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>29736.01</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
       </c>
       <c r="R11">
-        <v>425.3857217967861</v>
+        <v>313.3223584947052</v>
       </c>
       <c r="S11">
-        <v>-212.6928608983931</v>
+        <v>626.6447169894103</v>
       </c>
       <c r="T11">
-        <v>-425.3857217967861</v>
+        <v>-313.3223584947052</v>
       </c>
       <c r="U11">
-        <v>0.4745454545454545</v>
+        <v>-626.6447169894103</v>
       </c>
       <c r="V11">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>-1</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>29755.01</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-0.0009733413913510791</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-0.02235660745125714</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-0.01117830372562857</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-0.005589151862814284</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-0.0009315253104690474</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.003481860243590097</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>0.05527281782653305</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.0581</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>0.07266000000000002</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.04944574669187146</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>0.02452</v>
       </c>
-      <c r="AK11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL11">
+      <c r="AL11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM11">
         <v>-44.96570266728572</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-44.96068525035394</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-44.94235728868716</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>-44.89607573064728</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>29755.01</v>
@@ -1914,120 +1950,123 @@
         <v>-0.008529589454188663</v>
       </c>
       <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
         <v>-0.0009738153956867921</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.007603454756692185</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.006569131439713888</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.006569131439713888</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01313826287942778</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.01313826287942778</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.01970739431914166</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-0.01970739431914166</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-1.009293658750142E-19</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12">
+        <v>29735.01</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12">
+        <v>313.3223584947052</v>
+      </c>
+      <c r="S12">
+        <v>626.6447169894103</v>
+      </c>
+      <c r="T12">
+        <v>-313.3223584947052</v>
+      </c>
+      <c r="U12">
+        <v>-626.6447169894103</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>29755.01</v>
+      </c>
+      <c r="Z12">
+        <v>-0.0009733413913510791</v>
+      </c>
+      <c r="AA12">
+        <v>-0.02235660745125714</v>
+      </c>
+      <c r="AB12">
+        <v>-0.01117830372562857</v>
+      </c>
+      <c r="AC12">
+        <v>-0.005589151862814284</v>
+      </c>
+      <c r="AD12">
+        <v>-0.0009315253104690474</v>
+      </c>
+      <c r="AE12">
+        <v>0.003481860243590097</v>
+      </c>
+      <c r="AF12">
+        <v>0.05527281782653305</v>
+      </c>
+      <c r="AG12">
+        <v>-0.0009738153956867921</v>
+      </c>
+      <c r="AH12">
+        <v>0.0581</v>
+      </c>
+      <c r="AI12">
+        <v>0.07266000000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>0.04944574669187146</v>
+      </c>
+      <c r="AK12">
+        <v>0.02452</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM12">
+        <v>-44.96570266728572</v>
+      </c>
+      <c r="AN12">
+        <v>-44.96068525035394</v>
+      </c>
+      <c r="AO12">
+        <v>-44.94235728868716</v>
+      </c>
+      <c r="AP12">
+        <v>-44.89607573064728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="O12">
-        <v>-254.8834999999999</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12">
-        <v>217.4340850226504</v>
-      </c>
-      <c r="R12">
-        <v>434.8681700453007</v>
-      </c>
-      <c r="S12">
-        <v>-217.4340850226504</v>
-      </c>
-      <c r="T12">
-        <v>-434.8681700453007</v>
-      </c>
-      <c r="U12">
-        <v>0.4690909090909091</v>
-      </c>
-      <c r="V12">
-        <v>0.53</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>29755.01</v>
-      </c>
-      <c r="Y12">
-        <v>-0.0009733413913510791</v>
-      </c>
-      <c r="Z12">
-        <v>-0.02235660745125714</v>
-      </c>
-      <c r="AA12">
-        <v>-0.01117830372562857</v>
-      </c>
-      <c r="AB12">
-        <v>-0.005589151862814284</v>
-      </c>
-      <c r="AC12">
-        <v>-0.0009315253104690474</v>
-      </c>
-      <c r="AD12">
-        <v>0.003481860243590097</v>
-      </c>
-      <c r="AE12">
-        <v>0.05527281782653305</v>
-      </c>
-      <c r="AF12">
-        <v>-0.0009738153956867921</v>
-      </c>
-      <c r="AG12">
-        <v>0.0581</v>
-      </c>
-      <c r="AH12">
-        <v>0.07266000000000002</v>
-      </c>
-      <c r="AI12">
-        <v>0.04944574669187146</v>
-      </c>
-      <c r="AJ12">
-        <v>0.02452</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL12">
-        <v>-44.96570266728572</v>
-      </c>
-      <c r="AM12">
-        <v>-44.96068525035394</v>
-      </c>
-      <c r="AN12">
-        <v>-44.94235728868716</v>
-      </c>
-      <c r="AO12">
-        <v>-44.89607573064728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B13">
         <v>1888.3</v>
@@ -2039,120 +2078,123 @@
         <v>-0.0056336273085775</v>
       </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.003716390218468008</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.006077808752897178</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.006077808752897178</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.01215561750579436</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.01215561750579436</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.01823342625869153</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-0.01823342625869153</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-4.415659757031873E-20</v>
       </c>
-      <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13">
-        <v>-10.66800000000012</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13">
-        <v>13.72161334439655</v>
+      <c r="P13">
+        <v>1878.3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
       </c>
       <c r="R13">
-        <v>27.4432266887931</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S13">
-        <v>-13.72161334439655</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T13">
-        <v>-27.4432266887931</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U13">
-        <v>0.4945454545454546</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V13">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>1888.3</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0.0674</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>0.0867</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.03322</v>
       </c>
-      <c r="AK13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL13">
+      <c r="AL13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM13">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1888.3</v>
@@ -2164,120 +2206,123 @@
         <v>-0.006108030871787502</v>
       </c>
       <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.00417250998816429</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.006503912555652121</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.006503912555652121</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.01300782511130424</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.01300782511130424</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.01951173766695636</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.01951173766695636</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.462128050782584E-20</v>
       </c>
-      <c r="N14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14">
-        <v>-11.56909090909107</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" t="s">
         <v>44</v>
       </c>
-      <c r="Q14">
-        <v>14.49125185287301</v>
+      <c r="P14">
+        <v>1877.3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
       </c>
       <c r="R14">
-        <v>28.98250370574603</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S14">
-        <v>-14.49125185287301</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T14">
-        <v>-28.98250370574603</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U14">
-        <v>0.4890909090909091</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V14">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>1888.3</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.0674</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>0.0867</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.03322</v>
       </c>
-      <c r="AK14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL14">
+      <c r="AL14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM14">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>1888.3</v>
@@ -2289,120 +2334,123 @@
         <v>-0.006438302115827329</v>
       </c>
       <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.004498325939459914</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.006922365844029058</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.006922365844029058</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.01384473168805812</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.01384473168805812</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.02076709753208717</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-0.02076709753208717</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1.261617073437678E-19</v>
       </c>
-      <c r="N15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15">
-        <v>-12.19666666666694</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="Q15">
-        <v>15.22594343095806</v>
+      <c r="P15">
+        <v>1876.3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>45</v>
       </c>
       <c r="R15">
-        <v>30.45188686191612</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S15">
-        <v>-15.22594343095806</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T15">
-        <v>-30.45188686191612</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U15">
-        <v>0.4836363636363636</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V15">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>1888.3</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.0674</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.0867</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.03322</v>
       </c>
-      <c r="AK15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL15">
+      <c r="AL15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM15">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>1888.3</v>
@@ -2414,120 +2462,123 @@
         <v>-0.007036886787165828</v>
       </c>
       <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.005098584182956019</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.007320991420922612</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.007320991420922612</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01464198284184522</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.01464198284184522</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.02196297426276783</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-0.02196297426276783</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.046468293750712E-20</v>
       </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16">
-        <v>-13.33461538461552</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O16" t="s">
         <v>44</v>
       </c>
-      <c r="Q16">
-        <v>15.92795465105183</v>
+      <c r="P16">
+        <v>1875.3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>45</v>
       </c>
       <c r="R16">
-        <v>31.85590930210365</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S16">
-        <v>-15.92795465105183</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T16">
-        <v>-31.85590930210365</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U16">
-        <v>0.4727272727272727</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V16">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>1888.3</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.0674</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.0867</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.03322</v>
       </c>
-      <c r="AK16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL16">
+      <c r="AL16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM16">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>1888.3</v>
@@ -2539,120 +2590,123 @@
         <v>-0.007418642729006251</v>
       </c>
       <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.005481365333635742</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.007700269278303635</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.007700269278303635</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.01540053855660727</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.01540053855660727</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.02310080783491091</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-0.02310080783491091</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.009293658750142E-19</v>
       </c>
-      <c r="N17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17">
-        <v>-14.06071428571454</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="O17" t="s">
         <v>44</v>
       </c>
-      <c r="Q17">
-        <v>16.60467977501336</v>
+      <c r="P17">
+        <v>1874.3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>45</v>
       </c>
       <c r="R17">
-        <v>33.20935955002671</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S17">
-        <v>-16.60467977501336</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T17">
-        <v>-33.20935955002671</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U17">
-        <v>0.48</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V17">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>1888.3</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.0674</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.0867</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.03322</v>
       </c>
-      <c r="AK17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL17">
+      <c r="AL17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM17">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1888.3</v>
@@ -2664,120 +2718,123 @@
         <v>-0.007728360259710818</v>
       </c>
       <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.005771638140917659</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.008064261542342851</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.008064261542342851</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0161285230846857</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.0161285230846857</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.02419278462702855</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.02419278462702855</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.009293658750142E-19</v>
       </c>
-      <c r="N18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18">
-        <v>-14.65000000000009</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18" t="s">
         <v>44</v>
       </c>
-      <c r="Q18">
-        <v>17.26653402452382</v>
+      <c r="P18">
+        <v>1873.3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>45</v>
       </c>
       <c r="R18">
-        <v>34.53306804904764</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S18">
-        <v>-17.26653402452382</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T18">
-        <v>-34.53306804904764</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U18">
-        <v>0.4690909090909091</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V18">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>1888.3</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.0674</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.0867</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.03322</v>
       </c>
-      <c r="AK18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL18">
+      <c r="AL18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM18">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1888.3</v>
@@ -2789,120 +2846,123 @@
         <v>-0.007952986228862197</v>
       </c>
       <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.005988724333691413</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.008419721299890034</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.008419721299890034</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.01683944259978007</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.01683944259978007</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.0252591638996701</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-0.0252591638996701</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.513940488125214E-19</v>
       </c>
-      <c r="N19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19">
-        <v>-15.0775000000001</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="Q19">
-        <v>17.9043676794456</v>
+      <c r="P19">
+        <v>1872.3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>45</v>
       </c>
       <c r="R19">
-        <v>35.8087353588912</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S19">
-        <v>-17.9043676794456</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T19">
-        <v>-35.8087353588912</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U19">
-        <v>0.4672727272727273</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V19">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>1888.3</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.0674</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.0867</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.03322</v>
       </c>
-      <c r="AK19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL19">
+      <c r="AL19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM19">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>1888.3</v>
@@ -2914,120 +2974,123 @@
         <v>-0.008368029013464</v>
       </c>
       <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.006402554586487212</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.008762054714725669</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.008762054714725669</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.01752410942945134</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.01752410942945134</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.02628616414417701</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.02628616414417701</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.513940488125214E-19</v>
       </c>
-      <c r="N20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20">
-        <v>-15.86764705882365</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O20" t="s">
         <v>44</v>
       </c>
-      <c r="Q20">
-        <v>18.51458461167768</v>
+      <c r="P20">
+        <v>1871.3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
       </c>
       <c r="R20">
-        <v>37.02916922335536</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S20">
-        <v>-18.51458461167768</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T20">
-        <v>-37.02916922335536</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U20">
-        <v>0.4581818181818182</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V20">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>1888.3</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.0674</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.0867</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.03322</v>
       </c>
-      <c r="AK20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL20">
+      <c r="AL20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM20">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>1888.3</v>
@@ -3039,120 +3102,123 @@
         <v>-0.007956342829518669</v>
       </c>
       <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.005999581493776125</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.009088788407404194</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.009088788407404194</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.01817757681480839</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.01817757681480839</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.02726636522221258</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.02726636522221258</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2.523234146875356E-20</v>
       </c>
-      <c r="N21" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21">
-        <v>-15.08388888888862</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" t="s">
         <v>44</v>
       </c>
-      <c r="Q21">
-        <v>19.09787896108817</v>
+      <c r="P21">
+        <v>1870.3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
       </c>
       <c r="R21">
-        <v>38.19575792217634</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S21">
-        <v>-19.09787896108817</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T21">
-        <v>-38.19575792217634</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U21">
-        <v>0.46</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V21">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>1888.3</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.0674</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.0867</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.03322</v>
       </c>
-      <c r="AK21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL21">
+      <c r="AL21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM21">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>1888.3</v>
@@ -3164,120 +3230,123 @@
         <v>-0.007486324446910357</v>
       </c>
       <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.00554191736380714</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.009402512631513401</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.009402512631513401</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0188050252630268</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-0.0188050252630268</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0282075378945402</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-0.0282075378945402</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.018587317500285E-19</v>
       </c>
-      <c r="N22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22">
-        <v>-14.18947368421027</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O22" t="s">
         <v>44</v>
       </c>
-      <c r="Q22">
-        <v>19.66336233122966</v>
+      <c r="P22">
+        <v>1869.3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>45</v>
       </c>
       <c r="R22">
-        <v>39.32672466245933</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S22">
-        <v>-19.66336233122966</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T22">
-        <v>-39.32672466245933</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U22">
-        <v>0.4545454545454545</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V22">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>1888.3</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0674</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.0867</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.03322</v>
       </c>
-      <c r="AK22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL22">
+      <c r="AL22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM22">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>-41.3096818205796</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:42">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>1888.3</v>
@@ -3289,114 +3358,117 @@
         <v>-0.006988182562250626</v>
       </c>
       <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.005054429385604844</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.009706276940824996</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.009706276940824996</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.01941255388164999</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.01941255388164999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.02911883082247499</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.02911883082247499</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5.046468293750712E-20</v>
       </c>
-      <c r="N23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23">
-        <v>-13.24199999999996</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="O23" t="s">
         <v>44</v>
       </c>
-      <c r="Q23">
-        <v>20.20836907362681</v>
+      <c r="P23">
+        <v>1868.3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
       </c>
       <c r="R23">
-        <v>40.41673814725362</v>
+        <v>39.067487135481</v>
       </c>
       <c r="S23">
-        <v>-20.20836907362681</v>
+        <v>78.134974270962</v>
       </c>
       <c r="T23">
-        <v>-40.41673814725362</v>
+        <v>-39.067487135481</v>
       </c>
       <c r="U23">
-        <v>0.46</v>
+        <v>-78.134974270962</v>
       </c>
       <c r="V23">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>1888.3</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-0.002124376426819952</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.002656330001926455</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.001328165000963227</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.0006640825004816137</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.0001106804167469356</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.004186551572782452</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.06645944587517218</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-0.002126636115274483</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.0674</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.0867</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.058531190926276</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.03322</v>
       </c>
-      <c r="AK23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL23">
+      <c r="AL23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM23">
         <v>-37.23794450162315</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>42.18387044362299</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-44.29626223424996</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>-41.3096818205796</v>
       </c>
     </row>
@@ -3415,10 +3487,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -140,10 +140,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
+    <t>BTCUSDT</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
     <t>Yes</t>
@@ -3490,10 +3490,10 @@
         <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>Close</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>zero</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>ZScore</t>
+  </si>
+  <si>
+    <t>R_Quad</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
   <si>
     <t>Sinal</t>
@@ -144,6 +159,135 @@
   </si>
   <si>
     <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>171.61</t>
+  </si>
+  <si>
+    <t>162.97</t>
+  </si>
+  <si>
+    <t>155.47</t>
+  </si>
+  <si>
+    <t>148.80</t>
+  </si>
+  <si>
+    <t>143.15</t>
+  </si>
+  <si>
+    <t>137.82</t>
+  </si>
+  <si>
+    <t>132.97</t>
+  </si>
+  <si>
+    <t>127.90</t>
+  </si>
+  <si>
+    <t>123.67</t>
+  </si>
+  <si>
+    <t>119.97</t>
+  </si>
+  <si>
+    <t>116.54</t>
+  </si>
+  <si>
+    <t>145.65</t>
+  </si>
+  <si>
+    <t>138.56</t>
+  </si>
+  <si>
+    <t>131.33</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>119.71</t>
+  </si>
+  <si>
+    <t>115.45</t>
+  </si>
+  <si>
+    <t>111.23</t>
+  </si>
+  <si>
+    <t>107.11</t>
+  </si>
+  <si>
+    <t>103.25</t>
+  </si>
+  <si>
+    <t>99.60</t>
+  </si>
+  <si>
+    <t>96.22</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.94</t>
   </si>
   <si>
     <t>No</t>
@@ -522,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -602,22 +746,22 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>28</v>
@@ -655,10 +799,25 @@
       <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:42">
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>29736.91</v>
@@ -699,94 +858,109 @@
       <c r="N2">
         <v>3.784851220313034E-20</v>
       </c>
-      <c r="O2" t="s">
-        <v>43</v>
+      <c r="O2">
+        <v>3.441861966860995E-08</v>
       </c>
       <c r="P2">
+        <v>0.9999999655813804</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2">
         <v>29726.91</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2">
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2">
         <v>321.5639224012145</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>643.127844802429</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>-643.127844802429</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <v>29736.91</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <v>0.0476</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <v>0.02452</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AQ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS2">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT2">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU2">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM2">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN2">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO2">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP2">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B3">
         <v>29736.91</v>
@@ -827,94 +1001,109 @@
       <c r="N3">
         <v>-7.569702440626068E-20</v>
       </c>
-      <c r="O3" t="s">
-        <v>43</v>
+      <c r="O3">
+        <v>3.30681310909427E-14</v>
       </c>
       <c r="P3">
+        <v>0.9999999999999669</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3">
         <v>29725.91</v>
       </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3">
+      <c r="V3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3">
         <v>321.5639224012145</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>643.127844802429</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>-643.127844802429</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="AC3">
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="AD3">
         <v>29736.91</v>
       </c>
-      <c r="Z3">
+      <c r="AE3">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA3">
+      <c r="AF3">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB3">
+      <c r="AG3">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC3">
+      <c r="AH3">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD3">
+      <c r="AI3">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE3">
+      <c r="AJ3">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF3">
+      <c r="AK3">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG3">
+      <c r="AL3">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH3">
+      <c r="AM3">
         <v>0.0476</v>
       </c>
-      <c r="AI3">
+      <c r="AN3">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AO3">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK3">
+      <c r="AP3">
         <v>0.02452</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AQ3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS3">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT3">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU3">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM3">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN3">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO3">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP3">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B4">
         <v>29736.91</v>
@@ -955,94 +1144,109 @@
       <c r="N4">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="O4" t="s">
-        <v>43</v>
+      <c r="O4">
+        <v>5.403506258385857E-13</v>
       </c>
       <c r="P4">
+        <v>0.9999999999994597</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4">
         <v>29724.91</v>
       </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4">
+      <c r="V4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4">
         <v>321.5639224012145</v>
       </c>
-      <c r="S4">
+      <c r="X4">
         <v>643.127844802429</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>-643.127844802429</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="AC4">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AD4">
         <v>29736.91</v>
       </c>
-      <c r="Z4">
+      <c r="AE4">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA4">
+      <c r="AF4">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB4">
+      <c r="AG4">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC4">
+      <c r="AH4">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD4">
+      <c r="AI4">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE4">
+      <c r="AJ4">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF4">
+      <c r="AK4">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG4">
+      <c r="AL4">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH4">
+      <c r="AM4">
         <v>0.0476</v>
       </c>
-      <c r="AI4">
+      <c r="AN4">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
         <v>0.02452</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AQ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR4">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS4">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT4">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU4">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM4">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN4">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO4">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP4">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B5">
         <v>29736.91</v>
@@ -1083,94 +1287,109 @@
       <c r="N5">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="O5" t="s">
-        <v>43</v>
+      <c r="O5">
+        <v>4.774957390646144E-12</v>
       </c>
       <c r="P5">
+        <v>0.999999999995225</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5">
         <v>29723.91</v>
       </c>
-      <c r="Q5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5">
+      <c r="V5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5">
         <v>321.5639224012145</v>
       </c>
-      <c r="S5">
+      <c r="X5">
         <v>643.127844802429</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>-643.127844802429</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="AB5">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="AC5">
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="AD5">
         <v>29736.91</v>
       </c>
-      <c r="Z5">
+      <c r="AE5">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD5">
+      <c r="AI5">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE5">
+      <c r="AJ5">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF5">
+      <c r="AK5">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG5">
+      <c r="AL5">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH5">
+      <c r="AM5">
         <v>0.0476</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
         <v>0.02452</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AQ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS5">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT5">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU5">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM5">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN5">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO5">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP5">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B6">
         <v>29736.91</v>
@@ -1211,94 +1430,109 @@
       <c r="N6">
         <v>1.261617073437678E-20</v>
       </c>
-      <c r="O6" t="s">
-        <v>43</v>
+      <c r="O6">
+        <v>2.872647280774432E-11</v>
       </c>
       <c r="P6">
+        <v>0.9999999999712735</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6">
         <v>29722.91</v>
       </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6">
+      <c r="V6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6">
         <v>321.5639224012145</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <v>643.127844802429</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>-643.127844802429</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>1</v>
       </c>
-      <c r="W6">
+      <c r="AB6">
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="AC6">
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="AD6">
         <v>29736.91</v>
       </c>
-      <c r="Z6">
+      <c r="AE6">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA6">
+      <c r="AF6">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC6">
+      <c r="AH6">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD6">
+      <c r="AI6">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE6">
+      <c r="AJ6">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF6">
+      <c r="AK6">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG6">
+      <c r="AL6">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH6">
+      <c r="AM6">
         <v>0.0476</v>
       </c>
-      <c r="AI6">
+      <c r="AN6">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AO6">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK6">
+      <c r="AP6">
         <v>0.02452</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AQ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR6">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS6">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT6">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU6">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM6">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN6">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO6">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP6">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B7">
         <v>29736.91</v>
@@ -1339,94 +1573,109 @@
       <c r="N7">
         <v>1.513940488125214E-19</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
+      <c r="O7">
+        <v>1.329503825774981E-10</v>
       </c>
       <c r="P7">
+        <v>0.9999999998670496</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7">
         <v>29721.91</v>
       </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7">
+      <c r="V7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7">
         <v>321.5639224012145</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <v>643.127844802429</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>-643.127844802429</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="AB7">
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="AC7">
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="AD7">
         <v>29736.91</v>
       </c>
-      <c r="Z7">
+      <c r="AE7">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA7">
+      <c r="AF7">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB7">
+      <c r="AG7">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC7">
+      <c r="AH7">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD7">
+      <c r="AI7">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE7">
+      <c r="AJ7">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF7">
+      <c r="AK7">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG7">
+      <c r="AL7">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH7">
+      <c r="AM7">
         <v>0.0476</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AO7">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK7">
+      <c r="AP7">
         <v>0.02452</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AQ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR7">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS7">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT7">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU7">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM7">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN7">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO7">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP7">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B8">
         <v>29736.91</v>
@@ -1467,94 +1716,109 @@
       <c r="N8">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="O8" t="s">
-        <v>43</v>
+      <c r="O8">
+        <v>3.971512285988529E-10</v>
       </c>
       <c r="P8">
+        <v>0.9999999996028488</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8">
         <v>29720.91</v>
       </c>
-      <c r="Q8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8">
+      <c r="V8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8">
         <v>321.5639224012145</v>
       </c>
-      <c r="S8">
+      <c r="X8">
         <v>643.127844802429</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>-643.127844802429</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="AC8">
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="AD8">
         <v>29736.91</v>
       </c>
-      <c r="Z8">
+      <c r="AE8">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA8">
+      <c r="AF8">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB8">
+      <c r="AG8">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC8">
+      <c r="AH8">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD8">
+      <c r="AI8">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE8">
+      <c r="AJ8">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF8">
+      <c r="AK8">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG8">
+      <c r="AL8">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH8">
+      <c r="AM8">
         <v>0.0476</v>
       </c>
-      <c r="AI8">
+      <c r="AN8">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AO8">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK8">
+      <c r="AP8">
         <v>0.02452</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AQ8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR8">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS8">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT8">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU8">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM8">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN8">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO8">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP8">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B9">
         <v>29736.91</v>
@@ -1595,94 +1859,109 @@
       <c r="N9">
         <v>-1.261617073437678E-20</v>
       </c>
-      <c r="O9" t="s">
-        <v>43</v>
+      <c r="O9">
+        <v>1.284418765535091E-09</v>
       </c>
       <c r="P9">
+        <v>0.9999999987155812</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9">
         <v>29719.91</v>
       </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9">
+      <c r="V9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9">
         <v>321.5639224012145</v>
       </c>
-      <c r="S9">
+      <c r="X9">
         <v>643.127844802429</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>-643.127844802429</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>1</v>
       </c>
-      <c r="W9">
+      <c r="AB9">
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="AC9">
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="AD9">
         <v>29736.91</v>
       </c>
-      <c r="Z9">
+      <c r="AE9">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA9">
+      <c r="AF9">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB9">
+      <c r="AG9">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC9">
+      <c r="AH9">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD9">
+      <c r="AI9">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE9">
+      <c r="AJ9">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF9">
+      <c r="AK9">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG9">
+      <c r="AL9">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH9">
+      <c r="AM9">
         <v>0.0476</v>
       </c>
-      <c r="AI9">
+      <c r="AN9">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ9">
+      <c r="AO9">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK9">
+      <c r="AP9">
         <v>0.02452</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AQ9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR9">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS9">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT9">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU9">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM9">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN9">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO9">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP9">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B10">
         <v>29736.91</v>
@@ -1723,94 +2002,109 @@
       <c r="N10">
         <v>1.009293658750142E-19</v>
       </c>
-      <c r="O10" t="s">
-        <v>43</v>
+      <c r="O10">
+        <v>3.326730653677056E-09</v>
       </c>
       <c r="P10">
+        <v>0.9999999966732693</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10">
         <v>29718.91</v>
       </c>
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10">
+      <c r="V10" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10">
         <v>321.5639224012145</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>643.127844802429</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>-643.127844802429</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="AB10">
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="AC10">
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="AD10">
         <v>29736.91</v>
       </c>
-      <c r="Z10">
+      <c r="AE10">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA10">
+      <c r="AF10">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB10">
+      <c r="AG10">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC10">
+      <c r="AH10">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD10">
+      <c r="AI10">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE10">
+      <c r="AJ10">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF10">
+      <c r="AK10">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG10">
+      <c r="AL10">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH10">
+      <c r="AM10">
         <v>0.0476</v>
       </c>
-      <c r="AI10">
+      <c r="AN10">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ10">
+      <c r="AO10">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK10">
+      <c r="AP10">
         <v>0.02452</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AQ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR10">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS10">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT10">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU10">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM10">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN10">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO10">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP10">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B11">
         <v>29736.91</v>
@@ -1851,94 +2145,109 @@
       <c r="N11">
         <v>-1.261617073437678E-19</v>
       </c>
-      <c r="O11" t="s">
-        <v>44</v>
+      <c r="O11">
+        <v>2.797717036520884E-08</v>
       </c>
       <c r="P11">
+        <v>0.9999999720228296</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11">
         <v>29717.91</v>
       </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11">
+      <c r="V11" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11">
         <v>321.5639224012145</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <v>643.127844802429</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>-643.127844802429</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="AB11">
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="AC11">
         <v>-1</v>
       </c>
-      <c r="Y11">
+      <c r="AD11">
         <v>29736.91</v>
       </c>
-      <c r="Z11">
+      <c r="AE11">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA11">
+      <c r="AF11">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC11">
+      <c r="AH11">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD11">
+      <c r="AI11">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE11">
+      <c r="AJ11">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF11">
+      <c r="AK11">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG11">
+      <c r="AL11">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH11">
+      <c r="AM11">
         <v>0.0476</v>
       </c>
-      <c r="AI11">
+      <c r="AN11">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ11">
+      <c r="AO11">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK11">
+      <c r="AP11">
         <v>0.02452</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AQ11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11">
+        <v>-44.96052652893341</v>
+      </c>
+      <c r="AS11">
+        <v>-44.95981614912169</v>
+      </c>
+      <c r="AT11">
+        <v>-44.94940507228398</v>
+      </c>
+      <c r="AU11">
+        <v>-44.93354711581026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM11">
-        <v>-44.96052652893341</v>
-      </c>
-      <c r="AN11">
-        <v>-44.95981614912169</v>
-      </c>
-      <c r="AO11">
-        <v>-44.94940507228398</v>
-      </c>
-      <c r="AP11">
-        <v>-44.93354711581026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B12">
         <v>29736.91</v>
@@ -1979,94 +2288,109 @@
       <c r="N12">
         <v>-2.27091073218782E-19</v>
       </c>
-      <c r="O12" t="s">
-        <v>44</v>
+      <c r="O12">
+        <v>3.270236560705853E-08</v>
       </c>
       <c r="P12">
+        <v>0.9999999672976344</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12">
         <v>29716.91</v>
       </c>
-      <c r="Q12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12">
+      <c r="V12" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12">
         <v>321.5639224012145</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <v>643.127844802429</v>
       </c>
-      <c r="T12">
+      <c r="Y12">
         <v>-321.5639224012145</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>-643.127844802429</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>1</v>
       </c>
-      <c r="W12">
+      <c r="AB12">
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="AC12">
         <v>-1</v>
       </c>
-      <c r="Y12">
+      <c r="AD12">
         <v>29736.91</v>
       </c>
-      <c r="Z12">
+      <c r="AE12">
         <v>0.0007039980831868853</v>
       </c>
-      <c r="AA12">
+      <c r="AF12">
         <v>-0.01903040776483089</v>
       </c>
-      <c r="AB12">
+      <c r="AG12">
         <v>-0.009515203882415444</v>
       </c>
-      <c r="AC12">
+      <c r="AH12">
         <v>-0.004757601941207722</v>
       </c>
-      <c r="AD12">
+      <c r="AI12">
         <v>-0.0007929336568679537</v>
       </c>
-      <c r="AE12">
+      <c r="AJ12">
         <v>0.003508327239604736</v>
       </c>
-      <c r="AF12">
+      <c r="AK12">
         <v>0.05569296836296708</v>
       </c>
-      <c r="AG12">
+      <c r="AL12">
         <v>0.000703750392778551</v>
       </c>
-      <c r="AH12">
+      <c r="AM12">
         <v>0.0476</v>
       </c>
-      <c r="AI12">
+      <c r="AN12">
         <v>0.07208000000000001</v>
       </c>
-      <c r="AJ12">
+      <c r="AO12">
         <v>0.04920189035916824</v>
       </c>
-      <c r="AK12">
+      <c r="AP12">
         <v>0.02452</v>
       </c>
-      <c r="AL12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM12">
+      <c r="AQ12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR12">
         <v>-44.96052652893341</v>
       </c>
-      <c r="AN12">
+      <c r="AS12">
         <v>-44.95981614912169</v>
       </c>
-      <c r="AO12">
+      <c r="AT12">
         <v>-44.94940507228398</v>
       </c>
-      <c r="AP12">
+      <c r="AU12">
         <v>-44.93354711581026</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:47">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>1893.18</v>
@@ -2107,94 +2431,109 @@
       <c r="N13">
         <v>-5.046468293750712E-20</v>
       </c>
-      <c r="O13" t="s">
-        <v>44</v>
+      <c r="O13">
+        <v>2.915215666739051E-08</v>
       </c>
       <c r="P13">
+        <v>0.9999999708478433</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U13">
         <v>1883.18</v>
       </c>
-      <c r="Q13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13">
+      <c r="V13" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13">
         <v>39.0698487948036</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <v>78.1396975896072</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="AB13">
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="AC13">
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="AD13">
         <v>1893.18</v>
       </c>
-      <c r="Z13">
+      <c r="AE13">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA13">
+      <c r="AF13">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB13">
+      <c r="AG13">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC13">
+      <c r="AH13">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD13">
+      <c r="AI13">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE13">
+      <c r="AJ13">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF13">
+      <c r="AK13">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG13">
+      <c r="AL13">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH13">
+      <c r="AM13">
         <v>0.0494</v>
       </c>
-      <c r="AI13">
+      <c r="AN13">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ13">
+      <c r="AO13">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK13">
+      <c r="AP13">
         <v>0.03322</v>
       </c>
-      <c r="AL13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM13">
+      <c r="AQ13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR13">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN13">
+      <c r="AS13">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO13">
+      <c r="AT13">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP13">
+      <c r="AU13">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:47">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1893.18</v>
@@ -2235,94 +2574,109 @@
       <c r="N14">
         <v>1.261617073437678E-19</v>
       </c>
-      <c r="O14" t="s">
-        <v>43</v>
+      <c r="O14">
+        <v>9.004548072304607E-10</v>
       </c>
       <c r="P14">
+        <v>0.9999999990995452</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14">
         <v>1882.18</v>
       </c>
-      <c r="Q14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14">
+      <c r="V14" t="s">
+        <v>93</v>
+      </c>
+      <c r="W14">
         <v>39.0698487948036</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>78.1396975896072</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>1</v>
       </c>
-      <c r="W14">
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="AC14">
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="AD14">
         <v>1893.18</v>
       </c>
-      <c r="Z14">
+      <c r="AE14">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA14">
+      <c r="AF14">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB14">
+      <c r="AG14">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC14">
+      <c r="AH14">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD14">
+      <c r="AI14">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE14">
+      <c r="AJ14">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF14">
+      <c r="AK14">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG14">
+      <c r="AL14">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH14">
+      <c r="AM14">
         <v>0.0494</v>
       </c>
-      <c r="AI14">
+      <c r="AN14">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ14">
+      <c r="AO14">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK14">
+      <c r="AP14">
         <v>0.03322</v>
       </c>
-      <c r="AL14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM14">
+      <c r="AQ14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR14">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN14">
+      <c r="AS14">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO14">
+      <c r="AT14">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP14">
+      <c r="AU14">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:47">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1893.18</v>
@@ -2363,94 +2717,109 @@
       <c r="N15">
         <v>2.523234146875356E-20</v>
       </c>
-      <c r="O15" t="s">
-        <v>43</v>
+      <c r="O15">
+        <v>2.354592471789634E-08</v>
       </c>
       <c r="P15">
+        <v>0.9999999764540752</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15">
         <v>1881.18</v>
       </c>
-      <c r="Q15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15">
+      <c r="V15" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15">
         <v>39.0698487948036</v>
       </c>
-      <c r="S15">
+      <c r="X15">
         <v>78.1396975896072</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="AB15">
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="AC15">
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="AD15">
         <v>1893.18</v>
       </c>
-      <c r="Z15">
+      <c r="AE15">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA15">
+      <c r="AF15">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB15">
+      <c r="AG15">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC15">
+      <c r="AH15">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD15">
+      <c r="AI15">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE15">
+      <c r="AJ15">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF15">
+      <c r="AK15">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG15">
+      <c r="AL15">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH15">
+      <c r="AM15">
         <v>0.0494</v>
       </c>
-      <c r="AI15">
+      <c r="AN15">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ15">
+      <c r="AO15">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK15">
+      <c r="AP15">
         <v>0.03322</v>
       </c>
-      <c r="AL15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM15">
+      <c r="AQ15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR15">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN15">
+      <c r="AS15">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO15">
+      <c r="AT15">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP15">
+      <c r="AU15">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:47">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>1893.18</v>
@@ -2491,94 +2860,109 @@
       <c r="N16">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="O16" t="s">
-        <v>43</v>
+      <c r="O16">
+        <v>5.778140317062354E-08</v>
       </c>
       <c r="P16">
+        <v>0.9999999422185968</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16">
         <v>1880.18</v>
       </c>
-      <c r="Q16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16">
+      <c r="V16" t="s">
+        <v>93</v>
+      </c>
+      <c r="W16">
         <v>39.0698487948036</v>
       </c>
-      <c r="S16">
+      <c r="X16">
         <v>78.1396975896072</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>1</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="AC16">
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="AD16">
         <v>1893.18</v>
       </c>
-      <c r="Z16">
+      <c r="AE16">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA16">
+      <c r="AF16">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB16">
+      <c r="AG16">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC16">
+      <c r="AH16">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD16">
+      <c r="AI16">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE16">
+      <c r="AJ16">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF16">
+      <c r="AK16">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG16">
+      <c r="AL16">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH16">
+      <c r="AM16">
         <v>0.0494</v>
       </c>
-      <c r="AI16">
+      <c r="AN16">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ16">
+      <c r="AO16">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK16">
+      <c r="AP16">
         <v>0.03322</v>
       </c>
-      <c r="AL16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM16">
+      <c r="AQ16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR16">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN16">
+      <c r="AS16">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO16">
+      <c r="AT16">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP16">
+      <c r="AU16">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:47">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>1893.18</v>
@@ -2619,94 +3003,109 @@
       <c r="N17">
         <v>2.523234146875356E-20</v>
       </c>
-      <c r="O17" t="s">
-        <v>43</v>
+      <c r="O17">
+        <v>3.772748265848927E-08</v>
       </c>
       <c r="P17">
+        <v>0.9999999622725173</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17">
         <v>1879.18</v>
       </c>
-      <c r="Q17" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17">
+      <c r="V17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W17">
         <v>39.0698487948036</v>
       </c>
-      <c r="S17">
+      <c r="X17">
         <v>78.1396975896072</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>1</v>
       </c>
-      <c r="W17">
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="AC17">
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="AD17">
         <v>1893.18</v>
       </c>
-      <c r="Z17">
+      <c r="AE17">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA17">
+      <c r="AF17">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB17">
+      <c r="AG17">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC17">
+      <c r="AH17">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD17">
+      <c r="AI17">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE17">
+      <c r="AJ17">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF17">
+      <c r="AK17">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG17">
+      <c r="AL17">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH17">
+      <c r="AM17">
         <v>0.0494</v>
       </c>
-      <c r="AI17">
+      <c r="AN17">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ17">
+      <c r="AO17">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK17">
+      <c r="AP17">
         <v>0.03322</v>
       </c>
-      <c r="AL17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM17">
+      <c r="AQ17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR17">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN17">
+      <c r="AS17">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO17">
+      <c r="AT17">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP17">
+      <c r="AU17">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:47">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>1893.18</v>
@@ -2747,94 +3146,109 @@
       <c r="N18">
         <v>1.766263902812749E-19</v>
       </c>
-      <c r="O18" t="s">
-        <v>43</v>
+      <c r="O18">
+        <v>9.124641950589632E-08</v>
       </c>
       <c r="P18">
+        <v>0.9999999087535805</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18">
         <v>1878.18</v>
       </c>
-      <c r="Q18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18">
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18">
         <v>39.0698487948036</v>
       </c>
-      <c r="S18">
+      <c r="X18">
         <v>78.1396975896072</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>1</v>
       </c>
-      <c r="W18">
+      <c r="AB18">
         <v>0</v>
       </c>
-      <c r="X18">
+      <c r="AC18">
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="AD18">
         <v>1893.18</v>
       </c>
-      <c r="Z18">
+      <c r="AE18">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA18">
+      <c r="AF18">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB18">
+      <c r="AG18">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC18">
+      <c r="AH18">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD18">
+      <c r="AI18">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE18">
+      <c r="AJ18">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF18">
+      <c r="AK18">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG18">
+      <c r="AL18">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH18">
+      <c r="AM18">
         <v>0.0494</v>
       </c>
-      <c r="AI18">
+      <c r="AN18">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ18">
+      <c r="AO18">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK18">
+      <c r="AP18">
         <v>0.03322</v>
       </c>
-      <c r="AL18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM18">
+      <c r="AQ18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR18">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN18">
+      <c r="AS18">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP18">
+      <c r="AU18">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:47">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1893.18</v>
@@ -2875,94 +3289,109 @@
       <c r="N19">
         <v>1.009293658750142E-19</v>
       </c>
-      <c r="O19" t="s">
-        <v>43</v>
+      <c r="O19">
+        <v>1.778786939776195E-07</v>
       </c>
       <c r="P19">
+        <v>0.999999822121306</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T19" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19">
         <v>1877.18</v>
       </c>
-      <c r="Q19" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19">
+      <c r="V19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19">
         <v>39.0698487948036</v>
       </c>
-      <c r="S19">
+      <c r="X19">
         <v>78.1396975896072</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>1</v>
       </c>
-      <c r="W19">
+      <c r="AB19">
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="AC19">
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="AD19">
         <v>1893.18</v>
       </c>
-      <c r="Z19">
+      <c r="AE19">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA19">
+      <c r="AF19">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB19">
+      <c r="AG19">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC19">
+      <c r="AH19">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD19">
+      <c r="AI19">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE19">
+      <c r="AJ19">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF19">
+      <c r="AK19">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG19">
+      <c r="AL19">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH19">
+      <c r="AM19">
         <v>0.0494</v>
       </c>
-      <c r="AI19">
+      <c r="AN19">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ19">
+      <c r="AO19">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK19">
+      <c r="AP19">
         <v>0.03322</v>
       </c>
-      <c r="AL19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM19">
+      <c r="AQ19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR19">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN19">
+      <c r="AS19">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO19">
+      <c r="AT19">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP19">
+      <c r="AU19">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:47">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>1893.18</v>
@@ -3003,94 +3432,109 @@
       <c r="N20">
         <v>5.046468293750712E-20</v>
       </c>
-      <c r="O20" t="s">
-        <v>43</v>
+      <c r="O20">
+        <v>4.198359451777684E-07</v>
       </c>
       <c r="P20">
+        <v>0.9999995801640548</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20">
         <v>1876.18</v>
       </c>
-      <c r="Q20" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20">
+      <c r="V20" t="s">
+        <v>93</v>
+      </c>
+      <c r="W20">
         <v>39.0698487948036</v>
       </c>
-      <c r="S20">
+      <c r="X20">
         <v>78.1396975896072</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="W20">
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="AC20">
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="AD20">
         <v>1893.18</v>
       </c>
-      <c r="Z20">
+      <c r="AE20">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA20">
+      <c r="AF20">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB20">
+      <c r="AG20">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC20">
+      <c r="AH20">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD20">
+      <c r="AI20">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE20">
+      <c r="AJ20">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF20">
+      <c r="AK20">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG20">
+      <c r="AL20">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH20">
+      <c r="AM20">
         <v>0.0494</v>
       </c>
-      <c r="AI20">
+      <c r="AN20">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ20">
+      <c r="AO20">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK20">
+      <c r="AP20">
         <v>0.03322</v>
       </c>
-      <c r="AL20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM20">
+      <c r="AQ20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR20">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN20">
+      <c r="AS20">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO20">
+      <c r="AT20">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP20">
+      <c r="AU20">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:47">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>1893.18</v>
@@ -3131,94 +3575,109 @@
       <c r="N21">
         <v>-2.523234146875356E-20</v>
       </c>
-      <c r="O21" t="s">
-        <v>43</v>
+      <c r="O21">
+        <v>5.821744364518538E-07</v>
       </c>
       <c r="P21">
+        <v>0.9999994178255636</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s">
+        <v>90</v>
+      </c>
+      <c r="T21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21">
         <v>1875.18</v>
       </c>
-      <c r="Q21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21">
+      <c r="V21" t="s">
+        <v>93</v>
+      </c>
+      <c r="W21">
         <v>39.0698487948036</v>
       </c>
-      <c r="S21">
+      <c r="X21">
         <v>78.1396975896072</v>
       </c>
-      <c r="T21">
+      <c r="Y21">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="W21">
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="AC21">
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="AD21">
         <v>1893.18</v>
       </c>
-      <c r="Z21">
+      <c r="AE21">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA21">
+      <c r="AF21">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB21">
+      <c r="AG21">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC21">
+      <c r="AH21">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD21">
+      <c r="AI21">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE21">
+      <c r="AJ21">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF21">
+      <c r="AK21">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG21">
+      <c r="AL21">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH21">
+      <c r="AM21">
         <v>0.0494</v>
       </c>
-      <c r="AI21">
+      <c r="AN21">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ21">
+      <c r="AO21">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK21">
+      <c r="AP21">
         <v>0.03322</v>
       </c>
-      <c r="AL21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM21">
+      <c r="AQ21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR21">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN21">
+      <c r="AS21">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO21">
+      <c r="AT21">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP21">
+      <c r="AU21">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:47">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>1893.18</v>
@@ -3259,94 +3718,109 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
-        <v>43</v>
+      <c r="O22">
+        <v>7.845750958869622E-07</v>
       </c>
       <c r="P22">
+        <v>0.9999992154249041</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22">
         <v>1874.18</v>
       </c>
-      <c r="Q22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22">
+      <c r="V22" t="s">
+        <v>93</v>
+      </c>
+      <c r="W22">
         <v>39.0698487948036</v>
       </c>
-      <c r="S22">
+      <c r="X22">
         <v>78.1396975896072</v>
       </c>
-      <c r="T22">
+      <c r="Y22">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>1</v>
       </c>
-      <c r="W22">
+      <c r="AB22">
         <v>0</v>
       </c>
-      <c r="X22">
+      <c r="AC22">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="AD22">
         <v>1893.18</v>
       </c>
-      <c r="Z22">
+      <c r="AE22">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA22">
+      <c r="AF22">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB22">
+      <c r="AG22">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC22">
+      <c r="AH22">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD22">
+      <c r="AI22">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE22">
+      <c r="AJ22">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF22">
+      <c r="AK22">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG22">
+      <c r="AL22">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH22">
+      <c r="AM22">
         <v>0.0494</v>
       </c>
-      <c r="AI22">
+      <c r="AN22">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ22">
+      <c r="AO22">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK22">
+      <c r="AP22">
         <v>0.03322</v>
       </c>
-      <c r="AL22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM22">
+      <c r="AQ22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR22">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN22">
+      <c r="AS22">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO22">
+      <c r="AT22">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP22">
+      <c r="AU22">
         <v>-43.4629218971994</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:47">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1893.18</v>
@@ -3387,88 +3861,103 @@
       <c r="N23">
         <v>-1.766263902812749E-19</v>
       </c>
-      <c r="O23" t="s">
-        <v>43</v>
+      <c r="O23">
+        <v>9.372406324596309E-07</v>
       </c>
       <c r="P23">
+        <v>0.9999990627593676</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23">
         <v>1873.18</v>
       </c>
-      <c r="Q23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23">
+      <c r="V23" t="s">
+        <v>93</v>
+      </c>
+      <c r="W23">
         <v>39.0698487948036</v>
       </c>
-      <c r="S23">
+      <c r="X23">
         <v>78.1396975896072</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <v>-39.0698487948036</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>-78.1396975896072</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>1</v>
       </c>
-      <c r="W23">
+      <c r="AB23">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="AC23">
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="AD23">
         <v>1893.18</v>
       </c>
-      <c r="Z23">
+      <c r="AE23">
         <v>0.0005972358024366464</v>
       </c>
-      <c r="AA23">
+      <c r="AF23">
         <v>0.001733689347566842</v>
       </c>
-      <c r="AB23">
+      <c r="AG23">
         <v>0.0008668446737834212</v>
       </c>
-      <c r="AC23">
+      <c r="AH23">
         <v>0.0004334223368917106</v>
       </c>
-      <c r="AD23">
+      <c r="AI23">
         <v>7.223705614861844E-05</v>
       </c>
-      <c r="AE23">
+      <c r="AJ23">
         <v>0.004210204889051544</v>
       </c>
-      <c r="AF23">
+      <c r="AK23">
         <v>0.06683493063035204</v>
       </c>
-      <c r="AG23">
+      <c r="AL23">
         <v>0.0005970575281124648</v>
       </c>
-      <c r="AH23">
+      <c r="AM23">
         <v>0.0494</v>
       </c>
-      <c r="AI23">
+      <c r="AN23">
         <v>0.08498000000000003</v>
       </c>
-      <c r="AJ23">
+      <c r="AO23">
         <v>0.05811209829867675</v>
       </c>
-      <c r="AK23">
+      <c r="AP23">
         <v>0.03322</v>
       </c>
-      <c r="AL23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM23">
+      <c r="AQ23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR23">
         <v>-39.95530884225295</v>
       </c>
-      <c r="AN23">
+      <c r="AS23">
         <v>43.70868358562288</v>
       </c>
-      <c r="AO23">
+      <c r="AT23">
         <v>-44.22086980054164</v>
       </c>
-      <c r="AP23">
+      <c r="AU23">
         <v>-43.4629218971994</v>
       </c>
     </row>
@@ -3487,13 +3976,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -946,16 +946,16 @@
         <v>94</v>
       </c>
       <c r="AR2">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS2">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT2">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU2">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -1089,16 +1089,16 @@
         <v>94</v>
       </c>
       <c r="AR3">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS3">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT3">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU3">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1232,16 +1232,16 @@
         <v>94</v>
       </c>
       <c r="AR4">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS4">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT4">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU4">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1375,16 +1375,16 @@
         <v>94</v>
       </c>
       <c r="AR5">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS5">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT5">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU5">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1518,16 +1518,16 @@
         <v>94</v>
       </c>
       <c r="AR6">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS6">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT6">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU6">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1661,16 +1661,16 @@
         <v>94</v>
       </c>
       <c r="AR7">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS7">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT7">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU7">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1804,16 +1804,16 @@
         <v>94</v>
       </c>
       <c r="AR8">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS8">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT8">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU8">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1947,16 +1947,16 @@
         <v>94</v>
       </c>
       <c r="AR9">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS9">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT9">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU9">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -2090,16 +2090,16 @@
         <v>94</v>
       </c>
       <c r="AR10">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS10">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT10">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU10">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2233,16 +2233,16 @@
         <v>94</v>
       </c>
       <c r="AR11">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS11">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT11">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU11">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="12" spans="1:47">
@@ -2376,16 +2376,16 @@
         <v>94</v>
       </c>
       <c r="AR12">
-        <v>-44.96052652893341</v>
+        <v>-44.9781866687326</v>
       </c>
       <c r="AS12">
-        <v>-44.95981614912169</v>
+        <v>-44.93546184574437</v>
       </c>
       <c r="AT12">
-        <v>-44.94940507228398</v>
+        <v>-44.96561993591096</v>
       </c>
       <c r="AU12">
-        <v>-44.93354711581026</v>
+        <v>-44.94334786344583</v>
       </c>
     </row>
     <row r="13" spans="1:47">
@@ -2519,16 +2519,16 @@
         <v>94</v>
       </c>
       <c r="AR13">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS13">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT13">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU13">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2662,16 +2662,16 @@
         <v>94</v>
       </c>
       <c r="AR14">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS14">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT14">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU14">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="15" spans="1:47">
@@ -2805,16 +2805,16 @@
         <v>94</v>
       </c>
       <c r="AR15">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS15">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT15">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU15">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="16" spans="1:47">
@@ -2948,16 +2948,16 @@
         <v>94</v>
       </c>
       <c r="AR16">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS16">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT16">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU16">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="17" spans="1:47">
@@ -3091,16 +3091,16 @@
         <v>94</v>
       </c>
       <c r="AR17">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS17">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT17">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU17">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="18" spans="1:47">
@@ -3234,16 +3234,16 @@
         <v>94</v>
       </c>
       <c r="AR18">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS18">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT18">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU18">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="19" spans="1:47">
@@ -3377,16 +3377,16 @@
         <v>94</v>
       </c>
       <c r="AR19">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS19">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT19">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU19">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="20" spans="1:47">
@@ -3520,16 +3520,16 @@
         <v>94</v>
       </c>
       <c r="AR20">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS20">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT20">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU20">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="21" spans="1:47">
@@ -3663,16 +3663,16 @@
         <v>94</v>
       </c>
       <c r="AR21">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS21">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT21">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU21">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="22" spans="1:47">
@@ -3806,16 +3806,16 @@
         <v>94</v>
       </c>
       <c r="AR22">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS22">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT22">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU22">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
     <row r="23" spans="1:47">
@@ -3949,16 +3949,16 @@
         <v>94</v>
       </c>
       <c r="AR23">
-        <v>-39.95530884225295</v>
+        <v>-44.55394620573016</v>
       </c>
       <c r="AS23">
-        <v>43.70868358562288</v>
+        <v>44.22613020273602</v>
       </c>
       <c r="AT23">
-        <v>-44.22086980054164</v>
+        <v>43.37494854343048</v>
       </c>
       <c r="AU23">
-        <v>-43.4629218971994</v>
+        <v>-43.78837045169413</v>
       </c>
     </row>
   </sheetData>

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -155,10 +155,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
+    <t>BTCUSDT</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
     <t>171.61</t>
@@ -3979,10 +3979,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DF_completoCrypto.xlsx
+++ b/DF_completoCrypto.xlsx
@@ -155,10 +155,10 @@
     <t>TICKER</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>ETHUSDT</t>
   </si>
   <si>
-    <t>ETHUSDT</t>
+    <t>BTCUSDT</t>
   </si>
   <si>
     <t>171.61</t>
@@ -3979,10 +3979,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
